--- a/Code/Results/Cases/Case_4_1/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_1/res_line/loading_percent.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.42235460468867</v>
+        <v>17.42235460468857</v>
       </c>
       <c r="C2">
-        <v>16.67976119775178</v>
+        <v>16.67976119775183</v>
       </c>
       <c r="D2">
-        <v>8.077780775786781</v>
+        <v>8.077780775786792</v>
       </c>
       <c r="E2">
-        <v>10.08932733458918</v>
+        <v>10.0893273345892</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>36.12021090667062</v>
+        <v>36.12021090667046</v>
       </c>
       <c r="H2">
-        <v>30.34987228255911</v>
+        <v>30.34987228255898</v>
       </c>
       <c r="I2">
-        <v>5.405906370677894</v>
+        <v>5.40590637067786</v>
       </c>
       <c r="J2">
-        <v>16.89908746216443</v>
+        <v>16.89908746216439</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>16.05421179463302</v>
+        <v>16.05421179463292</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,13 +450,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.16023186832322</v>
+        <v>16.16023186832323</v>
       </c>
       <c r="C3">
-        <v>15.44881363095691</v>
+        <v>15.44881363095693</v>
       </c>
       <c r="D3">
-        <v>7.61486542243683</v>
+        <v>7.614865422436889</v>
       </c>
       <c r="E3">
         <v>9.618050302871978</v>
@@ -465,22 +465,22 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>34.39415784108946</v>
+        <v>34.39415784108949</v>
       </c>
       <c r="H3">
-        <v>29.10399203096634</v>
+        <v>29.10399203096639</v>
       </c>
       <c r="I3">
-        <v>5.349085937242108</v>
+        <v>5.349085937242028</v>
       </c>
       <c r="J3">
-        <v>15.68778011310212</v>
+        <v>15.68778011310215</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>14.90614170398967</v>
+        <v>14.90614170398968</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.34784835545558</v>
+        <v>15.34784835545557</v>
       </c>
       <c r="C4">
-        <v>14.65897347014533</v>
+        <v>14.65897347014541</v>
       </c>
       <c r="D4">
-        <v>7.324887979433983</v>
+        <v>7.324887979434004</v>
       </c>
       <c r="E4">
-        <v>9.327528830779128</v>
+        <v>9.327528830779206</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>33.32441072857821</v>
+        <v>33.32441072857813</v>
       </c>
       <c r="H4">
-        <v>28.33786725199804</v>
+        <v>28.337867251998</v>
       </c>
       <c r="I4">
-        <v>5.317245717988028</v>
+        <v>5.317245717987984</v>
       </c>
       <c r="J4">
-        <v>14.90858768986826</v>
+        <v>14.9085876898683</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>14.16804172822166</v>
+        <v>14.16804172822167</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.0071771056958</v>
+        <v>15.0071771056959</v>
       </c>
       <c r="C5">
-        <v>14.32835244054977</v>
+        <v>14.32835244054982</v>
       </c>
       <c r="D5">
-        <v>7.205353750716748</v>
+        <v>7.205353750716735</v>
       </c>
       <c r="E5">
-        <v>9.208931658571233</v>
+        <v>9.208931658571263</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>32.88624120545031</v>
+        <v>32.8862412054503</v>
       </c>
       <c r="H5">
-        <v>28.02552530518901</v>
+        <v>28.025525305189</v>
       </c>
       <c r="I5">
-        <v>5.305002865153346</v>
+        <v>5.305002865153502</v>
       </c>
       <c r="J5">
-        <v>14.58194330986677</v>
+        <v>14.58194330986684</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>13.85872345013488</v>
+        <v>13.85872345013494</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,31 +564,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.95002227582664</v>
+        <v>14.95002227582666</v>
       </c>
       <c r="C6">
-        <v>14.27291901483282</v>
+        <v>14.27291901483293</v>
       </c>
       <c r="D6">
-        <v>7.185425592728414</v>
+        <v>7.185425592728432</v>
       </c>
       <c r="E6">
-        <v>9.189229093813516</v>
+        <v>9.189229093813591</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>32.81335769554046</v>
+        <v>32.81335769554043</v>
       </c>
       <c r="H6">
-        <v>27.97365806402146</v>
+        <v>27.97365806402147</v>
       </c>
       <c r="I6">
-        <v>5.303013212801079</v>
+        <v>5.303013212801085</v>
       </c>
       <c r="J6">
-        <v>14.52714792720674</v>
+        <v>14.52714792720683</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.34329314839916</v>
+        <v>15.34329314839902</v>
       </c>
       <c r="C7">
-        <v>14.65455028978395</v>
+        <v>14.65455028978392</v>
       </c>
       <c r="D7">
-        <v>7.323281303006167</v>
+        <v>7.32328130300616</v>
       </c>
       <c r="E7">
-        <v>9.325930098480047</v>
+        <v>9.325930098479979</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>33.31851007308485</v>
+        <v>33.31851007308504</v>
       </c>
       <c r="H7">
-        <v>28.33365523075641</v>
+        <v>28.33365523075657</v>
       </c>
       <c r="I7">
-        <v>5.317077685355641</v>
+        <v>5.317077685355638</v>
       </c>
       <c r="J7">
-        <v>14.90421962355587</v>
+        <v>14.90421962355575</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>14.16390496214585</v>
+        <v>14.16390496214578</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.99481576123485</v>
+        <v>16.99481576123484</v>
       </c>
       <c r="C8">
-        <v>16.26226785241322</v>
+        <v>16.26226785241316</v>
       </c>
       <c r="D8">
-        <v>7.91939739450266</v>
+        <v>7.919397394502665</v>
       </c>
       <c r="E8">
-        <v>9.927112436766953</v>
+        <v>9.927112436766947</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>35.52725864451656</v>
+        <v>35.52725864451667</v>
       </c>
       <c r="H8">
-        <v>29.92060355439877</v>
+        <v>29.92060355439891</v>
       </c>
       <c r="I8">
-        <v>5.385661007328768</v>
+        <v>5.38566100732873</v>
       </c>
       <c r="J8">
-        <v>16.48865714024968</v>
+        <v>16.48865714024966</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>15.66512240878323</v>
+        <v>15.66512240878322</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,31 +678,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.94661003189583</v>
+        <v>19.94661003189595</v>
       </c>
       <c r="C9">
-        <v>19.15522422865876</v>
+        <v>19.1552242286586</v>
       </c>
       <c r="D9">
         <v>9.041017860079787</v>
       </c>
       <c r="E9">
-        <v>11.09472015397545</v>
+        <v>11.09472015397547</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>39.77358832597675</v>
+        <v>39.77358832597667</v>
       </c>
       <c r="H9">
-        <v>33.02018284942502</v>
+        <v>33.02018284942491</v>
       </c>
       <c r="I9">
-        <v>5.545992057987635</v>
+        <v>5.545992057987633</v>
       </c>
       <c r="J9">
-        <v>19.32465922609401</v>
+        <v>19.32465922609404</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.95635356915372</v>
+        <v>21.95635356915366</v>
       </c>
       <c r="C10">
-        <v>21.13893983652812</v>
+        <v>21.13893983652808</v>
       </c>
       <c r="D10">
-        <v>9.836247399055697</v>
+        <v>9.83624739905567</v>
       </c>
       <c r="E10">
         <v>11.94525763682573</v>
@@ -731,22 +731,22 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>42.84185061337851</v>
+        <v>42.84185061337833</v>
       </c>
       <c r="H10">
-        <v>35.29102455534942</v>
+        <v>35.2910245553493</v>
       </c>
       <c r="I10">
-        <v>5.682096624833319</v>
+        <v>5.682096624833307</v>
       </c>
       <c r="J10">
-        <v>21.25891259486163</v>
+        <v>21.25891259486159</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>20.19247026622999</v>
+        <v>20.19247026622991</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.84025984016375</v>
+        <v>22.84025984016372</v>
       </c>
       <c r="C11">
-        <v>22.01506529734841</v>
+        <v>22.01506529734834</v>
       </c>
       <c r="D11">
-        <v>10.22943301386717</v>
+        <v>10.2294330138671</v>
       </c>
       <c r="E11">
-        <v>12.33128116333902</v>
+        <v>12.331281163339</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>44.2291739733086</v>
+        <v>44.22917397330842</v>
       </c>
       <c r="H11">
-        <v>36.32473943771489</v>
+        <v>36.32473943771473</v>
       </c>
       <c r="I11">
-        <v>5.748652039360889</v>
+        <v>5.748652039360827</v>
       </c>
       <c r="J11">
-        <v>22.11055904911182</v>
+        <v>22.11055904911178</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>21.00187921589308</v>
+        <v>21.00187921589307</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.1710130033172</v>
+        <v>23.17101300331715</v>
       </c>
       <c r="C12">
-        <v>22.34349552370778</v>
+        <v>22.34349552370776</v>
       </c>
       <c r="D12">
-        <v>10.38022927260891</v>
+        <v>10.38022927260889</v>
       </c>
       <c r="E12">
-        <v>12.47744188676469</v>
+        <v>12.47744188676463</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>44.75371202493703</v>
+        <v>44.75371202493697</v>
       </c>
       <c r="H12">
-        <v>36.71658544776572</v>
+        <v>36.71658544776567</v>
       </c>
       <c r="I12">
-        <v>5.774587396434282</v>
+        <v>5.774587396434232</v>
       </c>
       <c r="J12">
-        <v>22.42939653186864</v>
+        <v>22.4293965318686</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>21.30498806657628</v>
+        <v>21.30498806657624</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.09994863153837</v>
+        <v>23.09994863153853</v>
       </c>
       <c r="C13">
-        <v>22.27290295529857</v>
+        <v>22.27290295529842</v>
       </c>
       <c r="D13">
-        <v>10.34782228427227</v>
+        <v>10.3478222842723</v>
       </c>
       <c r="E13">
-        <v>12.44596208914069</v>
+        <v>12.4459620891407</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>44.64077127727409</v>
+        <v>44.6407712772742</v>
       </c>
       <c r="H13">
-        <v>36.63217049171343</v>
+        <v>36.63217049171352</v>
       </c>
       <c r="I13">
-        <v>5.768968035749505</v>
+        <v>5.768968035749522</v>
       </c>
       <c r="J13">
-        <v>22.3608850272037</v>
+        <v>22.36088502720376</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>21.23985247824394</v>
+        <v>21.239852478244</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.86754802172722</v>
+        <v>22.86754802172721</v>
       </c>
       <c r="C14">
-        <v>22.0421496064818</v>
+        <v>22.04214960648165</v>
       </c>
       <c r="D14">
-        <v>10.24187081103686</v>
+        <v>10.24187081103681</v>
       </c>
       <c r="E14">
-        <v>12.34330545230012</v>
+        <v>12.34330545230011</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>44.27234140157311</v>
+        <v>44.27234140157309</v>
       </c>
       <c r="H14">
-        <v>36.35696666218848</v>
+        <v>36.3569666621885</v>
       </c>
       <c r="I14">
-        <v>5.750770670932718</v>
+        <v>5.750770670932667</v>
       </c>
       <c r="J14">
-        <v>22.1368608903329</v>
+        <v>22.13686089033284</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>21.02688183164496</v>
+        <v>21.0268818316449</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.72469272343006</v>
+        <v>22.72469272343023</v>
       </c>
       <c r="C15">
-        <v>21.90038586836799</v>
+        <v>21.90038586836794</v>
       </c>
       <c r="D15">
-        <v>10.17676496699331</v>
+        <v>10.17676496699335</v>
       </c>
       <c r="E15">
-        <v>12.28042704042082</v>
+        <v>12.28042704042089</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>44.04657655985573</v>
+        <v>44.04657655985582</v>
       </c>
       <c r="H15">
-        <v>36.1884595207592</v>
+        <v>36.18845952075925</v>
       </c>
       <c r="I15">
-        <v>5.739721730610444</v>
+        <v>5.739721730610422</v>
       </c>
       <c r="J15">
-        <v>21.99917559375476</v>
+        <v>21.99917559375486</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>20.89600118841569</v>
+        <v>20.89600118841577</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.89801058089278</v>
+        <v>21.89801058089266</v>
       </c>
       <c r="C16">
-        <v>21.08119017931961</v>
+        <v>21.08119017931952</v>
       </c>
       <c r="D16">
-        <v>9.812864380147614</v>
+        <v>9.812864380147611</v>
       </c>
       <c r="E16">
-        <v>11.92002050285324</v>
+        <v>11.92002050285323</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>42.75104666735625</v>
+        <v>42.75104666735623</v>
       </c>
       <c r="H16">
-        <v>35.2235058643918</v>
+        <v>35.22350586439179</v>
       </c>
       <c r="I16">
-        <v>5.677845772646612</v>
+        <v>5.677845772646552</v>
       </c>
       <c r="J16">
-        <v>21.20271981965647</v>
+        <v>21.20271981965637</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>20.13907597998032</v>
+        <v>20.13907597998027</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.3833641875268</v>
+        <v>21.38336418752683</v>
       </c>
       <c r="C17">
-        <v>20.57220111598841</v>
+        <v>20.57220111598835</v>
       </c>
       <c r="D17">
-        <v>9.607331887158855</v>
+        <v>9.607331887158834</v>
       </c>
       <c r="E17">
-        <v>11.69875828021716</v>
+        <v>11.69875828021715</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>41.95435530216224</v>
+        <v>41.95435530216217</v>
       </c>
       <c r="H17">
-        <v>34.63189355706352</v>
+        <v>34.63189355706346</v>
       </c>
       <c r="I17">
-        <v>5.641118537482566</v>
+        <v>5.641118537482519</v>
       </c>
       <c r="J17">
-        <v>20.7071499271172</v>
+        <v>20.70714992711717</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>19.66824905645757</v>
+        <v>19.66824905645756</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.0844707599837</v>
+        <v>21.08447075998377</v>
       </c>
       <c r="C18">
-        <v>20.27694073559811</v>
+        <v>20.27694073559802</v>
       </c>
       <c r="D18">
-        <v>9.488585311291645</v>
+        <v>9.488585311291715</v>
       </c>
       <c r="E18">
-        <v>11.5714009886998</v>
+        <v>11.57140098869979</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>41.49529130459222</v>
+        <v>41.49529130459229</v>
       </c>
       <c r="H18">
-        <v>34.29165473802303</v>
+        <v>34.29165473802307</v>
       </c>
       <c r="I18">
-        <v>5.620426387701329</v>
+        <v>5.620426387701281</v>
       </c>
       <c r="J18">
-        <v>20.41942456754317</v>
+        <v>20.41942456754323</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>19.39494141958314</v>
+        <v>19.3949414195832</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,37 +1058,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.98276428914347</v>
+        <v>20.9827642891436</v>
       </c>
       <c r="C19">
-        <v>20.17652842622288</v>
+        <v>20.176528426223</v>
       </c>
       <c r="D19">
-        <v>9.448286250691941</v>
+        <v>9.448286250691991</v>
       </c>
       <c r="E19">
-        <v>11.52826141825024</v>
+        <v>11.52826141825028</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>41.33970817354785</v>
+        <v>41.33970817354798</v>
       </c>
       <c r="H19">
-        <v>34.17645551191392</v>
+        <v>34.17645551191404</v>
       </c>
       <c r="I19">
-        <v>5.613492829440399</v>
+        <v>5.613492829440376</v>
       </c>
       <c r="J19">
-        <v>20.32153301260925</v>
+        <v>20.32153301260939</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>19.30196392357017</v>
+        <v>19.30196392357028</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.43844478915126</v>
+        <v>21.43844478915138</v>
       </c>
       <c r="C20">
-        <v>20.62663999626362</v>
+        <v>20.62663999626344</v>
       </c>
       <c r="D20">
-        <v>9.629265368840745</v>
+        <v>9.629265368840725</v>
       </c>
       <c r="E20">
-        <v>11.72232101209603</v>
+        <v>11.722321012096</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>42.0392477605213</v>
+        <v>42.03924776052114</v>
       </c>
       <c r="H20">
-        <v>34.6948656627729</v>
+        <v>34.69486566277276</v>
       </c>
       <c r="I20">
-        <v>5.644983026645146</v>
+        <v>5.644983026645023</v>
       </c>
       <c r="J20">
-        <v>20.76017953525807</v>
+        <v>20.76017953525805</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>19.71862557605326</v>
+        <v>19.71862557605327</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.93591378343668</v>
+        <v>22.93591378343662</v>
       </c>
       <c r="C21">
-        <v>22.11001423426619</v>
+        <v>22.11001423426618</v>
       </c>
       <c r="D21">
-        <v>10.27303420965244</v>
+        <v>10.27303420965239</v>
       </c>
       <c r="E21">
-        <v>12.37345756642048</v>
+        <v>12.37345756642046</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>44.3805761789719</v>
+        <v>44.38057617897176</v>
       </c>
       <c r="H21">
-        <v>36.43778682746017</v>
+        <v>36.43778682746005</v>
       </c>
       <c r="I21">
-        <v>5.756095233804751</v>
+        <v>5.756095233804731</v>
       </c>
       <c r="J21">
-        <v>22.20275811265627</v>
+        <v>22.20275811265626</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>21.08952530913258</v>
+        <v>21.08952530913254</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.89172890601649</v>
+        <v>23.89172890601636</v>
       </c>
       <c r="C22">
-        <v>23.06027861016701</v>
+        <v>23.06027861016693</v>
       </c>
       <c r="D22">
-        <v>10.7091184505208</v>
+        <v>10.70911845052076</v>
       </c>
       <c r="E22">
-        <v>12.7989950215783</v>
+        <v>12.79899502157829</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>45.90634973618882</v>
+        <v>45.90634973618855</v>
       </c>
       <c r="H22">
-        <v>37.57945197827797</v>
+        <v>37.57945197827775</v>
       </c>
       <c r="I22">
-        <v>5.833020104767241</v>
+        <v>5.833020104767253</v>
       </c>
       <c r="J22">
-        <v>23.12445135441676</v>
+        <v>23.12445135441665</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>21.96591186913797</v>
+        <v>21.96591186913788</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.38353629414681</v>
+        <v>23.38353629414693</v>
       </c>
       <c r="C23">
-        <v>22.55469741889121</v>
+        <v>22.5546974188914</v>
       </c>
       <c r="D23">
-        <v>10.47716891818427</v>
+        <v>10.47716891818425</v>
       </c>
       <c r="E23">
-        <v>12.57183002497877</v>
+        <v>12.57183002497879</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>45.09224328840563</v>
+        <v>45.09224328840582</v>
       </c>
       <c r="H23">
-        <v>36.9697572138716</v>
+        <v>36.96975721387175</v>
       </c>
       <c r="I23">
-        <v>5.791545406281379</v>
+        <v>5.791545406281386</v>
       </c>
       <c r="J23">
-        <v>22.63430930881395</v>
+        <v>22.63430930881409</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>21.49981622252555</v>
+        <v>21.49981622252567</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,34 +1251,34 @@
         <v>21.41355227374008</v>
       </c>
       <c r="C24">
-        <v>20.60203642048975</v>
+        <v>20.6020364204896</v>
       </c>
       <c r="D24">
-        <v>9.619351065593834</v>
+        <v>9.619351065593818</v>
       </c>
       <c r="E24">
-        <v>11.71166877799679</v>
+        <v>11.71166877799677</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>42.00087113379545</v>
+        <v>42.00087113379544</v>
       </c>
       <c r="H24">
-        <v>34.66639634689723</v>
+        <v>34.66639634689721</v>
       </c>
       <c r="I24">
-        <v>5.643234578838213</v>
+        <v>5.643234578838142</v>
       </c>
       <c r="J24">
-        <v>20.73621364882019</v>
+        <v>20.73621364882013</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>19.6958585495858</v>
+        <v>19.69585854958581</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,31 +1286,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.17724615589313</v>
+        <v>19.17724615589312</v>
       </c>
       <c r="C25">
-        <v>18.39883792568407</v>
+        <v>18.39883792568418</v>
       </c>
       <c r="D25">
-        <v>8.742776814554976</v>
+        <v>8.742776814554963</v>
       </c>
       <c r="E25">
-        <v>10.78023254565392</v>
+        <v>10.78023254565397</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>38.6343529532969</v>
+        <v>38.63435295329706</v>
       </c>
       <c r="H25">
-        <v>32.18316856012495</v>
+        <v>32.18316856012508</v>
       </c>
       <c r="I25">
-        <v>5.499604579635919</v>
+        <v>5.499604579635935</v>
       </c>
       <c r="J25">
-        <v>18.58493659636219</v>
+        <v>18.5849365963622</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_1/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_1/res_line/loading_percent.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.42235460468857</v>
+        <v>17.42235460468867</v>
       </c>
       <c r="C2">
-        <v>16.67976119775183</v>
+        <v>16.67976119775178</v>
       </c>
       <c r="D2">
-        <v>8.077780775786792</v>
+        <v>8.077780775786781</v>
       </c>
       <c r="E2">
-        <v>10.0893273345892</v>
+        <v>10.08932733458918</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>36.12021090667046</v>
+        <v>36.12021090667062</v>
       </c>
       <c r="H2">
-        <v>30.34987228255898</v>
+        <v>30.34987228255911</v>
       </c>
       <c r="I2">
-        <v>5.40590637067786</v>
+        <v>5.405906370677894</v>
       </c>
       <c r="J2">
-        <v>16.89908746216439</v>
+        <v>16.89908746216443</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>16.05421179463292</v>
+        <v>16.05421179463302</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,13 +450,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.16023186832323</v>
+        <v>16.16023186832322</v>
       </c>
       <c r="C3">
-        <v>15.44881363095693</v>
+        <v>15.44881363095691</v>
       </c>
       <c r="D3">
-        <v>7.614865422436889</v>
+        <v>7.61486542243683</v>
       </c>
       <c r="E3">
         <v>9.618050302871978</v>
@@ -465,22 +465,22 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>34.39415784108949</v>
+        <v>34.39415784108946</v>
       </c>
       <c r="H3">
-        <v>29.10399203096639</v>
+        <v>29.10399203096634</v>
       </c>
       <c r="I3">
-        <v>5.349085937242028</v>
+        <v>5.349085937242108</v>
       </c>
       <c r="J3">
-        <v>15.68778011310215</v>
+        <v>15.68778011310212</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>14.90614170398968</v>
+        <v>14.90614170398967</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.34784835545557</v>
+        <v>15.34784835545558</v>
       </c>
       <c r="C4">
-        <v>14.65897347014541</v>
+        <v>14.65897347014533</v>
       </c>
       <c r="D4">
-        <v>7.324887979434004</v>
+        <v>7.324887979433983</v>
       </c>
       <c r="E4">
-        <v>9.327528830779206</v>
+        <v>9.327528830779128</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>33.32441072857813</v>
+        <v>33.32441072857821</v>
       </c>
       <c r="H4">
-        <v>28.337867251998</v>
+        <v>28.33786725199804</v>
       </c>
       <c r="I4">
-        <v>5.317245717987984</v>
+        <v>5.317245717988028</v>
       </c>
       <c r="J4">
-        <v>14.9085876898683</v>
+        <v>14.90858768986826</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>14.16804172822167</v>
+        <v>14.16804172822166</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.0071771056959</v>
+        <v>15.0071771056958</v>
       </c>
       <c r="C5">
-        <v>14.32835244054982</v>
+        <v>14.32835244054977</v>
       </c>
       <c r="D5">
-        <v>7.205353750716735</v>
+        <v>7.205353750716748</v>
       </c>
       <c r="E5">
-        <v>9.208931658571263</v>
+        <v>9.208931658571233</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>32.8862412054503</v>
+        <v>32.88624120545031</v>
       </c>
       <c r="H5">
-        <v>28.025525305189</v>
+        <v>28.02552530518901</v>
       </c>
       <c r="I5">
-        <v>5.305002865153502</v>
+        <v>5.305002865153346</v>
       </c>
       <c r="J5">
-        <v>14.58194330986684</v>
+        <v>14.58194330986677</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>13.85872345013494</v>
+        <v>13.85872345013488</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,31 +564,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.95002227582666</v>
+        <v>14.95002227582664</v>
       </c>
       <c r="C6">
-        <v>14.27291901483293</v>
+        <v>14.27291901483282</v>
       </c>
       <c r="D6">
-        <v>7.185425592728432</v>
+        <v>7.185425592728414</v>
       </c>
       <c r="E6">
-        <v>9.189229093813591</v>
+        <v>9.189229093813516</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>32.81335769554043</v>
+        <v>32.81335769554046</v>
       </c>
       <c r="H6">
-        <v>27.97365806402147</v>
+        <v>27.97365806402146</v>
       </c>
       <c r="I6">
-        <v>5.303013212801085</v>
+        <v>5.303013212801079</v>
       </c>
       <c r="J6">
-        <v>14.52714792720683</v>
+        <v>14.52714792720674</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.34329314839902</v>
+        <v>15.34329314839916</v>
       </c>
       <c r="C7">
-        <v>14.65455028978392</v>
+        <v>14.65455028978395</v>
       </c>
       <c r="D7">
-        <v>7.32328130300616</v>
+        <v>7.323281303006167</v>
       </c>
       <c r="E7">
-        <v>9.325930098479979</v>
+        <v>9.325930098480047</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>33.31851007308504</v>
+        <v>33.31851007308485</v>
       </c>
       <c r="H7">
-        <v>28.33365523075657</v>
+        <v>28.33365523075641</v>
       </c>
       <c r="I7">
-        <v>5.317077685355638</v>
+        <v>5.317077685355641</v>
       </c>
       <c r="J7">
-        <v>14.90421962355575</v>
+        <v>14.90421962355587</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>14.16390496214578</v>
+        <v>14.16390496214585</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.99481576123484</v>
+        <v>16.99481576123485</v>
       </c>
       <c r="C8">
-        <v>16.26226785241316</v>
+        <v>16.26226785241322</v>
       </c>
       <c r="D8">
-        <v>7.919397394502665</v>
+        <v>7.91939739450266</v>
       </c>
       <c r="E8">
-        <v>9.927112436766947</v>
+        <v>9.927112436766953</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>35.52725864451667</v>
+        <v>35.52725864451656</v>
       </c>
       <c r="H8">
-        <v>29.92060355439891</v>
+        <v>29.92060355439877</v>
       </c>
       <c r="I8">
-        <v>5.38566100732873</v>
+        <v>5.385661007328768</v>
       </c>
       <c r="J8">
-        <v>16.48865714024966</v>
+        <v>16.48865714024968</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>15.66512240878322</v>
+        <v>15.66512240878323</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,31 +678,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.94661003189595</v>
+        <v>19.94661003189583</v>
       </c>
       <c r="C9">
-        <v>19.1552242286586</v>
+        <v>19.15522422865876</v>
       </c>
       <c r="D9">
         <v>9.041017860079787</v>
       </c>
       <c r="E9">
-        <v>11.09472015397547</v>
+        <v>11.09472015397545</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>39.77358832597667</v>
+        <v>39.77358832597675</v>
       </c>
       <c r="H9">
-        <v>33.02018284942491</v>
+        <v>33.02018284942502</v>
       </c>
       <c r="I9">
-        <v>5.545992057987633</v>
+        <v>5.545992057987635</v>
       </c>
       <c r="J9">
-        <v>19.32465922609404</v>
+        <v>19.32465922609401</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.95635356915366</v>
+        <v>21.95635356915372</v>
       </c>
       <c r="C10">
-        <v>21.13893983652808</v>
+        <v>21.13893983652812</v>
       </c>
       <c r="D10">
-        <v>9.83624739905567</v>
+        <v>9.836247399055697</v>
       </c>
       <c r="E10">
         <v>11.94525763682573</v>
@@ -731,22 +731,22 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>42.84185061337833</v>
+        <v>42.84185061337851</v>
       </c>
       <c r="H10">
-        <v>35.2910245553493</v>
+        <v>35.29102455534942</v>
       </c>
       <c r="I10">
-        <v>5.682096624833307</v>
+        <v>5.682096624833319</v>
       </c>
       <c r="J10">
-        <v>21.25891259486159</v>
+        <v>21.25891259486163</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>20.19247026622991</v>
+        <v>20.19247026622999</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.84025984016372</v>
+        <v>22.84025984016375</v>
       </c>
       <c r="C11">
-        <v>22.01506529734834</v>
+        <v>22.01506529734841</v>
       </c>
       <c r="D11">
-        <v>10.2294330138671</v>
+        <v>10.22943301386717</v>
       </c>
       <c r="E11">
-        <v>12.331281163339</v>
+        <v>12.33128116333902</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>44.22917397330842</v>
+        <v>44.2291739733086</v>
       </c>
       <c r="H11">
-        <v>36.32473943771473</v>
+        <v>36.32473943771489</v>
       </c>
       <c r="I11">
-        <v>5.748652039360827</v>
+        <v>5.748652039360889</v>
       </c>
       <c r="J11">
-        <v>22.11055904911178</v>
+        <v>22.11055904911182</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>21.00187921589307</v>
+        <v>21.00187921589308</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.17101300331715</v>
+        <v>23.1710130033172</v>
       </c>
       <c r="C12">
-        <v>22.34349552370776</v>
+        <v>22.34349552370778</v>
       </c>
       <c r="D12">
-        <v>10.38022927260889</v>
+        <v>10.38022927260891</v>
       </c>
       <c r="E12">
-        <v>12.47744188676463</v>
+        <v>12.47744188676469</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>44.75371202493697</v>
+        <v>44.75371202493703</v>
       </c>
       <c r="H12">
-        <v>36.71658544776567</v>
+        <v>36.71658544776572</v>
       </c>
       <c r="I12">
-        <v>5.774587396434232</v>
+        <v>5.774587396434282</v>
       </c>
       <c r="J12">
-        <v>22.4293965318686</v>
+        <v>22.42939653186864</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>21.30498806657624</v>
+        <v>21.30498806657628</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.09994863153853</v>
+        <v>23.09994863153837</v>
       </c>
       <c r="C13">
-        <v>22.27290295529842</v>
+        <v>22.27290295529857</v>
       </c>
       <c r="D13">
-        <v>10.3478222842723</v>
+        <v>10.34782228427227</v>
       </c>
       <c r="E13">
-        <v>12.4459620891407</v>
+        <v>12.44596208914069</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>44.6407712772742</v>
+        <v>44.64077127727409</v>
       </c>
       <c r="H13">
-        <v>36.63217049171352</v>
+        <v>36.63217049171343</v>
       </c>
       <c r="I13">
-        <v>5.768968035749522</v>
+        <v>5.768968035749505</v>
       </c>
       <c r="J13">
-        <v>22.36088502720376</v>
+        <v>22.3608850272037</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>21.239852478244</v>
+        <v>21.23985247824394</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.86754802172721</v>
+        <v>22.86754802172722</v>
       </c>
       <c r="C14">
-        <v>22.04214960648165</v>
+        <v>22.0421496064818</v>
       </c>
       <c r="D14">
-        <v>10.24187081103681</v>
+        <v>10.24187081103686</v>
       </c>
       <c r="E14">
-        <v>12.34330545230011</v>
+        <v>12.34330545230012</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>44.27234140157309</v>
+        <v>44.27234140157311</v>
       </c>
       <c r="H14">
-        <v>36.3569666621885</v>
+        <v>36.35696666218848</v>
       </c>
       <c r="I14">
-        <v>5.750770670932667</v>
+        <v>5.750770670932718</v>
       </c>
       <c r="J14">
-        <v>22.13686089033284</v>
+        <v>22.1368608903329</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>21.0268818316449</v>
+        <v>21.02688183164496</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.72469272343023</v>
+        <v>22.72469272343006</v>
       </c>
       <c r="C15">
-        <v>21.90038586836794</v>
+        <v>21.90038586836799</v>
       </c>
       <c r="D15">
-        <v>10.17676496699335</v>
+        <v>10.17676496699331</v>
       </c>
       <c r="E15">
-        <v>12.28042704042089</v>
+        <v>12.28042704042082</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>44.04657655985582</v>
+        <v>44.04657655985573</v>
       </c>
       <c r="H15">
-        <v>36.18845952075925</v>
+        <v>36.1884595207592</v>
       </c>
       <c r="I15">
-        <v>5.739721730610422</v>
+        <v>5.739721730610444</v>
       </c>
       <c r="J15">
-        <v>21.99917559375486</v>
+        <v>21.99917559375476</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>20.89600118841577</v>
+        <v>20.89600118841569</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.89801058089266</v>
+        <v>21.89801058089278</v>
       </c>
       <c r="C16">
-        <v>21.08119017931952</v>
+        <v>21.08119017931961</v>
       </c>
       <c r="D16">
-        <v>9.812864380147611</v>
+        <v>9.812864380147614</v>
       </c>
       <c r="E16">
-        <v>11.92002050285323</v>
+        <v>11.92002050285324</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>42.75104666735623</v>
+        <v>42.75104666735625</v>
       </c>
       <c r="H16">
-        <v>35.22350586439179</v>
+        <v>35.2235058643918</v>
       </c>
       <c r="I16">
-        <v>5.677845772646552</v>
+        <v>5.677845772646612</v>
       </c>
       <c r="J16">
-        <v>21.20271981965637</v>
+        <v>21.20271981965647</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>20.13907597998027</v>
+        <v>20.13907597998032</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.38336418752683</v>
+        <v>21.3833641875268</v>
       </c>
       <c r="C17">
-        <v>20.57220111598835</v>
+        <v>20.57220111598841</v>
       </c>
       <c r="D17">
-        <v>9.607331887158834</v>
+        <v>9.607331887158855</v>
       </c>
       <c r="E17">
-        <v>11.69875828021715</v>
+        <v>11.69875828021716</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>41.95435530216217</v>
+        <v>41.95435530216224</v>
       </c>
       <c r="H17">
-        <v>34.63189355706346</v>
+        <v>34.63189355706352</v>
       </c>
       <c r="I17">
-        <v>5.641118537482519</v>
+        <v>5.641118537482566</v>
       </c>
       <c r="J17">
-        <v>20.70714992711717</v>
+        <v>20.7071499271172</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>19.66824905645756</v>
+        <v>19.66824905645757</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.08447075998377</v>
+        <v>21.0844707599837</v>
       </c>
       <c r="C18">
-        <v>20.27694073559802</v>
+        <v>20.27694073559811</v>
       </c>
       <c r="D18">
-        <v>9.488585311291715</v>
+        <v>9.488585311291645</v>
       </c>
       <c r="E18">
-        <v>11.57140098869979</v>
+        <v>11.5714009886998</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>41.49529130459229</v>
+        <v>41.49529130459222</v>
       </c>
       <c r="H18">
-        <v>34.29165473802307</v>
+        <v>34.29165473802303</v>
       </c>
       <c r="I18">
-        <v>5.620426387701281</v>
+        <v>5.620426387701329</v>
       </c>
       <c r="J18">
-        <v>20.41942456754323</v>
+        <v>20.41942456754317</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>19.3949414195832</v>
+        <v>19.39494141958314</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,37 +1058,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.9827642891436</v>
+        <v>20.98276428914347</v>
       </c>
       <c r="C19">
-        <v>20.176528426223</v>
+        <v>20.17652842622288</v>
       </c>
       <c r="D19">
-        <v>9.448286250691991</v>
+        <v>9.448286250691941</v>
       </c>
       <c r="E19">
-        <v>11.52826141825028</v>
+        <v>11.52826141825024</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>41.33970817354798</v>
+        <v>41.33970817354785</v>
       </c>
       <c r="H19">
-        <v>34.17645551191404</v>
+        <v>34.17645551191392</v>
       </c>
       <c r="I19">
-        <v>5.613492829440376</v>
+        <v>5.613492829440399</v>
       </c>
       <c r="J19">
-        <v>20.32153301260939</v>
+        <v>20.32153301260925</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>19.30196392357028</v>
+        <v>19.30196392357017</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.43844478915138</v>
+        <v>21.43844478915126</v>
       </c>
       <c r="C20">
-        <v>20.62663999626344</v>
+        <v>20.62663999626362</v>
       </c>
       <c r="D20">
-        <v>9.629265368840725</v>
+        <v>9.629265368840745</v>
       </c>
       <c r="E20">
-        <v>11.722321012096</v>
+        <v>11.72232101209603</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>42.03924776052114</v>
+        <v>42.0392477605213</v>
       </c>
       <c r="H20">
-        <v>34.69486566277276</v>
+        <v>34.6948656627729</v>
       </c>
       <c r="I20">
-        <v>5.644983026645023</v>
+        <v>5.644983026645146</v>
       </c>
       <c r="J20">
-        <v>20.76017953525805</v>
+        <v>20.76017953525807</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>19.71862557605327</v>
+        <v>19.71862557605326</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.93591378343662</v>
+        <v>22.93591378343668</v>
       </c>
       <c r="C21">
-        <v>22.11001423426618</v>
+        <v>22.11001423426619</v>
       </c>
       <c r="D21">
-        <v>10.27303420965239</v>
+        <v>10.27303420965244</v>
       </c>
       <c r="E21">
-        <v>12.37345756642046</v>
+        <v>12.37345756642048</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>44.38057617897176</v>
+        <v>44.3805761789719</v>
       </c>
       <c r="H21">
-        <v>36.43778682746005</v>
+        <v>36.43778682746017</v>
       </c>
       <c r="I21">
-        <v>5.756095233804731</v>
+        <v>5.756095233804751</v>
       </c>
       <c r="J21">
-        <v>22.20275811265626</v>
+        <v>22.20275811265627</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>21.08952530913254</v>
+        <v>21.08952530913258</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.89172890601636</v>
+        <v>23.89172890601649</v>
       </c>
       <c r="C22">
-        <v>23.06027861016693</v>
+        <v>23.06027861016701</v>
       </c>
       <c r="D22">
-        <v>10.70911845052076</v>
+        <v>10.7091184505208</v>
       </c>
       <c r="E22">
-        <v>12.79899502157829</v>
+        <v>12.7989950215783</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>45.90634973618855</v>
+        <v>45.90634973618882</v>
       </c>
       <c r="H22">
-        <v>37.57945197827775</v>
+        <v>37.57945197827797</v>
       </c>
       <c r="I22">
-        <v>5.833020104767253</v>
+        <v>5.833020104767241</v>
       </c>
       <c r="J22">
-        <v>23.12445135441665</v>
+        <v>23.12445135441676</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>21.96591186913788</v>
+        <v>21.96591186913797</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.38353629414693</v>
+        <v>23.38353629414681</v>
       </c>
       <c r="C23">
-        <v>22.5546974188914</v>
+        <v>22.55469741889121</v>
       </c>
       <c r="D23">
-        <v>10.47716891818425</v>
+        <v>10.47716891818427</v>
       </c>
       <c r="E23">
-        <v>12.57183002497879</v>
+        <v>12.57183002497877</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>45.09224328840582</v>
+        <v>45.09224328840563</v>
       </c>
       <c r="H23">
-        <v>36.96975721387175</v>
+        <v>36.9697572138716</v>
       </c>
       <c r="I23">
-        <v>5.791545406281386</v>
+        <v>5.791545406281379</v>
       </c>
       <c r="J23">
-        <v>22.63430930881409</v>
+        <v>22.63430930881395</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>21.49981622252567</v>
+        <v>21.49981622252555</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,34 +1251,34 @@
         <v>21.41355227374008</v>
       </c>
       <c r="C24">
-        <v>20.6020364204896</v>
+        <v>20.60203642048975</v>
       </c>
       <c r="D24">
-        <v>9.619351065593818</v>
+        <v>9.619351065593834</v>
       </c>
       <c r="E24">
-        <v>11.71166877799677</v>
+        <v>11.71166877799679</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>42.00087113379544</v>
+        <v>42.00087113379545</v>
       </c>
       <c r="H24">
-        <v>34.66639634689721</v>
+        <v>34.66639634689723</v>
       </c>
       <c r="I24">
-        <v>5.643234578838142</v>
+        <v>5.643234578838213</v>
       </c>
       <c r="J24">
-        <v>20.73621364882013</v>
+        <v>20.73621364882019</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>19.69585854958581</v>
+        <v>19.6958585495858</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,31 +1286,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.17724615589312</v>
+        <v>19.17724615589313</v>
       </c>
       <c r="C25">
-        <v>18.39883792568418</v>
+        <v>18.39883792568407</v>
       </c>
       <c r="D25">
-        <v>8.742776814554963</v>
+        <v>8.742776814554976</v>
       </c>
       <c r="E25">
-        <v>10.78023254565397</v>
+        <v>10.78023254565392</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>38.63435295329706</v>
+        <v>38.6343529532969</v>
       </c>
       <c r="H25">
-        <v>32.18316856012508</v>
+        <v>32.18316856012495</v>
       </c>
       <c r="I25">
-        <v>5.499604579635935</v>
+        <v>5.499604579635919</v>
       </c>
       <c r="J25">
-        <v>18.5849365963622</v>
+        <v>18.58493659636219</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_1/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_1/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.42235460468867</v>
+        <v>17.42236905211549</v>
       </c>
       <c r="C2">
-        <v>16.67976119775178</v>
+        <v>16.67058091751101</v>
       </c>
       <c r="D2">
-        <v>8.077780775786781</v>
+        <v>8.077808055115684</v>
       </c>
       <c r="E2">
-        <v>10.08932733458918</v>
+        <v>10.08981062355729</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>36.12021090667062</v>
+        <v>34.93310279220999</v>
       </c>
       <c r="H2">
-        <v>30.34987228255911</v>
+        <v>36.16088311206364</v>
       </c>
       <c r="I2">
-        <v>5.405906370677894</v>
+        <v>30.31084407997844</v>
       </c>
       <c r="J2">
-        <v>16.89908746216443</v>
+        <v>5.40608343668213</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>16.89625349395045</v>
       </c>
       <c r="L2">
-        <v>16.05421179463302</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>16.05264481962331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.16023186832322</v>
+        <v>16.16050603634126</v>
       </c>
       <c r="C3">
-        <v>15.44881363095691</v>
+        <v>15.44038497871217</v>
       </c>
       <c r="D3">
-        <v>7.61486542243683</v>
+        <v>7.614929004301609</v>
       </c>
       <c r="E3">
-        <v>9.618050302871978</v>
+        <v>9.618575036572501</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>34.39415784108946</v>
+        <v>32.99115385429059</v>
       </c>
       <c r="H3">
-        <v>29.10399203096634</v>
+        <v>34.43360512184117</v>
       </c>
       <c r="I3">
-        <v>5.349085937242108</v>
+        <v>29.06792679805184</v>
       </c>
       <c r="J3">
-        <v>15.68778011310212</v>
+        <v>5.349305963359927</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>15.68539454335775</v>
       </c>
       <c r="L3">
-        <v>14.90614170398967</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>14.90485111621478</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.34784835545558</v>
+        <v>15.34826998076278</v>
       </c>
       <c r="C4">
-        <v>14.65897347014533</v>
+        <v>14.65100687303959</v>
       </c>
       <c r="D4">
-        <v>7.324887979433983</v>
+        <v>7.324970120383191</v>
       </c>
       <c r="E4">
-        <v>9.327528830779128</v>
+        <v>9.328080775122503</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>33.32441072857821</v>
+        <v>31.77536955980348</v>
       </c>
       <c r="H4">
-        <v>28.33786725199804</v>
+        <v>33.36315795701264</v>
       </c>
       <c r="I4">
-        <v>5.317245717988028</v>
+        <v>28.30369903160981</v>
       </c>
       <c r="J4">
-        <v>14.90858768986826</v>
+        <v>5.317495030463661</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>14.90647469969242</v>
       </c>
       <c r="L4">
-        <v>14.16804172822166</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>14.16691682030753</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.0071771056958</v>
+        <v>15.00765615227686</v>
       </c>
       <c r="C5">
-        <v>14.32835244054977</v>
+        <v>14.32057453419577</v>
       </c>
       <c r="D5">
-        <v>7.205353750716748</v>
+        <v>7.205442636824534</v>
       </c>
       <c r="E5">
-        <v>9.208931658571233</v>
+        <v>9.209495284176645</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>32.88624120545031</v>
+        <v>31.27429302789019</v>
       </c>
       <c r="H5">
-        <v>28.02552530518901</v>
+        <v>32.92471714975819</v>
       </c>
       <c r="I5">
-        <v>5.305002865153346</v>
+        <v>27.99214943764652</v>
       </c>
       <c r="J5">
-        <v>14.58194330986677</v>
+        <v>5.305264833913099</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>14.57994113185087</v>
       </c>
       <c r="L5">
-        <v>13.85872345013488</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>13.85766538601614</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.95002227582664</v>
+        <v>14.95051070519142</v>
       </c>
       <c r="C6">
-        <v>14.27291901483282</v>
+        <v>14.26517247028534</v>
       </c>
       <c r="D6">
-        <v>7.185425592728414</v>
+        <v>7.185515552711499</v>
       </c>
       <c r="E6">
-        <v>9.189229093813516</v>
+        <v>9.189794698893611</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>32.81335769554046</v>
+        <v>31.19075911078295</v>
       </c>
       <c r="H6">
-        <v>27.97365806402146</v>
+        <v>32.85178946467939</v>
       </c>
       <c r="I6">
-        <v>5.303013212801079</v>
+        <v>27.9404149198823</v>
       </c>
       <c r="J6">
-        <v>14.52714792720674</v>
+        <v>5.303277326354205</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>14.52516414496265</v>
       </c>
       <c r="L6">
-        <v>13.80684044810482</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>13.80579345204573</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.34329314839916</v>
+        <v>15.34371555849148</v>
       </c>
       <c r="C7">
-        <v>14.65455028978395</v>
+        <v>14.64658623553731</v>
       </c>
       <c r="D7">
-        <v>7.323281303006167</v>
+        <v>7.323363538085904</v>
       </c>
       <c r="E7">
-        <v>9.325930098480047</v>
+        <v>9.326482197777194</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>33.31851007308485</v>
+        <v>31.76863425641578</v>
       </c>
       <c r="H7">
-        <v>28.33365523075641</v>
+        <v>33.35725358504214</v>
       </c>
       <c r="I7">
-        <v>5.317077685355641</v>
+        <v>28.29949761866212</v>
       </c>
       <c r="J7">
-        <v>14.90421962355587</v>
+        <v>5.317327165611862</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>14.90210812838101</v>
       </c>
       <c r="L7">
-        <v>14.16390496214585</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>14.16278095800765</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.99481576123485</v>
+        <v>16.99492248372584</v>
       </c>
       <c r="C8">
-        <v>16.26226785241322</v>
+        <v>16.25334680681719</v>
       </c>
       <c r="D8">
-        <v>7.91939739450266</v>
+        <v>7.919438042725566</v>
       </c>
       <c r="E8">
-        <v>9.927112436766953</v>
+        <v>9.927609745656978</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>35.52725864451656</v>
+        <v>34.26849454367209</v>
       </c>
       <c r="H8">
-        <v>29.92060355439877</v>
+        <v>35.56749823384637</v>
       </c>
       <c r="I8">
-        <v>5.385661007328768</v>
+        <v>29.88258078528464</v>
       </c>
       <c r="J8">
-        <v>16.48865714024968</v>
+        <v>5.385852278193856</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>16.48597861673218</v>
       </c>
       <c r="L8">
-        <v>15.66512240878323</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>15.66365178308047</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.94661003189583</v>
+        <v>19.94598303725746</v>
       </c>
       <c r="C9">
-        <v>19.15522422865876</v>
+        <v>19.14441358807558</v>
       </c>
       <c r="D9">
-        <v>9.041017860079787</v>
+        <v>9.040940935433678</v>
       </c>
       <c r="E9">
-        <v>11.09472015397545</v>
+        <v>11.09511620264348</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>39.77358832597675</v>
+        <v>38.98024197629071</v>
       </c>
       <c r="H9">
-        <v>33.02018284942502</v>
+        <v>39.81713528959158</v>
       </c>
       <c r="I9">
-        <v>5.545992057987635</v>
+        <v>32.97519389385006</v>
       </c>
       <c r="J9">
-        <v>19.32465922609401</v>
+        <v>5.546092352667082</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>19.32082519796535</v>
       </c>
       <c r="L9">
-        <v>18.35538870740758</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>18.35318881901459</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.95635356915372</v>
+        <v>21.9550841436545</v>
       </c>
       <c r="C10">
-        <v>21.13893983652812</v>
+        <v>21.12669970184866</v>
       </c>
       <c r="D10">
-        <v>9.836247399055697</v>
+        <v>9.836051125856919</v>
       </c>
       <c r="E10">
-        <v>11.94525763682573</v>
+        <v>11.94557013012655</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>42.84185061337851</v>
+        <v>42.32928452837793</v>
       </c>
       <c r="H10">
-        <v>35.29102455534942</v>
+        <v>42.88800315988831</v>
       </c>
       <c r="I10">
-        <v>5.682096624833319</v>
+        <v>35.24126578596645</v>
       </c>
       <c r="J10">
-        <v>21.25891259486163</v>
+        <v>5.682143651925523</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>21.25416687788953</v>
       </c>
       <c r="L10">
-        <v>20.19247026622999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>20.18967498437766</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.84025984016375</v>
+        <v>22.83866586217386</v>
       </c>
       <c r="C11">
-        <v>22.01506529734841</v>
+        <v>22.00215537585919</v>
       </c>
       <c r="D11">
-        <v>10.22943301386717</v>
+        <v>10.2291391712958</v>
       </c>
       <c r="E11">
-        <v>12.33128116333902</v>
+        <v>12.33154998064702</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>44.2291739733086</v>
+        <v>43.83193642205484</v>
       </c>
       <c r="H11">
-        <v>36.32473943771489</v>
+        <v>44.27653903572902</v>
       </c>
       <c r="I11">
-        <v>5.748652039360889</v>
+        <v>36.27287456730862</v>
       </c>
       <c r="J11">
-        <v>22.11055904911182</v>
+        <v>5.748677394457573</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>22.1053746674377</v>
       </c>
       <c r="L11">
-        <v>21.00187921589308</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>20.99879167905377</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.1710130033172</v>
+        <v>23.16929041717442</v>
       </c>
       <c r="C12">
-        <v>22.34349552370778</v>
+        <v>22.33032799924295</v>
       </c>
       <c r="D12">
-        <v>10.38022927260891</v>
+        <v>10.37990784781497</v>
       </c>
       <c r="E12">
-        <v>12.47744188676469</v>
+        <v>12.47769295707639</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>44.75371202493703</v>
+        <v>44.39844280215032</v>
       </c>
       <c r="H12">
-        <v>36.71658544776572</v>
+        <v>44.80153919909988</v>
       </c>
       <c r="I12">
-        <v>5.774587396434282</v>
+        <v>36.66393076524482</v>
       </c>
       <c r="J12">
-        <v>22.42939653186864</v>
+        <v>5.774604855148032</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>22.4240415040424</v>
       </c>
       <c r="L12">
-        <v>21.30498806657628</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>21.30178587493197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.09994863153837</v>
+        <v>23.09825401684325</v>
       </c>
       <c r="C13">
-        <v>22.27290295529857</v>
+        <v>22.259791108438</v>
       </c>
       <c r="D13">
-        <v>10.34782228427227</v>
+        <v>10.34750688993442</v>
       </c>
       <c r="E13">
-        <v>12.44596208914069</v>
+        <v>12.44621704254853</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>44.64077127727409</v>
+        <v>44.27653792009894</v>
       </c>
       <c r="H13">
-        <v>36.63217049171343</v>
+        <v>44.68849881193246</v>
       </c>
       <c r="I13">
-        <v>5.768968035749505</v>
+        <v>36.57968559333528</v>
       </c>
       <c r="J13">
-        <v>22.3608850272037</v>
+        <v>5.768987182486743</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>22.35556697271613</v>
       </c>
       <c r="L13">
-        <v>21.23985247824394</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>21.23667517344709</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.86754802172722</v>
+        <v>22.86594358440174</v>
       </c>
       <c r="C14">
-        <v>22.0421496064818</v>
+        <v>22.02921857909011</v>
       </c>
       <c r="D14">
-        <v>10.24187081103686</v>
+        <v>10.24157473922237</v>
       </c>
       <c r="E14">
-        <v>12.34330545230012</v>
+        <v>12.34357283633473</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>44.27234140157311</v>
+        <v>43.87859029787359</v>
       </c>
       <c r="H14">
-        <v>36.35696666218848</v>
+        <v>44.31974442866272</v>
       </c>
       <c r="I14">
-        <v>5.750770670932718</v>
+        <v>36.30503666843283</v>
       </c>
       <c r="J14">
-        <v>22.1368608903329</v>
+        <v>5.750795370592298</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>22.13166256747316</v>
       </c>
       <c r="L14">
-        <v>21.02688183164496</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>21.02378494786912</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.72469272343006</v>
+        <v>22.72314274345926</v>
       </c>
       <c r="C15">
-        <v>21.90038586836799</v>
+        <v>21.88756504176461</v>
       </c>
       <c r="D15">
-        <v>10.17676496699331</v>
+        <v>10.17648047445092</v>
       </c>
       <c r="E15">
-        <v>12.28042704042082</v>
+        <v>12.28070186807679</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>44.04657655985573</v>
+        <v>43.63452546471775</v>
       </c>
       <c r="H15">
-        <v>36.1884595207592</v>
+        <v>44.09378117234114</v>
       </c>
       <c r="I15">
-        <v>5.739721730610444</v>
+        <v>36.13687037798093</v>
       </c>
       <c r="J15">
-        <v>21.99917559375476</v>
+        <v>5.73974986986115</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>21.994049983087</v>
       </c>
       <c r="L15">
-        <v>20.89600118841569</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>20.89295301556322</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.89801058089278</v>
+        <v>21.89676163015639</v>
       </c>
       <c r="C16">
-        <v>21.08119017931961</v>
+        <v>21.06899333105576</v>
       </c>
       <c r="D16">
-        <v>9.812864380147614</v>
+        <v>9.812672097809095</v>
       </c>
       <c r="E16">
-        <v>11.92002050285324</v>
+        <v>11.92033570482896</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>42.75104666735625</v>
+        <v>42.23070074684296</v>
       </c>
       <c r="H16">
-        <v>35.2235058643918</v>
+        <v>42.79712044060204</v>
       </c>
       <c r="I16">
-        <v>5.677845772646612</v>
+        <v>35.17388590197695</v>
       </c>
       <c r="J16">
-        <v>21.20271981965647</v>
+        <v>5.677894263183298</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>21.19800220080944</v>
       </c>
       <c r="L16">
-        <v>20.13907597998032</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>20.13629929401</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.3833641875268</v>
+        <v>21.38229095033177</v>
       </c>
       <c r="C17">
-        <v>20.57220111598841</v>
+        <v>20.56038131904802</v>
       </c>
       <c r="D17">
-        <v>9.607331887158855</v>
+        <v>9.607173378398743</v>
       </c>
       <c r="E17">
-        <v>11.69875828021716</v>
+        <v>11.69909654592595</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>41.95435530216224</v>
+        <v>41.36445315388411</v>
       </c>
       <c r="H17">
-        <v>34.63189355706352</v>
+        <v>41.99974165282361</v>
       </c>
       <c r="I17">
-        <v>5.641118537482566</v>
+        <v>34.5834970432896</v>
       </c>
       <c r="J17">
-        <v>20.7071499271172</v>
+        <v>5.641180134867766</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>20.70267576233823</v>
       </c>
       <c r="L17">
-        <v>19.66824905645757</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>19.66563285234772</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.0844707599837</v>
+        <v>21.08349562345341</v>
       </c>
       <c r="C18">
-        <v>20.27694073559811</v>
+        <v>20.26533605726983</v>
       </c>
       <c r="D18">
-        <v>9.488585311291645</v>
+        <v>9.488445273047995</v>
       </c>
       <c r="E18">
-        <v>11.5714009886998</v>
+        <v>11.57175201465855</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>41.49529130459222</v>
+        <v>40.86421012216508</v>
       </c>
       <c r="H18">
-        <v>34.29165473802303</v>
+        <v>41.54028488961458</v>
       </c>
       <c r="I18">
-        <v>5.620426387701329</v>
+        <v>34.24396802524078</v>
       </c>
       <c r="J18">
-        <v>20.41942456754317</v>
+        <v>5.620495769456241</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>20.4150882558507</v>
       </c>
       <c r="L18">
-        <v>19.39494141958314</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>19.39241556997008</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.98276428914347</v>
+        <v>20.98182188715317</v>
       </c>
       <c r="C19">
-        <v>20.17652842622288</v>
+        <v>20.16499631364431</v>
       </c>
       <c r="D19">
-        <v>9.448286250691941</v>
+        <v>9.448152311733878</v>
       </c>
       <c r="E19">
-        <v>11.52826141825024</v>
+        <v>11.52861668841224</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>41.33970817354785</v>
+        <v>40.69448081454382</v>
       </c>
       <c r="H19">
-        <v>34.17645551191392</v>
+        <v>41.38456925342727</v>
       </c>
       <c r="I19">
-        <v>5.613492829440399</v>
+        <v>34.12901021149118</v>
       </c>
       <c r="J19">
-        <v>20.32153301260925</v>
+        <v>5.6135648904107</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>20.31724303157121</v>
       </c>
       <c r="L19">
-        <v>19.30196392357017</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>19.29946835587401</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.43844478915126</v>
+        <v>21.43735316076971</v>
       </c>
       <c r="C20">
-        <v>20.62663999626362</v>
+        <v>20.61478025038072</v>
       </c>
       <c r="D20">
-        <v>9.629265368840745</v>
+        <v>9.629103365996764</v>
       </c>
       <c r="E20">
-        <v>11.72232101209603</v>
+        <v>11.72265687750999</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>42.0392477605213</v>
+        <v>41.45687074131233</v>
       </c>
       <c r="H20">
-        <v>34.6948656627729</v>
+        <v>42.08470702387833</v>
       </c>
       <c r="I20">
-        <v>5.644983026645146</v>
+        <v>34.64633828801463</v>
       </c>
       <c r="J20">
-        <v>20.76017953525807</v>
+        <v>5.645043203699579</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>20.75567968667817</v>
       </c>
       <c r="L20">
-        <v>19.71862557605326</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>19.71599249616301</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.93591378343668</v>
+        <v>22.93428302340137</v>
       </c>
       <c r="C21">
-        <v>22.11001423426619</v>
+        <v>22.09703021425417</v>
       </c>
       <c r="D21">
-        <v>10.27303420965244</v>
+        <v>10.27273251655284</v>
       </c>
       <c r="E21">
-        <v>12.37345756642048</v>
+        <v>12.37372133564391</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>44.3805761789719</v>
+        <v>43.99554075502642</v>
       </c>
       <c r="H21">
-        <v>36.43778682746017</v>
+        <v>44.42807444950245</v>
       </c>
       <c r="I21">
-        <v>5.756095233804751</v>
+        <v>36.38569364873576</v>
       </c>
       <c r="J21">
-        <v>22.20275811265627</v>
+        <v>5.756118294602337</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>22.19752475465938</v>
       </c>
       <c r="L21">
-        <v>21.08952530913258</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>21.08640492014211</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.89172890601649</v>
+        <v>23.88971184356447</v>
       </c>
       <c r="C22">
-        <v>23.06027861016701</v>
+        <v>23.04653591275035</v>
       </c>
       <c r="D22">
-        <v>10.7091184505208</v>
+        <v>10.70873251408566</v>
       </c>
       <c r="E22">
-        <v>12.7989950215783</v>
+        <v>12.79920437770671</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>45.90634973618882</v>
+        <v>45.64039459301735</v>
       </c>
       <c r="H22">
-        <v>37.57945197827797</v>
+        <v>45.95519734732682</v>
       </c>
       <c r="I22">
-        <v>5.833020104767241</v>
+        <v>37.52507236740137</v>
       </c>
       <c r="J22">
-        <v>23.12445135441676</v>
+        <v>5.833020669865728</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>23.1187114859064</v>
       </c>
       <c r="L22">
-        <v>21.96591186913797</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>21.96244918918822</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.38353629414681</v>
+        <v>23.38172893302026</v>
       </c>
       <c r="C23">
-        <v>22.55469741889121</v>
+        <v>22.54136229260371</v>
       </c>
       <c r="D23">
-        <v>10.47716891818427</v>
+        <v>10.47682911151141</v>
       </c>
       <c r="E23">
-        <v>12.57183002497877</v>
+        <v>12.57206924487628</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>45.09224328840563</v>
+        <v>44.76361111144084</v>
       </c>
       <c r="H23">
-        <v>36.9697572138716</v>
+        <v>45.14036953900391</v>
       </c>
       <c r="I23">
-        <v>5.791545406281379</v>
+        <v>36.91659447576852</v>
       </c>
       <c r="J23">
-        <v>22.63430930881395</v>
+        <v>5.791557842737288</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>22.62884268366128</v>
       </c>
       <c r="L23">
-        <v>21.49981622252555</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>21.49653876494339</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.41355227374008</v>
+        <v>21.41246896902998</v>
       </c>
       <c r="C24">
-        <v>20.60203642048975</v>
+        <v>20.59019474058638</v>
       </c>
       <c r="D24">
-        <v>9.619351065593834</v>
+        <v>9.619190645347143</v>
       </c>
       <c r="E24">
-        <v>11.71166877799679</v>
+        <v>11.71200573011111</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>42.00087113379545</v>
+        <v>41.41509571687189</v>
       </c>
       <c r="H24">
-        <v>34.66639634689723</v>
+        <v>42.04629742567626</v>
       </c>
       <c r="I24">
-        <v>5.643234578838213</v>
+        <v>34.6179281142692</v>
       </c>
       <c r="J24">
-        <v>20.73621364882019</v>
+        <v>5.643295397244252</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>20.73172541838446</v>
       </c>
       <c r="L24">
-        <v>19.6958585495858</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>19.6932331051148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.17724615589313</v>
+        <v>19.17683297848524</v>
       </c>
       <c r="C25">
-        <v>18.39883792568407</v>
+        <v>18.38854276721668</v>
       </c>
       <c r="D25">
-        <v>8.742776814554976</v>
+        <v>8.742736557291188</v>
       </c>
       <c r="E25">
-        <v>10.78023254565392</v>
+        <v>10.78065652771281</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>38.6343529532969</v>
+        <v>37.72611232920671</v>
       </c>
       <c r="H25">
-        <v>32.18316856012495</v>
+        <v>38.67697062922684</v>
       </c>
       <c r="I25">
-        <v>5.499604579635919</v>
+        <v>32.14000005653966</v>
       </c>
       <c r="J25">
-        <v>18.58493659636219</v>
+        <v>5.499727022571291</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>18.58142318871665</v>
       </c>
       <c r="L25">
-        <v>17.65329609691096</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>17.65130151748675</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_1/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_1/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.42236905211549</v>
+        <v>18.82107359348932</v>
       </c>
       <c r="C2">
-        <v>16.67058091751101</v>
+        <v>7.614782444413978</v>
       </c>
       <c r="D2">
-        <v>8.077808055115684</v>
+        <v>8.680956961532038</v>
       </c>
       <c r="E2">
-        <v>10.08981062355729</v>
+        <v>7.804828976705207</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>34.93310279220999</v>
+        <v>2.190752760311298</v>
       </c>
       <c r="H2">
-        <v>36.16088311206364</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>30.31084407997844</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>5.40608343668213</v>
+        <v>5.056230064353203</v>
       </c>
       <c r="K2">
-        <v>16.89625349395045</v>
+        <v>14.25353130424679</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>7.644435592290696</v>
       </c>
       <c r="M2">
-        <v>16.05264481962331</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>13.35094504048827</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>67.38862527064742</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.16050603634126</v>
+        <v>18.06852977601754</v>
       </c>
       <c r="C3">
-        <v>15.44038497871217</v>
+        <v>6.988755987714679</v>
       </c>
       <c r="D3">
-        <v>7.614929004301609</v>
+        <v>8.521306378915817</v>
       </c>
       <c r="E3">
-        <v>9.618575036572501</v>
+        <v>7.765534548472182</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>32.99115385429059</v>
+        <v>2.20556961378069</v>
       </c>
       <c r="H3">
-        <v>34.43360512184117</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>29.06792679805184</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>5.349305963359927</v>
+        <v>5.010436751975696</v>
       </c>
       <c r="K3">
-        <v>15.68539454335775</v>
+        <v>13.71379580043616</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>7.63011679430777</v>
       </c>
       <c r="M3">
-        <v>14.90485111621478</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>13.17120730280307</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>64.1768990355022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.34826998076278</v>
+        <v>17.62122402542998</v>
       </c>
       <c r="C4">
-        <v>14.65100687303959</v>
+        <v>6.591746902311114</v>
       </c>
       <c r="D4">
-        <v>7.324970120383191</v>
+        <v>8.427143921532014</v>
       </c>
       <c r="E4">
-        <v>9.328080775122503</v>
+        <v>7.742820993374767</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>31.77536955980348</v>
+        <v>2.214800133734419</v>
       </c>
       <c r="H4">
-        <v>33.36315795701264</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>28.30369903160981</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>5.317495030463661</v>
+        <v>4.982246735104187</v>
       </c>
       <c r="K4">
-        <v>14.90647469969242</v>
+        <v>13.39765165678388</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>7.626387415812924</v>
       </c>
       <c r="M4">
-        <v>14.16691682030753</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>13.07481970190526</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>62.16654259276875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.00765615227686</v>
+        <v>17.44274315890999</v>
       </c>
       <c r="C5">
-        <v>14.32057453419577</v>
+        <v>6.426596497799082</v>
       </c>
       <c r="D5">
-        <v>7.205442636824534</v>
+        <v>8.389719734616937</v>
       </c>
       <c r="E5">
-        <v>9.209495284176645</v>
+        <v>7.733894193105225</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>31.27429302789019</v>
+        <v>2.218600630242572</v>
       </c>
       <c r="H5">
-        <v>32.92471714975819</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>27.99214943764652</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>5.305264833913099</v>
+        <v>4.970720220229327</v>
       </c>
       <c r="K5">
-        <v>14.57994113185087</v>
+        <v>13.27267746779802</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>7.626088593591556</v>
       </c>
       <c r="M5">
-        <v>13.85766538601614</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>13.03892107979757</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>61.33785296363516</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.95051070519142</v>
+        <v>17.41333916815771</v>
       </c>
       <c r="C6">
-        <v>14.26517247028534</v>
+        <v>6.398964904889041</v>
       </c>
       <c r="D6">
-        <v>7.185515552711499</v>
+        <v>8.383562081891517</v>
       </c>
       <c r="E6">
-        <v>9.189794698893611</v>
+        <v>7.732431067262634</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>31.19075911078295</v>
+        <v>2.219234206320812</v>
       </c>
       <c r="H6">
-        <v>32.85178946467939</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>27.9404149198823</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>5.303277326354205</v>
+        <v>4.968803346017901</v>
       </c>
       <c r="K6">
-        <v>14.52516414496265</v>
+        <v>13.25215942269768</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>7.62611125663744</v>
       </c>
       <c r="M6">
-        <v>13.80579345204573</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>13.03316044992762</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>61.19968746796597</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.34371555849148</v>
+        <v>17.61880144663025</v>
       </c>
       <c r="C7">
-        <v>14.64658623553731</v>
+        <v>6.589533492649559</v>
       </c>
       <c r="D7">
-        <v>7.323363538085904</v>
+        <v>8.42663539751543</v>
       </c>
       <c r="E7">
-        <v>9.326482197777194</v>
+        <v>7.742699303450317</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>31.76863425641578</v>
+        <v>2.214851223769035</v>
       </c>
       <c r="H7">
-        <v>33.35725358504214</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>28.29949761866212</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>5.317327165611862</v>
+        <v>4.982091467351419</v>
       </c>
       <c r="K7">
-        <v>14.90210812838101</v>
+        <v>13.39595055591464</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>7.626378508631401</v>
       </c>
       <c r="M7">
-        <v>14.16278095800765</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>13.07432204841918</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>62.15540449893371</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.99492248372584</v>
+        <v>18.55857581915957</v>
       </c>
       <c r="C8">
-        <v>16.25334680681719</v>
+        <v>7.401427407713868</v>
       </c>
       <c r="D8">
-        <v>7.919438042725566</v>
+        <v>8.625092080826279</v>
       </c>
       <c r="E8">
-        <v>9.927609745656978</v>
+        <v>7.790970230367468</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>34.26849454367209</v>
+        <v>2.195837562524432</v>
       </c>
       <c r="H8">
-        <v>35.56749823384637</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>29.88258078528464</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>5.385852278193856</v>
+        <v>5.040442494962607</v>
       </c>
       <c r="K8">
-        <v>16.48597861673218</v>
+        <v>14.06427101187206</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>7.63841531999256</v>
       </c>
       <c r="M8">
-        <v>15.66365178308047</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>13.28599005191573</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>66.28923992041737</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.94598303725746</v>
+        <v>20.51697049826073</v>
       </c>
       <c r="C9">
-        <v>19.14441358807558</v>
+        <v>8.903234106151102</v>
       </c>
       <c r="D9">
-        <v>9.040940935433678</v>
+        <v>9.046254668493795</v>
       </c>
       <c r="E9">
-        <v>11.09511620264348</v>
+        <v>7.898195655379506</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>38.98024197629071</v>
+        <v>2.159319974872763</v>
       </c>
       <c r="H9">
-        <v>39.81713528959158</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>32.97519389385006</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>5.546092352667082</v>
+        <v>5.155362125442049</v>
       </c>
       <c r="K9">
-        <v>19.32082519796535</v>
+        <v>15.49639422335492</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>7.70474243125535</v>
       </c>
       <c r="M9">
-        <v>18.35318881901459</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>13.81825074630418</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>74.09285164010396</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.9550841436545</v>
+        <v>22.02888250247495</v>
       </c>
       <c r="C10">
-        <v>21.12669970184866</v>
+        <v>9.967637414881276</v>
       </c>
       <c r="D10">
-        <v>9.836051125856919</v>
+        <v>9.37762340196965</v>
       </c>
       <c r="E10">
-        <v>11.94557013012655</v>
+        <v>7.986838541846862</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>42.32928452837793</v>
+        <v>2.132492607607912</v>
       </c>
       <c r="H10">
-        <v>42.88800315988831</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>35.24126578596645</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>5.682143651925523</v>
+        <v>5.241858307573271</v>
       </c>
       <c r="K10">
-        <v>21.25416687788953</v>
+        <v>16.84536191130644</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>7.78347412481641</v>
       </c>
       <c r="M10">
-        <v>20.18967498437766</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>14.29040330290772</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>79.65910182063755</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.83866586217386</v>
+        <v>22.73489386042166</v>
       </c>
       <c r="C11">
-        <v>22.00215537585919</v>
+        <v>10.44781617329234</v>
       </c>
       <c r="D11">
-        <v>10.2291391712958</v>
+        <v>9.533900435931068</v>
       </c>
       <c r="E11">
-        <v>12.33154998064702</v>
+        <v>8.029912901718983</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>43.83193642205484</v>
+        <v>2.120160724227087</v>
       </c>
       <c r="H11">
-        <v>44.27653903572902</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>36.27287456730862</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>5.748677394457573</v>
+        <v>5.282147416798733</v>
       </c>
       <c r="K11">
-        <v>22.1053746674377</v>
+        <v>17.58544019561309</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>7.826830825626849</v>
       </c>
       <c r="M11">
-        <v>20.99879167905377</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>14.52534227672702</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>82.16370897839077</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.16929041717442</v>
+        <v>23.00520832658199</v>
       </c>
       <c r="C12">
-        <v>22.33032799924295</v>
+        <v>10.62952118405899</v>
       </c>
       <c r="D12">
-        <v>10.37990784781497</v>
+        <v>9.593960152870913</v>
       </c>
       <c r="E12">
-        <v>12.47769295707639</v>
+        <v>8.046681821399526</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>44.39844280215032</v>
+        <v>2.115459472380255</v>
       </c>
       <c r="H12">
-        <v>44.80153919909988</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>36.66393076524482</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>5.774604855148032</v>
+        <v>5.297590164682556</v>
       </c>
       <c r="K12">
-        <v>22.4240415040424</v>
+        <v>17.86501197848916</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>7.844434267355653</v>
       </c>
       <c r="M12">
-        <v>21.30178587493197</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>14.61746298570325</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>83.10927281499153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.09825401684325</v>
+        <v>22.94685250418049</v>
       </c>
       <c r="C13">
-        <v>22.259791108438</v>
+        <v>10.59038536319003</v>
       </c>
       <c r="D13">
-        <v>10.34750688993442</v>
+        <v>9.580984435089167</v>
       </c>
       <c r="E13">
-        <v>12.44621704254853</v>
+        <v>8.043048863739552</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>44.27653792009894</v>
+        <v>2.116473603432893</v>
       </c>
       <c r="H13">
-        <v>44.68849881193246</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>36.57968559333528</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>5.768987182486743</v>
+        <v>5.294255096563341</v>
       </c>
       <c r="K13">
-        <v>22.35556697271613</v>
+        <v>17.80482264217323</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>7.840588558285934</v>
       </c>
       <c r="M13">
-        <v>21.23667517344709</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>14.59747821248059</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>82.90573581096524</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.86594358440174</v>
+        <v>22.75707094195794</v>
       </c>
       <c r="C14">
-        <v>22.02921857909011</v>
+        <v>10.4627648382295</v>
       </c>
       <c r="D14">
-        <v>10.24157473922237</v>
+        <v>9.538823360117579</v>
       </c>
       <c r="E14">
-        <v>12.34357283633473</v>
+        <v>8.031282921247007</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>43.87859029787359</v>
+        <v>2.119774662893745</v>
       </c>
       <c r="H14">
-        <v>44.31974442866272</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>36.30503666843283</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>5.750795370592298</v>
+        <v>5.283413843687142</v>
       </c>
       <c r="K14">
-        <v>22.13166256747316</v>
+        <v>17.60845123649537</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>7.828254682830249</v>
       </c>
       <c r="M14">
-        <v>21.02378494786912</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>14.53285623263295</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>82.24155133984098</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.72314274345926</v>
+        <v>22.6412227090577</v>
       </c>
       <c r="C15">
-        <v>21.88756504176461</v>
+        <v>10.38459169827404</v>
       </c>
       <c r="D15">
-        <v>10.17648047445092</v>
+        <v>9.513116125117914</v>
       </c>
       <c r="E15">
-        <v>12.28070186807679</v>
+        <v>8.024137581052136</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>43.63452546471775</v>
+        <v>2.12179213467775</v>
       </c>
       <c r="H15">
-        <v>44.09378117234114</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>36.13687037798093</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>5.73974986986115</v>
+        <v>5.276799181240218</v>
       </c>
       <c r="K15">
-        <v>21.994049983087</v>
+        <v>17.48809554162629</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>7.820857442478742</v>
       </c>
       <c r="M15">
-        <v>20.89295301556322</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>14.49369267450264</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>81.83438236335981</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.89676163015639</v>
+        <v>21.98313595129942</v>
       </c>
       <c r="C16">
-        <v>21.06899333105576</v>
+        <v>9.93621225687653</v>
       </c>
       <c r="D16">
-        <v>9.812672097809095</v>
+        <v>9.367528487280243</v>
       </c>
       <c r="E16">
-        <v>11.92033570482896</v>
+        <v>7.984083920259749</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>42.23070074684296</v>
+        <v>2.133294889935749</v>
       </c>
       <c r="H16">
-        <v>42.79712044060204</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>35.17388590197695</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>5.677894263183298</v>
+        <v>5.239248382487941</v>
       </c>
       <c r="K16">
-        <v>21.19800220080944</v>
+        <v>16.79687269631368</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>7.780800671702481</v>
       </c>
       <c r="M16">
-        <v>20.13629929401</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>14.27547584109102</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>79.49495104452198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.38229095033177</v>
+        <v>21.5842915844686</v>
       </c>
       <c r="C17">
-        <v>20.56038131904802</v>
+        <v>9.660410559129325</v>
       </c>
       <c r="D17">
-        <v>9.607173378398743</v>
+        <v>9.279686754435726</v>
       </c>
       <c r="E17">
-        <v>11.69909654592595</v>
+        <v>7.960257359028844</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>41.36445315388411</v>
+        <v>2.140310135322132</v>
       </c>
       <c r="H17">
-        <v>41.99974165282361</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>34.5834970432896</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>5.641180134867766</v>
+        <v>5.216486462155673</v>
       </c>
       <c r="K17">
-        <v>20.70267576233823</v>
+        <v>16.37108092352385</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>7.758225564682912</v>
       </c>
       <c r="M17">
-        <v>19.66563285234772</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>14.14693637260905</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>78.05340578768273</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.08349562345341</v>
+        <v>21.35657523993296</v>
       </c>
       <c r="C18">
-        <v>20.26533605726983</v>
+        <v>9.501366671059124</v>
       </c>
       <c r="D18">
-        <v>9.488445273047995</v>
+        <v>9.229677323568044</v>
       </c>
       <c r="E18">
-        <v>11.57175201465855</v>
+        <v>7.946807492122458</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>40.86421012216508</v>
+        <v>2.14433397883638</v>
       </c>
       <c r="H18">
-        <v>41.54028488961458</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>34.24396802524078</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>5.620495769456241</v>
+        <v>5.203479480762089</v>
       </c>
       <c r="K18">
-        <v>20.4150882558507</v>
+        <v>16.12539031795927</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>7.745943929698448</v>
       </c>
       <c r="M18">
-        <v>19.39241556997008</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>14.0748830900309</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>77.22159484893932</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.98182188715317</v>
+        <v>21.27975620193199</v>
       </c>
       <c r="C19">
-        <v>20.16499631364431</v>
+        <v>9.447434313512487</v>
       </c>
       <c r="D19">
-        <v>9.448152311733878</v>
+        <v>9.212831170187778</v>
       </c>
       <c r="E19">
-        <v>11.52861668841224</v>
+        <v>7.942295607771451</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>40.69448081454382</v>
+        <v>2.145694828926643</v>
       </c>
       <c r="H19">
-        <v>41.38456925342727</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>34.12901021149118</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>5.6135648904107</v>
+        <v>5.199088760945788</v>
       </c>
       <c r="K19">
-        <v>20.31724303157121</v>
+        <v>16.06448751982217</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>7.741903492989718</v>
       </c>
       <c r="M19">
-        <v>19.29946835587401</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>14.05080281230891</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>76.93947142850337</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.43735316076971</v>
+        <v>21.62657247554129</v>
       </c>
       <c r="C20">
-        <v>20.61478025038072</v>
+        <v>9.689809559535977</v>
       </c>
       <c r="D20">
-        <v>9.629103365996764</v>
+        <v>9.288983830412453</v>
       </c>
       <c r="E20">
-        <v>11.72265687750999</v>
+        <v>7.962766979995259</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>41.45687074131233</v>
+        <v>2.139564590265813</v>
       </c>
       <c r="H20">
-        <v>42.08470702387833</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>34.64633828801463</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>5.645043203699579</v>
+        <v>5.218900366101365</v>
       </c>
       <c r="K20">
-        <v>20.75567968667817</v>
+        <v>16.41648556151056</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>7.760555288398136</v>
       </c>
       <c r="M20">
-        <v>19.71599249616301</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>14.16042342587588</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>78.20713054117311</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.93428302340137</v>
+        <v>22.81273053506298</v>
       </c>
       <c r="C21">
-        <v>22.09703021425417</v>
+        <v>10.5002495442523</v>
       </c>
       <c r="D21">
-        <v>10.27273251655284</v>
+        <v>9.551182388762587</v>
       </c>
       <c r="E21">
-        <v>12.37372133564391</v>
+        <v>8.034725889905792</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>43.99554075502642</v>
+        <v>2.118806031026863</v>
       </c>
       <c r="H21">
-        <v>44.42807444950245</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>36.38569364873576</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>5.756118294602337</v>
+        <v>5.286592675925545</v>
       </c>
       <c r="K21">
-        <v>22.19752475465938</v>
+        <v>17.66614438261377</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>7.831844390841926</v>
       </c>
       <c r="M21">
-        <v>21.08640492014211</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>14.551749366852</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>82.4367061951553</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.88971184356447</v>
+        <v>23.60845091777059</v>
       </c>
       <c r="C22">
-        <v>23.04653591275035</v>
+        <v>11.02944669404159</v>
       </c>
       <c r="D22">
-        <v>10.70873251408566</v>
+        <v>9.727736581618716</v>
       </c>
       <c r="E22">
-        <v>12.79920437770671</v>
+        <v>8.084460536363109</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>45.64039459301735</v>
+        <v>2.105047926513144</v>
       </c>
       <c r="H22">
-        <v>45.95519734732682</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>37.52507236740137</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>5.833020669865728</v>
+        <v>5.331949843397545</v>
       </c>
       <c r="K22">
-        <v>23.1187114859064</v>
+        <v>18.47921667029169</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>7.885403583966971</v>
       </c>
       <c r="M22">
-        <v>21.96244918918822</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>14.82604909883065</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>85.18496974233254</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.38172893302026</v>
+        <v>23.1806243041969</v>
       </c>
       <c r="C23">
-        <v>22.54136229260371</v>
+        <v>10.74687506510101</v>
       </c>
       <c r="D23">
-        <v>10.47682911151141</v>
+        <v>9.632996833407852</v>
       </c>
       <c r="E23">
-        <v>12.57206924487628</v>
+        <v>8.057644857998419</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>44.76361111144084</v>
+        <v>2.112413363110679</v>
       </c>
       <c r="H23">
-        <v>45.14036953900391</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>36.91659447576852</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>5.791557842737288</v>
+        <v>5.307620179728704</v>
       </c>
       <c r="K23">
-        <v>22.62884268366128</v>
+        <v>18.04541077998182</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>7.856142722710402</v>
       </c>
       <c r="M23">
-        <v>21.49653876494339</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>14.67785435274694</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>83.71918603210666</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.41246896902998</v>
+        <v>21.60745237280613</v>
       </c>
       <c r="C24">
-        <v>20.59019474058638</v>
+        <v>9.676519804878291</v>
       </c>
       <c r="D24">
-        <v>9.619190645347143</v>
+        <v>9.284779096078346</v>
       </c>
       <c r="E24">
-        <v>11.71200573011111</v>
+        <v>7.961631611316826</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>41.41509571687189</v>
+        <v>2.139901679253545</v>
       </c>
       <c r="H24">
-        <v>42.04629742567626</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>34.6179281142692</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>5.643295397244252</v>
+        <v>5.217808797259829</v>
       </c>
       <c r="K24">
-        <v>20.73172541838446</v>
+        <v>16.39596095302372</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>7.759499856418878</v>
       </c>
       <c r="M24">
-        <v>19.6932331051148</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>14.15432019860899</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>78.13764114866781</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.17683297848524</v>
+        <v>19.9748011583456</v>
       </c>
       <c r="C25">
-        <v>18.38854276721668</v>
+        <v>8.505111088093727</v>
       </c>
       <c r="D25">
-        <v>8.742736557291188</v>
+        <v>8.928677277921135</v>
       </c>
       <c r="E25">
-        <v>10.78065652771281</v>
+        <v>7.86763570612077</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>37.72611232920671</v>
+        <v>2.169160608232873</v>
       </c>
       <c r="H25">
-        <v>38.67697062922684</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>32.14000005653966</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>5.499727022571291</v>
+        <v>5.124055499136894</v>
       </c>
       <c r="K25">
-        <v>18.58142318871665</v>
+        <v>15.09572563250542</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>7.681843393139516</v>
       </c>
       <c r="M25">
-        <v>17.65130151748675</v>
+        <v>13.66077952906894</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>72.01318259415899</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_1/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_1/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.82107359348932</v>
+        <v>19.07555452068777</v>
       </c>
       <c r="C2">
-        <v>7.614782444413978</v>
+        <v>12.41798920495849</v>
       </c>
       <c r="D2">
-        <v>8.680956961532038</v>
+        <v>7.184474692789657</v>
       </c>
       <c r="E2">
-        <v>7.804828976705207</v>
+        <v>7.400898814563636</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.190752760311298</v>
+        <v>23.65064558933848</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>8.579215908585869</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>13.10204930149155</v>
       </c>
       <c r="J2">
-        <v>5.056230064353203</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>14.25353130424679</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>7.644435592290696</v>
+        <v>6.271078240520205</v>
       </c>
       <c r="M2">
-        <v>13.35094504048827</v>
+        <v>11.41526330456974</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>11.95706418741824</v>
       </c>
       <c r="O2">
-        <v>67.38862527064742</v>
+        <v>14.41101430540441</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.06852977601754</v>
+        <v>17.80819019863183</v>
       </c>
       <c r="C3">
-        <v>6.988755987714679</v>
+        <v>11.90195588761326</v>
       </c>
       <c r="D3">
-        <v>8.521306378915817</v>
+        <v>6.689326277657798</v>
       </c>
       <c r="E3">
-        <v>7.765534548472182</v>
+        <v>7.497701951244432</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.20556961378069</v>
+        <v>22.77554552336831</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>8.551475939295198</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>13.19963520570901</v>
       </c>
       <c r="J3">
-        <v>5.010436751975696</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>13.71379580043616</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>7.63011679430777</v>
+        <v>6.183255388077994</v>
       </c>
       <c r="M3">
-        <v>13.17120730280307</v>
+        <v>10.87607628971442</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>12.09115979242086</v>
       </c>
       <c r="O3">
-        <v>64.1768990355022</v>
+        <v>14.18360453632729</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.62122402542998</v>
+        <v>16.98331728700326</v>
       </c>
       <c r="C4">
-        <v>6.591746902311114</v>
+        <v>11.57285437362541</v>
       </c>
       <c r="D4">
-        <v>8.427143921532014</v>
+        <v>6.368061723299561</v>
       </c>
       <c r="E4">
-        <v>7.742820993374767</v>
+        <v>7.559548518440703</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.214800133734419</v>
+        <v>22.24844936927183</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>8.540775004688763</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>13.27160947330098</v>
       </c>
       <c r="J4">
-        <v>4.982246735104187</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>13.39765165678388</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>7.626387415812924</v>
+        <v>6.131611750511011</v>
       </c>
       <c r="M4">
-        <v>13.07481970190526</v>
+        <v>10.53438877175866</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>12.1768232391683</v>
       </c>
       <c r="O4">
-        <v>62.16654259276875</v>
+        <v>14.05586655265761</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.44274315890999</v>
+        <v>16.63537555468259</v>
       </c>
       <c r="C5">
-        <v>6.426596497799082</v>
+        <v>11.43577698240242</v>
       </c>
       <c r="D5">
-        <v>8.389719734616937</v>
+        <v>6.23277740499468</v>
       </c>
       <c r="E5">
-        <v>7.733894193105225</v>
+        <v>7.58535780982018</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.218600630242572</v>
+        <v>22.03653996064341</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>8.537958770379394</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>13.30383406520446</v>
       </c>
       <c r="J5">
-        <v>4.970720220229327</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>13.27267746779802</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>7.626088593591556</v>
+        <v>6.111152134465292</v>
       </c>
       <c r="M5">
-        <v>13.03892107979757</v>
+        <v>10.39265432709855</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>12.21256294321925</v>
       </c>
       <c r="O5">
-        <v>61.33785296363516</v>
+        <v>14.00677981395124</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.41333916815771</v>
+        <v>16.57688589135199</v>
       </c>
       <c r="C6">
-        <v>6.398964904889041</v>
+        <v>11.41283998652073</v>
       </c>
       <c r="D6">
-        <v>8.383562081891517</v>
+        <v>6.212385959490327</v>
       </c>
       <c r="E6">
-        <v>7.732431067262634</v>
+        <v>7.589680063328696</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.219234206320812</v>
+        <v>22.00153633217191</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>8.537582997192606</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>13.30935583661917</v>
       </c>
       <c r="J6">
-        <v>4.968803346017901</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>13.25215942269768</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>7.62611125663744</v>
+        <v>6.107790532144245</v>
       </c>
       <c r="M6">
-        <v>13.03316044992762</v>
+        <v>10.36897453598394</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>12.21854754431103</v>
       </c>
       <c r="O6">
-        <v>61.19968746796597</v>
+        <v>13.99880734634699</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.61880144663025</v>
+        <v>16.97867266916223</v>
       </c>
       <c r="C7">
-        <v>6.589533492649559</v>
+        <v>11.57101754272672</v>
       </c>
       <c r="D7">
-        <v>8.42663539751543</v>
+        <v>6.366254951776859</v>
       </c>
       <c r="E7">
-        <v>7.742699303450317</v>
+        <v>7.559894135712411</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.214851223769035</v>
+        <v>22.24557937184187</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>8.540730834469057</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>13.27203252341581</v>
       </c>
       <c r="J7">
-        <v>4.982091467351419</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>13.39595055591464</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>7.626378508631401</v>
+        <v>6.131333438672713</v>
       </c>
       <c r="M7">
-        <v>13.07432204841918</v>
+        <v>10.53248713451696</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>12.17730187884783</v>
       </c>
       <c r="O7">
-        <v>62.15540449893371</v>
+        <v>14.05519257457714</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.55857581915957</v>
+        <v>18.64822743766823</v>
       </c>
       <c r="C8">
-        <v>7.401427407713868</v>
+        <v>12.24266849774757</v>
       </c>
       <c r="D8">
-        <v>8.625092080826279</v>
+        <v>7.01730719580667</v>
       </c>
       <c r="E8">
-        <v>7.790970230367468</v>
+        <v>7.433776793708065</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.195837562524432</v>
+        <v>23.34697674045145</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>8.568308908272428</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>13.13311076199939</v>
       </c>
       <c r="J8">
-        <v>5.040442494962607</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>14.06427101187206</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>7.63841531999256</v>
+        <v>6.240331437685788</v>
       </c>
       <c r="M8">
-        <v>13.28599005191573</v>
+        <v>11.23165486910192</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>12.00260582524801</v>
       </c>
       <c r="O8">
-        <v>66.28923992041737</v>
+        <v>14.33012455180492</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.51697049826073</v>
+        <v>21.55421796405997</v>
       </c>
       <c r="C9">
-        <v>8.903234106151102</v>
+        <v>13.458319035517</v>
       </c>
       <c r="D9">
-        <v>9.046254668493795</v>
+        <v>8.158637858073398</v>
       </c>
       <c r="E9">
-        <v>7.898195655379506</v>
+        <v>7.205561750410178</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.159319974872763</v>
+        <v>25.57477217224608</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>8.674670350615891</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>12.96270758401726</v>
       </c>
       <c r="J9">
-        <v>5.155362125442049</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>15.49639422335492</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>7.70474243125535</v>
+        <v>6.47158027024361</v>
       </c>
       <c r="M9">
-        <v>13.81825074630418</v>
+        <v>12.71836482097442</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>11.68674322006612</v>
       </c>
       <c r="O9">
-        <v>74.09285164010396</v>
+        <v>14.96415794229034</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.02888250247495</v>
+        <v>23.46864845298735</v>
       </c>
       <c r="C10">
-        <v>9.967637414881276</v>
+        <v>14.28506707954229</v>
       </c>
       <c r="D10">
-        <v>9.37762340196965</v>
+        <v>8.916658955736233</v>
       </c>
       <c r="E10">
-        <v>7.986838541846862</v>
+        <v>7.049537102432319</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.132492607607912</v>
+        <v>27.23711504274511</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>8.787347104882109</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>12.90871483141081</v>
       </c>
       <c r="J10">
-        <v>5.241858307573271</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>16.84536191130644</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>7.78347412481641</v>
+        <v>6.651325643143859</v>
       </c>
       <c r="M10">
-        <v>14.29040330290772</v>
+        <v>13.7885335441528</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>11.47147739002895</v>
       </c>
       <c r="O10">
-        <v>79.65910182063755</v>
+        <v>15.48798445985194</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.73489386042166</v>
+        <v>24.2925168512623</v>
       </c>
       <c r="C11">
-        <v>10.44781617329234</v>
+        <v>14.64607924182041</v>
       </c>
       <c r="D11">
-        <v>9.533900435931068</v>
+        <v>9.24447063696922</v>
       </c>
       <c r="E11">
-        <v>8.029912901718983</v>
+        <v>6.981095576810706</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.120160724227087</v>
+        <v>27.99615872148234</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>8.846633322613593</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>12.90161807186069</v>
       </c>
       <c r="J11">
-        <v>5.282147416798733</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>17.58544019561309</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>7.826830825626849</v>
+        <v>6.73505429332978</v>
       </c>
       <c r="M11">
-        <v>14.52534227672702</v>
+        <v>14.25055095683171</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>11.37733855154485</v>
       </c>
       <c r="O11">
-        <v>82.16370897839077</v>
+        <v>15.73877906511351</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.00520832658199</v>
+        <v>24.59780395639682</v>
       </c>
       <c r="C12">
-        <v>10.62952118405899</v>
+        <v>14.78057529503605</v>
       </c>
       <c r="D12">
-        <v>9.593960152870913</v>
+        <v>9.366195289136083</v>
       </c>
       <c r="E12">
-        <v>8.046681821399526</v>
+        <v>6.955544904839598</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.115459472380255</v>
+        <v>28.2838118448696</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>8.870278263067005</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>12.90161048018503</v>
       </c>
       <c r="J12">
-        <v>5.297590164682556</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>17.86501197848916</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>7.844434267355653</v>
+        <v>6.767027163398626</v>
       </c>
       <c r="M12">
-        <v>14.61746298570325</v>
+        <v>14.42196423812372</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>11.34225004821341</v>
       </c>
       <c r="O12">
-        <v>83.10927281499153</v>
+        <v>15.83553095785778</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.94685250418049</v>
+        <v>24.53235154416397</v>
       </c>
       <c r="C13">
-        <v>10.59038536319003</v>
+        <v>14.75170808908152</v>
       </c>
       <c r="D13">
-        <v>9.580984435089167</v>
+        <v>9.340086323059619</v>
       </c>
       <c r="E13">
-        <v>8.043048863739552</v>
+        <v>6.961031351003147</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.116473603432893</v>
+        <v>28.22185343072668</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>8.865132158738675</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>12.90149023525105</v>
       </c>
       <c r="J13">
-        <v>5.294255096563341</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>17.80482264217323</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>7.840588558285934</v>
+        <v>6.760129613351672</v>
       </c>
       <c r="M13">
-        <v>14.59747821248059</v>
+        <v>14.3852044449896</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>11.34978181838415</v>
       </c>
       <c r="O13">
-        <v>82.90573581096524</v>
+        <v>15.81461475672442</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.75707094195794</v>
+        <v>24.3177667716564</v>
       </c>
       <c r="C14">
-        <v>10.4627648382295</v>
+        <v>14.65718884174753</v>
       </c>
       <c r="D14">
-        <v>9.538823360117579</v>
+        <v>9.254533094921831</v>
       </c>
       <c r="E14">
-        <v>8.031282921247007</v>
+        <v>6.978986144772256</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.119774662893745</v>
+        <v>28.01982066051806</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>8.848554443703938</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>12.90156277081929</v>
       </c>
       <c r="J14">
-        <v>5.283413843687142</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>17.60845123649537</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>7.828254682830249</v>
+        <v>6.737679462706652</v>
       </c>
       <c r="M14">
-        <v>14.53285623263295</v>
+        <v>14.26472407496979</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>11.37444048359187</v>
       </c>
       <c r="O14">
-        <v>82.24155133984098</v>
+        <v>15.74670329958195</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.6412227090577</v>
+        <v>24.18545767051459</v>
       </c>
       <c r="C15">
-        <v>10.38459169827404</v>
+        <v>14.59900398729708</v>
       </c>
       <c r="D15">
-        <v>9.513116125117914</v>
+        <v>9.201816452567112</v>
       </c>
       <c r="E15">
-        <v>8.024137581052136</v>
+        <v>6.990031797981962</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.12179213467775</v>
+        <v>27.89609341353449</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>8.838556831823945</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>12.90196121120612</v>
       </c>
       <c r="J15">
-        <v>5.276799181240218</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>17.48809554162629</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>7.820857442478742</v>
+        <v>6.723962375225407</v>
       </c>
       <c r="M15">
-        <v>14.49369267450264</v>
+        <v>14.19046581196238</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>11.38961802780892</v>
       </c>
       <c r="O15">
-        <v>81.83438236335981</v>
+        <v>15.70533704539397</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.98313595129942</v>
+        <v>23.41386630111318</v>
       </c>
       <c r="C16">
-        <v>9.93621225687653</v>
+        <v>14.26116672494287</v>
       </c>
       <c r="D16">
-        <v>9.367528487280243</v>
+        <v>8.894896366306693</v>
       </c>
       <c r="E16">
-        <v>7.984083920259749</v>
+        <v>7.054061092510283</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.133294889935749</v>
+        <v>27.18754991775381</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>8.783637637154246</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>12.90954441584674</v>
       </c>
       <c r="J16">
-        <v>5.239248382487941</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>16.79687269631368</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>7.780800671702481</v>
+        <v>6.645891919355607</v>
       </c>
       <c r="M16">
-        <v>14.27547584109102</v>
+        <v>13.75784243094945</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>11.47770704022539</v>
       </c>
       <c r="O16">
-        <v>79.49495104452198</v>
+        <v>15.47184467104448</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.5842915844686</v>
+        <v>22.92852499031755</v>
       </c>
       <c r="C17">
-        <v>9.660410559129325</v>
+        <v>14.050018217982</v>
       </c>
       <c r="D17">
-        <v>9.279686754435726</v>
+        <v>8.702278120942314</v>
       </c>
       <c r="E17">
-        <v>7.960257359028844</v>
+        <v>7.093991542891019</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.140310135322132</v>
+        <v>26.75346252914678</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>8.752031979364753</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>12.91878889357112</v>
       </c>
       <c r="J17">
-        <v>5.216486462155673</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>16.37108092352385</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>7.758225564682912</v>
+        <v>6.598489487343924</v>
       </c>
       <c r="M17">
-        <v>14.14693637260905</v>
+        <v>13.48610427327937</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>11.5327268528202</v>
       </c>
       <c r="O17">
-        <v>78.05340578768273</v>
+        <v>15.33179597474422</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.35657523993296</v>
+        <v>22.64494003880237</v>
       </c>
       <c r="C18">
-        <v>9.501366671059124</v>
+        <v>13.92715366011191</v>
       </c>
       <c r="D18">
-        <v>9.229677323568044</v>
+        <v>8.589885334855722</v>
       </c>
       <c r="E18">
-        <v>7.946807492122458</v>
+        <v>7.117196909345176</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.14433397883638</v>
+        <v>26.50406285099744</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>8.734606707208602</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>12.92573973676043</v>
       </c>
       <c r="J18">
-        <v>5.203479480762089</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>16.12539031795927</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>7.745943929698448</v>
+        <v>6.571410394788075</v>
       </c>
       <c r="M18">
-        <v>14.0748830900309</v>
+        <v>13.32747088433803</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>11.56472816713558</v>
       </c>
       <c r="O18">
-        <v>77.22159484893932</v>
+        <v>15.25242173090287</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.27975620193199</v>
+        <v>22.5481602827061</v>
       </c>
       <c r="C19">
-        <v>9.447434313512487</v>
+        <v>13.88531185765321</v>
       </c>
       <c r="D19">
-        <v>9.212831170187778</v>
+        <v>8.55155451603663</v>
       </c>
       <c r="E19">
-        <v>7.942295607771451</v>
+        <v>7.125094743597944</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.145694828926643</v>
+        <v>26.41967411065974</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>8.728834967610831</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>12.92836865244553</v>
       </c>
       <c r="J19">
-        <v>5.199088760945788</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>16.06448751982217</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>7.741903492989718</v>
+        <v>6.562274223689991</v>
       </c>
       <c r="M19">
-        <v>14.05080281230891</v>
+        <v>13.27335832048218</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>11.57562386748348</v>
       </c>
       <c r="O19">
-        <v>76.93947142850337</v>
+        <v>15.22574977922878</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.62657247554129</v>
+        <v>22.98064835736739</v>
       </c>
       <c r="C20">
-        <v>9.689809559535977</v>
+        <v>14.07264239032357</v>
       </c>
       <c r="D20">
-        <v>9.288983830412453</v>
+        <v>8.722948396675774</v>
       </c>
       <c r="E20">
-        <v>7.962766979995259</v>
+        <v>7.089716188609171</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.139564590265813</v>
+        <v>26.79964479421221</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>8.755318178904648</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>12.91763451030386</v>
       </c>
       <c r="J20">
-        <v>5.218900366101365</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>16.41648556151056</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>7.760555288398136</v>
+        <v>6.603516468828552</v>
       </c>
       <c r="M20">
-        <v>14.16042342587588</v>
+        <v>13.5152729480276</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>11.52683301623284</v>
       </c>
       <c r="O20">
-        <v>78.20713054117311</v>
+        <v>15.34658258657775</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.81273053506298</v>
+        <v>24.38097664980864</v>
       </c>
       <c r="C21">
-        <v>10.5002495442523</v>
+        <v>14.68501174317741</v>
       </c>
       <c r="D21">
-        <v>9.551182388762587</v>
+        <v>9.279727276500829</v>
       </c>
       <c r="E21">
-        <v>8.034725889905792</v>
+        <v>6.973702415424324</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.118806031026863</v>
+        <v>28.0791579365106</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>8.853390992090938</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>12.90146738773829</v>
       </c>
       <c r="J21">
-        <v>5.286592675925545</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>17.66614438261377</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>7.831844390841926</v>
+        <v>6.744266499241477</v>
       </c>
       <c r="M21">
-        <v>14.551749366852</v>
+        <v>14.30020800994895</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>11.3671823088929</v>
       </c>
       <c r="O21">
-        <v>82.4367061951553</v>
+        <v>15.7666023331434</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.60845091777059</v>
+        <v>25.25718716295083</v>
       </c>
       <c r="C22">
-        <v>11.02944669404159</v>
+        <v>15.072328016624</v>
       </c>
       <c r="D22">
-        <v>9.727736581618716</v>
+        <v>9.629581939903334</v>
       </c>
       <c r="E22">
-        <v>8.084460536363109</v>
+        <v>6.900019319012136</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.105047926513144</v>
+        <v>28.91661333937711</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>8.92446713382131</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>12.90660000846103</v>
       </c>
       <c r="J22">
-        <v>5.331949843397545</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>18.47921667029169</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>7.885403583966971</v>
+        <v>6.837802363516531</v>
       </c>
       <c r="M22">
-        <v>14.82604909883065</v>
+        <v>14.79257335346709</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>11.26611324824263</v>
       </c>
       <c r="O22">
-        <v>85.18496974233254</v>
+        <v>16.05148465776215</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.1806243041969</v>
+        <v>24.79308157957797</v>
       </c>
       <c r="C23">
-        <v>10.74687506510101</v>
+        <v>14.86680211857367</v>
       </c>
       <c r="D23">
-        <v>9.632996833407852</v>
+        <v>9.444129546175411</v>
       </c>
       <c r="E23">
-        <v>8.057644857998419</v>
+        <v>6.939148801177991</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.112413363110679</v>
+        <v>28.46958870342874</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>8.885881083367678</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>12.90236826011509</v>
       </c>
       <c r="J23">
-        <v>5.307620179728704</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>18.04541077998182</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>7.856142722710402</v>
+        <v>6.787743826911576</v>
       </c>
       <c r="M23">
-        <v>14.67785435274694</v>
+        <v>14.5316675819111</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>11.31975066605748</v>
       </c>
       <c r="O23">
-        <v>83.71918603210666</v>
+        <v>15.89849404435722</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.60745237280613</v>
+        <v>22.9570975783509</v>
       </c>
       <c r="C24">
-        <v>9.676519804878291</v>
+        <v>14.06241858504108</v>
       </c>
       <c r="D24">
-        <v>9.284779096078346</v>
+        <v>8.713608519564724</v>
       </c>
       <c r="E24">
-        <v>7.961631611316826</v>
+        <v>7.091648301418203</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.139901679253545</v>
+        <v>26.77876526993633</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>8.753830169881633</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>12.91815132373102</v>
       </c>
       <c r="J24">
-        <v>5.217808797259829</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>16.39596095302372</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>7.759499856418878</v>
+        <v>6.601243229849445</v>
       </c>
       <c r="M24">
-        <v>14.15432019860899</v>
+        <v>13.5020932908224</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>11.52949646937838</v>
       </c>
       <c r="O24">
-        <v>78.13764114866781</v>
+        <v>15.33989400223076</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.9748011583456</v>
+        <v>20.80708884863872</v>
       </c>
       <c r="C25">
-        <v>8.505111088093727</v>
+        <v>13.140838847395</v>
       </c>
       <c r="D25">
-        <v>8.928677277921135</v>
+        <v>7.864165821568839</v>
       </c>
       <c r="E25">
-        <v>7.86763570612077</v>
+        <v>7.265256628227286</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.169160608232873</v>
+        <v>24.96655788140501</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>8.640017290646005</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>12.99696939385291</v>
       </c>
       <c r="J25">
-        <v>5.124055499136894</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>15.09572563250542</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>7.681843393139516</v>
+        <v>6.407230607954789</v>
       </c>
       <c r="M25">
-        <v>13.66077952906894</v>
+        <v>12.30212981866748</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>11.76928518157855</v>
       </c>
       <c r="O25">
-        <v>72.01318259415899</v>
+        <v>14.78243048490651</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_1/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_1/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.07555452068777</v>
+        <v>13.73601491863699</v>
       </c>
       <c r="C2">
-        <v>12.41798920495849</v>
+        <v>10.66670083838895</v>
       </c>
       <c r="D2">
-        <v>7.184474692789657</v>
+        <v>5.977444122007769</v>
       </c>
       <c r="E2">
-        <v>7.400898814563636</v>
+        <v>12.47962550562971</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>23.65064558933848</v>
+        <v>27.65683162255755</v>
       </c>
       <c r="H2">
-        <v>8.579215908585869</v>
+        <v>13.89745610560035</v>
       </c>
       <c r="I2">
-        <v>13.10204930149155</v>
+        <v>21.46468702686644</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.271078240520205</v>
+        <v>9.998992387164492</v>
       </c>
       <c r="M2">
-        <v>11.41526330456974</v>
+        <v>14.12300526268736</v>
       </c>
       <c r="N2">
-        <v>11.95706418741824</v>
+        <v>17.64873399393152</v>
       </c>
       <c r="O2">
-        <v>14.41101430540441</v>
+        <v>21.02916406240776</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.80819019863183</v>
+        <v>13.25997561723036</v>
       </c>
       <c r="C3">
-        <v>11.90195588761326</v>
+        <v>10.46598940404726</v>
       </c>
       <c r="D3">
-        <v>6.689326277657798</v>
+        <v>5.857140931170137</v>
       </c>
       <c r="E3">
-        <v>7.497701951244432</v>
+        <v>12.51923234144846</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>22.77554552336831</v>
+        <v>27.59755330861018</v>
       </c>
       <c r="H3">
-        <v>8.551475939295198</v>
+        <v>13.93447248047569</v>
       </c>
       <c r="I3">
-        <v>13.19963520570901</v>
+        <v>21.5555621622159</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.183255388077994</v>
+        <v>10.00629420462095</v>
       </c>
       <c r="M3">
-        <v>10.87607628971442</v>
+        <v>14.02789378208334</v>
       </c>
       <c r="N3">
-        <v>12.09115979242086</v>
+        <v>17.69608465666053</v>
       </c>
       <c r="O3">
-        <v>14.18360453632729</v>
+        <v>21.06786359910546</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.98331728700326</v>
+        <v>12.96030291970072</v>
       </c>
       <c r="C4">
-        <v>11.57285437362541</v>
+        <v>10.33966492999481</v>
       </c>
       <c r="D4">
-        <v>6.368061723299561</v>
+        <v>5.783770203523147</v>
       </c>
       <c r="E4">
-        <v>7.559548518440703</v>
+        <v>12.54489812231173</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>22.24844936927183</v>
+        <v>27.5711067009284</v>
       </c>
       <c r="H4">
-        <v>8.540775004688763</v>
+        <v>13.95973375719857</v>
       </c>
       <c r="I4">
-        <v>13.27160947330098</v>
+        <v>21.61581865088586</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.131611750511011</v>
+        <v>10.01217586479951</v>
       </c>
       <c r="M4">
-        <v>10.53438877175866</v>
+        <v>13.97113265224161</v>
       </c>
       <c r="N4">
-        <v>12.1768232391683</v>
+        <v>17.72688411377214</v>
       </c>
       <c r="O4">
-        <v>14.05586655265761</v>
+        <v>21.09682146171697</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.63537555468259</v>
+        <v>12.83651223581193</v>
       </c>
       <c r="C5">
-        <v>11.43577698240242</v>
+        <v>10.28745213611728</v>
       </c>
       <c r="D5">
-        <v>6.23277740499468</v>
+        <v>5.754042536225199</v>
       </c>
       <c r="E5">
-        <v>7.58535780982018</v>
+        <v>12.55569667508282</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>22.03653996064341</v>
+        <v>27.5628384596183</v>
       </c>
       <c r="H5">
-        <v>8.537958770379394</v>
+        <v>13.97066422373562</v>
       </c>
       <c r="I5">
-        <v>13.30383406520446</v>
+        <v>21.64149329060131</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.111152134465292</v>
+        <v>10.01492484911594</v>
       </c>
       <c r="M5">
-        <v>10.39265432709855</v>
+        <v>13.94843253508186</v>
       </c>
       <c r="N5">
-        <v>12.21256294321925</v>
+        <v>17.73987001921327</v>
       </c>
       <c r="O5">
-        <v>14.00677981395124</v>
+        <v>21.10992577034045</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.57688589135199</v>
+        <v>12.81586166113606</v>
       </c>
       <c r="C6">
-        <v>11.41283998652073</v>
+        <v>10.27873913011507</v>
       </c>
       <c r="D6">
-        <v>6.212385959490327</v>
+        <v>5.749118015476327</v>
       </c>
       <c r="E6">
-        <v>7.589680063328696</v>
+        <v>12.55751029798247</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>22.00153633217191</v>
+        <v>27.56161719526983</v>
       </c>
       <c r="H6">
-        <v>8.537582997192606</v>
+        <v>13.97251762924455</v>
       </c>
       <c r="I6">
-        <v>13.30935583661917</v>
+        <v>21.64582412236453</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.107790532144245</v>
+        <v>10.01540259986734</v>
       </c>
       <c r="M6">
-        <v>10.36897453598394</v>
+        <v>13.94468973267796</v>
       </c>
       <c r="N6">
-        <v>12.21854754431103</v>
+        <v>17.74205261023456</v>
       </c>
       <c r="O6">
-        <v>13.99880734634699</v>
+        <v>21.1121803814882</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.97867266916223</v>
+        <v>12.95863994684603</v>
       </c>
       <c r="C7">
-        <v>11.57101754272672</v>
+        <v>10.33896368775091</v>
       </c>
       <c r="D7">
-        <v>6.366254951776859</v>
+        <v>5.783368529179629</v>
       </c>
       <c r="E7">
-        <v>7.559894135712411</v>
+        <v>12.54504237949619</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>22.24557937184187</v>
+        <v>27.57098502725337</v>
       </c>
       <c r="H7">
-        <v>8.540730834469057</v>
+        <v>13.95987859390415</v>
       </c>
       <c r="I7">
-        <v>13.27203252341581</v>
+        <v>21.61616037678285</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.131333438672713</v>
+        <v>10.01221151201686</v>
       </c>
       <c r="M7">
-        <v>10.53248713451696</v>
+        <v>13.97082474322691</v>
       </c>
       <c r="N7">
-        <v>12.17730187884783</v>
+        <v>17.72705748427428</v>
       </c>
       <c r="O7">
-        <v>14.05519257457714</v>
+        <v>21.09699291632008</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.64822743766823</v>
+        <v>13.5735144208981</v>
       </c>
       <c r="C8">
-        <v>12.24266849774757</v>
+        <v>10.59816062611575</v>
       </c>
       <c r="D8">
-        <v>7.01730719580667</v>
+        <v>5.935888536381806</v>
       </c>
       <c r="E8">
-        <v>7.433776793708065</v>
+        <v>12.49300286138005</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>23.34697674045145</v>
+        <v>27.63433231491215</v>
       </c>
       <c r="H8">
-        <v>8.568308908272428</v>
+        <v>13.90969322347473</v>
       </c>
       <c r="I8">
-        <v>13.13311076199939</v>
+        <v>21.49509441061269</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.240331437685788</v>
+        <v>10.00122017913682</v>
       </c>
       <c r="M8">
-        <v>11.23165486910192</v>
+        <v>14.08988232077053</v>
       </c>
       <c r="N8">
-        <v>12.00260582524801</v>
+        <v>17.66470280141353</v>
       </c>
       <c r="O8">
-        <v>14.33012455180492</v>
+        <v>21.04142758232453</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.55421796405997</v>
+        <v>14.71344706668401</v>
       </c>
       <c r="C9">
-        <v>13.458319035517</v>
+        <v>11.08022090162224</v>
       </c>
       <c r="D9">
-        <v>8.158637858073398</v>
+        <v>6.236897990123045</v>
       </c>
       <c r="E9">
-        <v>7.205561750410178</v>
+        <v>12.40160408543471</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>25.57477217224608</v>
+        <v>27.83705591997076</v>
       </c>
       <c r="H9">
-        <v>8.674670350615891</v>
+        <v>13.83140723149882</v>
       </c>
       <c r="I9">
-        <v>12.96270758401726</v>
+        <v>21.29313286167088</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.47158027024361</v>
+        <v>9.990735301509906</v>
       </c>
       <c r="M9">
-        <v>12.71836482097442</v>
+        <v>14.33550007849351</v>
       </c>
       <c r="N9">
-        <v>11.68674322006612</v>
+        <v>17.55608094381513</v>
       </c>
       <c r="O9">
-        <v>14.96415794229034</v>
+        <v>20.9738056956536</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.46864845298735</v>
+        <v>15.50227118787785</v>
       </c>
       <c r="C10">
-        <v>14.28506707954229</v>
+        <v>11.41623060142122</v>
       </c>
       <c r="D10">
-        <v>8.916658955736233</v>
+        <v>6.456604875523861</v>
       </c>
       <c r="E10">
-        <v>7.049537102432319</v>
+        <v>12.34089368905028</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>27.23711504274511</v>
+        <v>28.03302525697008</v>
       </c>
       <c r="H10">
-        <v>8.787347104882109</v>
+        <v>13.78619758394184</v>
       </c>
       <c r="I10">
-        <v>12.90871483141081</v>
+        <v>21.16645762823542</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.651325643143859</v>
+        <v>9.98974216182431</v>
       </c>
       <c r="M10">
-        <v>13.7885335441528</v>
+        <v>14.52219042227895</v>
       </c>
       <c r="N10">
-        <v>11.47147739002895</v>
+        <v>17.4845470207644</v>
       </c>
       <c r="O10">
-        <v>15.48798445985194</v>
+        <v>20.94945508406273</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.2925168512623</v>
+        <v>15.84906366865787</v>
       </c>
       <c r="C11">
-        <v>14.64607924182041</v>
+        <v>11.56472890148346</v>
       </c>
       <c r="D11">
-        <v>9.24447063696922</v>
+        <v>6.555721499343282</v>
       </c>
       <c r="E11">
-        <v>6.981095576810706</v>
+        <v>12.31466226952868</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>27.99615872148234</v>
+        <v>28.13214460899416</v>
       </c>
       <c r="H11">
-        <v>8.846633322613593</v>
+        <v>13.7683097263319</v>
       </c>
       <c r="I11">
-        <v>12.90161807186069</v>
+        <v>21.11356381005023</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.73505429332978</v>
+        <v>9.990737725780589</v>
       </c>
       <c r="M11">
-        <v>14.25055095683171</v>
+        <v>14.60821743240595</v>
       </c>
       <c r="N11">
-        <v>11.37733855154485</v>
+        <v>17.45378902296575</v>
       </c>
       <c r="O11">
-        <v>15.73877906511351</v>
+        <v>20.94389560347884</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.59780395639682</v>
+        <v>15.97854740328699</v>
       </c>
       <c r="C12">
-        <v>14.78057529503605</v>
+        <v>11.62030308300346</v>
       </c>
       <c r="D12">
-        <v>9.366195289136083</v>
+        <v>6.593094657066405</v>
       </c>
       <c r="E12">
-        <v>6.955544904839598</v>
+        <v>12.30492759865453</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>28.2838118448696</v>
+        <v>28.17108715402028</v>
       </c>
       <c r="H12">
-        <v>8.870278263067005</v>
+        <v>13.76192164784656</v>
       </c>
       <c r="I12">
-        <v>12.90161048018503</v>
+        <v>21.09421647902836</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.767027163398626</v>
+        <v>9.991321867151779</v>
       </c>
       <c r="M12">
-        <v>14.42196423812372</v>
+        <v>14.64092983399587</v>
       </c>
       <c r="N12">
-        <v>11.34225004821341</v>
+        <v>17.44239737127993</v>
       </c>
       <c r="O12">
-        <v>15.83553095785778</v>
+        <v>20.94258439618514</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.53235154416397</v>
+        <v>15.95074411568284</v>
       </c>
       <c r="C13">
-        <v>14.75170808908152</v>
+        <v>11.60836399211865</v>
       </c>
       <c r="D13">
-        <v>9.340086323059619</v>
+        <v>6.585053428613313</v>
       </c>
       <c r="E13">
-        <v>6.961031351003147</v>
+        <v>12.30701531274828</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>28.22185343072668</v>
+        <v>28.16263799147679</v>
       </c>
       <c r="H13">
-        <v>8.865132158738675</v>
+        <v>13.76328027447082</v>
       </c>
       <c r="I13">
-        <v>12.90149023525105</v>
+        <v>21.09835288999104</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.760129613351672</v>
+        <v>9.99118686572219</v>
       </c>
       <c r="M13">
-        <v>14.3852044449896</v>
+        <v>14.633878949957</v>
       </c>
       <c r="N13">
-        <v>11.34978181838415</v>
+        <v>17.44483940403563</v>
       </c>
       <c r="O13">
-        <v>15.81461475672442</v>
+        <v>20.94283146866831</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.3177667716564</v>
+        <v>15.85975379502254</v>
       </c>
       <c r="C14">
-        <v>14.65718884174753</v>
+        <v>11.56931440817779</v>
       </c>
       <c r="D14">
-        <v>9.254533094921831</v>
+        <v>6.558799647409029</v>
       </c>
       <c r="E14">
-        <v>6.978986144772256</v>
+        <v>12.31385741614199</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>28.01982066051806</v>
+        <v>28.13532037119311</v>
       </c>
       <c r="H14">
-        <v>8.848554443703938</v>
+        <v>13.7677764431375</v>
       </c>
       <c r="I14">
-        <v>12.90156277081929</v>
+        <v>21.11195840525431</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.737679462706652</v>
+        <v>9.990781637938113</v>
       </c>
       <c r="M14">
-        <v>14.26472407496979</v>
+        <v>14.61090610786661</v>
       </c>
       <c r="N14">
-        <v>11.37444048359187</v>
+        <v>17.45284670344473</v>
       </c>
       <c r="O14">
-        <v>15.74670329958195</v>
+        <v>20.94377181419127</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.18545767051459</v>
+        <v>15.8037771569861</v>
       </c>
       <c r="C15">
-        <v>14.59900398729708</v>
+        <v>11.54530866662448</v>
       </c>
       <c r="D15">
-        <v>9.201816452567112</v>
+        <v>6.542696416418262</v>
       </c>
       <c r="E15">
-        <v>6.990031797981962</v>
+        <v>12.31807424439591</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>27.89609341353449</v>
+        <v>28.11877011427123</v>
       </c>
       <c r="H15">
-        <v>8.838556831823945</v>
+        <v>13.77058071600617</v>
       </c>
       <c r="I15">
-        <v>12.90196121120612</v>
+        <v>21.12038110683234</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.723962375225407</v>
+        <v>9.99056036964082</v>
       </c>
       <c r="M15">
-        <v>14.19046581196238</v>
+        <v>14.59685160119167</v>
       </c>
       <c r="N15">
-        <v>11.38961802780892</v>
+        <v>17.45778468990452</v>
       </c>
       <c r="O15">
-        <v>15.70533704539397</v>
+        <v>20.94445122030252</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.41386630111318</v>
+        <v>15.47935563843952</v>
       </c>
       <c r="C16">
-        <v>14.26116672494287</v>
+        <v>11.4064354192036</v>
       </c>
       <c r="D16">
-        <v>8.894896366306693</v>
+        <v>6.450107135190272</v>
       </c>
       <c r="E16">
-        <v>7.054061092510283</v>
+        <v>12.34263580360207</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>27.18754991775381</v>
+        <v>28.02674610119033</v>
       </c>
       <c r="H16">
-        <v>8.783637637154246</v>
+        <v>13.78742053802926</v>
       </c>
       <c r="I16">
-        <v>12.90954441584674</v>
+        <v>21.17000974568482</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.645891919355607</v>
+        <v>9.989706141611665</v>
       </c>
       <c r="M16">
-        <v>13.75784243094945</v>
+        <v>14.51658858836146</v>
       </c>
       <c r="N16">
-        <v>11.47770704022539</v>
+        <v>17.48659295113418</v>
       </c>
       <c r="O16">
-        <v>15.47184467104448</v>
+        <v>20.9499295037415</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.92852499031755</v>
+        <v>15.27716776367006</v>
       </c>
       <c r="C17">
-        <v>14.050018217982</v>
+        <v>11.3201019529318</v>
       </c>
       <c r="D17">
-        <v>8.702278120942314</v>
+        <v>6.393064397676985</v>
       </c>
       <c r="E17">
-        <v>7.093991542891019</v>
+        <v>12.3580580136221</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>26.75346252914678</v>
+        <v>27.97282902399355</v>
       </c>
       <c r="H17">
-        <v>8.752031979364753</v>
+        <v>13.79843758868063</v>
       </c>
       <c r="I17">
-        <v>12.91878889357112</v>
+        <v>21.20166858059095</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.598489487343924</v>
+        <v>9.989552128681417</v>
       </c>
       <c r="M17">
-        <v>13.48610427327937</v>
+        <v>14.46761581933734</v>
       </c>
       <c r="N17">
-        <v>11.5327268528202</v>
+        <v>17.50472210237986</v>
       </c>
       <c r="O17">
-        <v>15.33179597474422</v>
+        <v>20.95470407355676</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.64494003880237</v>
+        <v>15.15974616364716</v>
       </c>
       <c r="C18">
-        <v>13.92715366011191</v>
+        <v>11.2700372093828</v>
       </c>
       <c r="D18">
-        <v>8.589885334855722</v>
+        <v>6.360179187158925</v>
       </c>
       <c r="E18">
-        <v>7.117196909345176</v>
+        <v>12.3670589640559</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>26.50406285099744</v>
+        <v>27.94275768667187</v>
       </c>
       <c r="H18">
-        <v>8.734606707208602</v>
+        <v>13.80502636534276</v>
       </c>
       <c r="I18">
-        <v>12.92573973676043</v>
+        <v>21.22032312247912</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.571410394788075</v>
+        <v>9.989599840194067</v>
       </c>
       <c r="M18">
-        <v>13.32747088433803</v>
+        <v>14.43955292936968</v>
       </c>
       <c r="N18">
-        <v>11.56472816713558</v>
+        <v>17.5153173878324</v>
       </c>
       <c r="O18">
-        <v>15.25242173090287</v>
+        <v>20.95796963200592</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.5481602827061</v>
+        <v>15.11979887663284</v>
       </c>
       <c r="C19">
-        <v>13.88531185765321</v>
+        <v>11.25301710452296</v>
       </c>
       <c r="D19">
-        <v>8.55155451603663</v>
+        <v>6.349033096938827</v>
       </c>
       <c r="E19">
-        <v>7.125094743597944</v>
+        <v>12.37012896712449</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>26.41967411065974</v>
+        <v>27.9327382885803</v>
       </c>
       <c r="H19">
-        <v>8.728834967610831</v>
+        <v>13.80730048605237</v>
       </c>
       <c r="I19">
-        <v>12.92836865244553</v>
+        <v>21.22671563418764</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.562274223689991</v>
+        <v>9.989639431951952</v>
       </c>
       <c r="M19">
-        <v>13.27335832048218</v>
+        <v>14.43007002352089</v>
       </c>
       <c r="N19">
-        <v>11.57562386748348</v>
+        <v>17.51893362352448</v>
       </c>
       <c r="O19">
-        <v>15.22574977922878</v>
+        <v>20.95916446624789</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.98064835736739</v>
+        <v>15.29880861600074</v>
       </c>
       <c r="C20">
-        <v>14.07264239032357</v>
+        <v>11.32933477038224</v>
       </c>
       <c r="D20">
-        <v>8.722948396675774</v>
+        <v>6.399144836769604</v>
       </c>
       <c r="E20">
-        <v>7.089716188609171</v>
+        <v>12.35640279165037</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>26.79964479421221</v>
+        <v>27.97847144440949</v>
       </c>
       <c r="H20">
-        <v>8.755318178904648</v>
+        <v>13.79723871339116</v>
       </c>
       <c r="I20">
-        <v>12.91763451030386</v>
+        <v>21.19825235044139</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.603516468828552</v>
+        <v>9.989554424380973</v>
       </c>
       <c r="M20">
-        <v>13.5152729480276</v>
+        <v>14.47281835414375</v>
       </c>
       <c r="N20">
-        <v>11.52683301623284</v>
+        <v>17.50277485360188</v>
       </c>
       <c r="O20">
-        <v>15.34658258657775</v>
+        <v>20.95414205539116</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.38097664980864</v>
+        <v>15.88653055408107</v>
       </c>
       <c r="C21">
-        <v>14.68501174317741</v>
+        <v>11.58080235032315</v>
       </c>
       <c r="D21">
-        <v>9.279727276500829</v>
+        <v>6.566515680525859</v>
       </c>
       <c r="E21">
-        <v>6.973702415424324</v>
+        <v>12.31184234025558</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>28.0791579365106</v>
+        <v>28.14330622019209</v>
       </c>
       <c r="H21">
-        <v>8.853390992090938</v>
+        <v>13.76644533863373</v>
       </c>
       <c r="I21">
-        <v>12.90146738773829</v>
+        <v>21.1079435989052</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.744266499241477</v>
+        <v>9.990895049639159</v>
       </c>
       <c r="M21">
-        <v>14.30020800994895</v>
+        <v>14.61765028118721</v>
       </c>
       <c r="N21">
-        <v>11.3671823088929</v>
+        <v>17.45048783026104</v>
       </c>
       <c r="O21">
-        <v>15.7666023331434</v>
+        <v>20.94347405950227</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.25718716295083</v>
+        <v>16.25988095788628</v>
       </c>
       <c r="C22">
-        <v>15.072328016624</v>
+        <v>11.74129669991432</v>
       </c>
       <c r="D22">
-        <v>9.629581939903334</v>
+        <v>6.67495137678344</v>
       </c>
       <c r="E22">
-        <v>6.900019319012136</v>
+        <v>12.2838767682091</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>28.91661333937711</v>
+        <v>28.25922934235178</v>
       </c>
       <c r="H22">
-        <v>8.92446713382131</v>
+        <v>13.74856823858499</v>
       </c>
       <c r="I22">
-        <v>12.90660000846103</v>
+        <v>21.05290016705071</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.837802363516531</v>
+        <v>9.992978094671161</v>
       </c>
       <c r="M22">
-        <v>14.79257335346709</v>
+        <v>14.71308762242976</v>
       </c>
       <c r="N22">
-        <v>11.26611324824263</v>
+        <v>17.41780555334756</v>
       </c>
       <c r="O22">
-        <v>16.05148465776215</v>
+        <v>20.94113012874129</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.79308157957797</v>
+        <v>16.06163324469687</v>
       </c>
       <c r="C23">
-        <v>14.86680211857367</v>
+        <v>11.65600077327597</v>
       </c>
       <c r="D23">
-        <v>9.444129546175411</v>
+        <v>6.61717711704584</v>
       </c>
       <c r="E23">
-        <v>6.939148801177991</v>
+        <v>12.29869686434377</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>28.46958870342874</v>
+        <v>28.19661849220446</v>
       </c>
       <c r="H23">
-        <v>8.885881083367678</v>
+        <v>13.75790371786843</v>
       </c>
       <c r="I23">
-        <v>12.90236826011509</v>
+        <v>21.0819131683224</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.787743826911576</v>
+        <v>9.991756253504057</v>
       </c>
       <c r="M23">
-        <v>14.5316675819111</v>
+        <v>14.66208686638851</v>
       </c>
       <c r="N23">
-        <v>11.31975066605748</v>
+        <v>17.43511255495363</v>
       </c>
       <c r="O23">
-        <v>15.89849404435722</v>
+        <v>20.9419575834522</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.9570975783509</v>
+        <v>15.28902845727254</v>
       </c>
       <c r="C24">
-        <v>14.06241858504108</v>
+        <v>11.32516195199918</v>
       </c>
       <c r="D24">
-        <v>8.713608519564724</v>
+        <v>6.396396149270762</v>
       </c>
       <c r="E24">
-        <v>7.091648301418203</v>
+        <v>12.35715069844929</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>26.77876526993633</v>
+        <v>27.97591761883275</v>
       </c>
       <c r="H24">
-        <v>8.753830169881633</v>
+        <v>13.7977799308576</v>
       </c>
       <c r="I24">
-        <v>12.91815132373102</v>
+        <v>21.19979541574752</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.601243229849445</v>
+        <v>9.989552962002056</v>
       </c>
       <c r="M24">
-        <v>13.5020932908224</v>
+        <v>14.47046599922705</v>
       </c>
       <c r="N24">
-        <v>11.52949646937838</v>
+        <v>17.50365466709275</v>
       </c>
       <c r="O24">
-        <v>15.33989400223076</v>
+        <v>20.95439452222737</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.80708884863872</v>
+        <v>14.41305828772298</v>
       </c>
       <c r="C25">
-        <v>13.140838847395</v>
+        <v>10.95285076899542</v>
       </c>
       <c r="D25">
-        <v>7.864165821568839</v>
+        <v>6.155537603762181</v>
       </c>
       <c r="E25">
-        <v>7.265256628227286</v>
+        <v>12.42519512820423</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>24.96655788140501</v>
+        <v>27.77388237179303</v>
       </c>
       <c r="H25">
-        <v>8.640017290646005</v>
+        <v>13.85042685484618</v>
       </c>
       <c r="I25">
-        <v>12.99696939385291</v>
+        <v>21.34396398243099</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.407230607954789</v>
+        <v>9.992390302774156</v>
       </c>
       <c r="M25">
-        <v>12.30212981866748</v>
+        <v>14.26787263355308</v>
       </c>
       <c r="N25">
-        <v>11.76928518157855</v>
+        <v>17.58400979669399</v>
       </c>
       <c r="O25">
-        <v>14.78243048490651</v>
+        <v>20.98765820176654</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_1/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_1/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.73601491863699</v>
+        <v>25.38208947890488</v>
       </c>
       <c r="C2">
-        <v>10.66670083838895</v>
+        <v>18.80632325271145</v>
       </c>
       <c r="D2">
-        <v>5.977444122007769</v>
+        <v>7.290548318488434</v>
       </c>
       <c r="E2">
-        <v>12.47962550562971</v>
+        <v>30.15287844083839</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>27.65683162255755</v>
+        <v>2.040721210584803</v>
       </c>
       <c r="H2">
-        <v>13.89745610560035</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>21.46468702686644</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.998992387164492</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>14.12300526268736</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>17.64873399393152</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>21.02916406240776</v>
+        <v>16.6720953282736</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.25997561723036</v>
+        <v>23.66502702777684</v>
       </c>
       <c r="C3">
-        <v>10.46598940404726</v>
+        <v>17.61559310514028</v>
       </c>
       <c r="D3">
-        <v>5.857140931170137</v>
+        <v>6.773575465857634</v>
       </c>
       <c r="E3">
-        <v>12.51923234144846</v>
+        <v>27.91029567760997</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>27.59755330861018</v>
+        <v>2.049597483861757</v>
       </c>
       <c r="H3">
-        <v>13.93447248047569</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>21.5555621622159</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.00629420462095</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>14.02789378208334</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>17.69608465666053</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>21.06786359910546</v>
+        <v>16.09743737345097</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.96030291970072</v>
+        <v>22.55294626339593</v>
       </c>
       <c r="C4">
-        <v>10.33966492999481</v>
+        <v>16.84655279793227</v>
       </c>
       <c r="D4">
-        <v>5.783770203523147</v>
+        <v>6.4398356125467</v>
       </c>
       <c r="E4">
-        <v>12.54489812231173</v>
+        <v>26.47426341036575</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>27.5711067009284</v>
+        <v>2.055158036731342</v>
       </c>
       <c r="H4">
-        <v>13.95973375719857</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>21.61581865088586</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.01217586479951</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>13.97113265224161</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>17.72688411377214</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>21.09682146171697</v>
+        <v>15.76992106887339</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.83651223581193</v>
+        <v>22.08507636027243</v>
       </c>
       <c r="C5">
-        <v>10.28745213611728</v>
+        <v>16.52359334563287</v>
       </c>
       <c r="D5">
-        <v>5.754042536225199</v>
+        <v>6.299669234467088</v>
       </c>
       <c r="E5">
-        <v>12.55569667508282</v>
+        <v>25.87372838726099</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>27.5628384596183</v>
+        <v>2.057454095865623</v>
       </c>
       <c r="H5">
-        <v>13.97066422373562</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>21.64149329060131</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.01492484911594</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>13.94843253508186</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>17.73987001921327</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>21.10992577034045</v>
+        <v>15.6427486195952</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.81586166113606</v>
+        <v>22.00649554700276</v>
       </c>
       <c r="C6">
-        <v>10.27873913011507</v>
+        <v>16.46938777389121</v>
       </c>
       <c r="D6">
-        <v>5.749118015476327</v>
+        <v>6.276141435347377</v>
       </c>
       <c r="E6">
-        <v>12.55751029798247</v>
+        <v>25.77307009307031</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>27.56161719526983</v>
+        <v>2.057837235789201</v>
       </c>
       <c r="H6">
-        <v>13.97251762924455</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>21.64582412236453</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.01540259986734</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>13.94468973267796</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>17.74205261023456</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>21.1121803814882</v>
+        <v>15.62200918668207</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.95863994684603</v>
+        <v>22.54669607204914</v>
       </c>
       <c r="C7">
-        <v>10.33896368775091</v>
+        <v>16.84223602360598</v>
       </c>
       <c r="D7">
-        <v>5.783368529179629</v>
+        <v>6.437962221738813</v>
       </c>
       <c r="E7">
-        <v>12.54504237949619</v>
+        <v>26.4662271085332</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>27.57098502725337</v>
+        <v>2.055188877450422</v>
       </c>
       <c r="H7">
-        <v>13.95987859390415</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>21.61616037678285</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.01221151201686</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>13.97082474322691</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>17.72705748427428</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>21.09699291632008</v>
+        <v>15.76818061126876</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.5735144208981</v>
+        <v>24.80194498168478</v>
       </c>
       <c r="C8">
-        <v>10.59816062611575</v>
+        <v>18.40360400615336</v>
       </c>
       <c r="D8">
-        <v>5.935888536381806</v>
+        <v>7.115644224982733</v>
       </c>
       <c r="E8">
-        <v>12.49300286138005</v>
+        <v>29.39159199413567</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>27.63433231491215</v>
+        <v>2.043760270950995</v>
       </c>
       <c r="H8">
-        <v>13.90969322347473</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>21.49509441061269</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.00122017913682</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>14.08988232077053</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>17.66470280141353</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>21.04142758232453</v>
+        <v>16.46865685271722</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.71344706668401</v>
+        <v>28.77359875650265</v>
       </c>
       <c r="C9">
-        <v>11.08022090162224</v>
+        <v>21.16728653397068</v>
       </c>
       <c r="D9">
-        <v>6.236897990123045</v>
+        <v>8.318105247906441</v>
       </c>
       <c r="E9">
-        <v>12.40160408543471</v>
+        <v>34.68387114183169</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>27.83705591997076</v>
+        <v>2.022109545391571</v>
       </c>
       <c r="H9">
-        <v>13.83140723149882</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>21.29313286167088</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.990735301509906</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>14.33550007849351</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>17.55608094381513</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>20.9738056956536</v>
+        <v>18.04613355904361</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.50227118787785</v>
+        <v>31.42864080315425</v>
       </c>
       <c r="C10">
-        <v>11.41623060142122</v>
+        <v>23.02164211896523</v>
       </c>
       <c r="D10">
-        <v>6.456604875523861</v>
+        <v>9.128983367323849</v>
       </c>
       <c r="E10">
-        <v>12.34089368905028</v>
+        <v>38.33993885867379</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>28.03302525697008</v>
+        <v>2.006483769098262</v>
       </c>
       <c r="H10">
-        <v>13.78619758394184</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>21.16645762823542</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.98974216182431</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>14.52219042227895</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>17.4845470207644</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>20.94945508406273</v>
+        <v>19.38313180681194</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.84906366865787</v>
+        <v>32.58241064523567</v>
       </c>
       <c r="C11">
-        <v>11.56472890148346</v>
+        <v>23.82871763284324</v>
       </c>
       <c r="D11">
-        <v>6.555721499343282</v>
+        <v>9.483239432255642</v>
       </c>
       <c r="E11">
-        <v>12.31466226952868</v>
+        <v>39.96304800479616</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>28.13214460899416</v>
+        <v>1.999388407690177</v>
       </c>
       <c r="H11">
-        <v>13.7683097263319</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>21.11356381005023</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.990737725780589</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>14.60821743240595</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>17.45378902296575</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>20.94389560347884</v>
+        <v>20.23065877693886</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.97854740328699</v>
+        <v>33.0118289138299</v>
       </c>
       <c r="C12">
-        <v>11.62030308300346</v>
+        <v>24.12926718002285</v>
       </c>
       <c r="D12">
-        <v>6.593094657066405</v>
+        <v>9.615390303184492</v>
       </c>
       <c r="E12">
-        <v>12.30492759865453</v>
+        <v>40.57294121621193</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>28.17108715402028</v>
+        <v>1.996698756219669</v>
       </c>
       <c r="H12">
-        <v>13.76192164784656</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>21.09421647902836</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.991321867151779</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>14.64092983399587</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>17.44239737127993</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>20.94258439618514</v>
+        <v>20.5517832966495</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.95074411568284</v>
+        <v>32.91967427716638</v>
       </c>
       <c r="C13">
-        <v>11.60836399211865</v>
+        <v>24.06476096117791</v>
       </c>
       <c r="D13">
-        <v>6.585053428613313</v>
+        <v>9.587016336489338</v>
       </c>
       <c r="E13">
-        <v>12.30701531274828</v>
+        <v>40.44178271345157</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>28.16263799147679</v>
+        <v>1.997278226483743</v>
       </c>
       <c r="H13">
-        <v>13.76328027447082</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>21.09835288999104</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.99118686572219</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>14.633878949957</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>17.44483940403563</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>20.94283146866831</v>
+        <v>20.48260960545554</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.85975379502254</v>
+        <v>32.61788751935165</v>
       </c>
       <c r="C14">
-        <v>11.56931440817779</v>
+        <v>23.85354458046966</v>
       </c>
       <c r="D14">
-        <v>6.558799647409029</v>
+        <v>9.494150973522638</v>
       </c>
       <c r="E14">
-        <v>12.31385741614199</v>
+        <v>40.01331291032536</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>28.13532037119311</v>
+        <v>1.999167213506328</v>
       </c>
       <c r="H14">
-        <v>13.7677764431375</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>21.11195840525431</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.990781637938113</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>14.61090610786661</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>17.45284670344473</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>20.94377181419127</v>
+        <v>20.25707221227363</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.8037771569861</v>
+        <v>32.43206795689416</v>
       </c>
       <c r="C15">
-        <v>11.54530866662448</v>
+        <v>23.72351354047711</v>
       </c>
       <c r="D15">
-        <v>6.542696416418262</v>
+        <v>9.437011315723501</v>
       </c>
       <c r="E15">
-        <v>12.31807424439591</v>
+        <v>39.75027817223788</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>28.11877011427123</v>
+        <v>2.000323759262423</v>
       </c>
       <c r="H15">
-        <v>13.77058071600617</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>21.12038110683234</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.99056036964082</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>14.59685160119167</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>17.45778468990452</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>20.94445122030252</v>
+        <v>20.11895815313152</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.47935563843952</v>
+        <v>31.35217524552264</v>
       </c>
       <c r="C16">
-        <v>11.4064354192036</v>
+        <v>22.96817789128265</v>
       </c>
       <c r="D16">
-        <v>6.450107135190272</v>
+        <v>9.105546365183656</v>
       </c>
       <c r="E16">
-        <v>12.34263580360207</v>
+        <v>38.2331420427024</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>28.02674610119033</v>
+        <v>2.006947345261661</v>
       </c>
       <c r="H16">
-        <v>13.78742053802926</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>21.17000974568482</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.989706141611665</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>14.51658858836146</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>17.48659295113418</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>20.9499295037415</v>
+        <v>19.32775215058057</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.27716776367006</v>
+        <v>30.67604773568779</v>
       </c>
       <c r="C17">
-        <v>11.3201019529318</v>
+        <v>22.49557440759523</v>
       </c>
       <c r="D17">
-        <v>6.393064397676985</v>
+        <v>8.898529764598281</v>
       </c>
       <c r="E17">
-        <v>12.3580580136221</v>
+        <v>37.29284224954137</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>27.97282902399355</v>
+        <v>2.011010904352554</v>
       </c>
       <c r="H17">
-        <v>13.79843758868063</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>21.20166858059095</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.989552128681417</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>14.46761581933734</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>17.50472210237986</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>20.95470407355676</v>
+        <v>18.95061688189403</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.15974616364716</v>
+        <v>30.28205370344389</v>
       </c>
       <c r="C18">
-        <v>11.2700372093828</v>
+        <v>22.22029957978342</v>
       </c>
       <c r="D18">
-        <v>6.360179187158925</v>
+        <v>8.778076667268367</v>
       </c>
       <c r="E18">
-        <v>12.3670589640559</v>
+        <v>36.7481669173745</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>27.94275768667187</v>
+        <v>2.013349683453546</v>
       </c>
       <c r="H18">
-        <v>13.80502636534276</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>21.22032312247912</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.989599840194067</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>14.43955292936968</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>17.5153173878324</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>20.95796963200592</v>
+        <v>18.75562669073268</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.11979887663284</v>
+        <v>30.14776962798898</v>
       </c>
       <c r="C19">
-        <v>11.25301710452296</v>
+        <v>22.12649963971948</v>
       </c>
       <c r="D19">
-        <v>6.349033096938827</v>
+        <v>8.737052885875904</v>
       </c>
       <c r="E19">
-        <v>12.37012896712449</v>
+        <v>36.5630613721426</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>27.9327382885803</v>
+        <v>2.014141946863782</v>
       </c>
       <c r="H19">
-        <v>13.80730048605237</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>21.22671563418764</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.989639431951952</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>14.43007002352089</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>17.51893362352448</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>20.95916446624789</v>
+        <v>18.69007744949545</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.29880861600074</v>
+        <v>30.7485489296835</v>
       </c>
       <c r="C20">
-        <v>11.32933477038224</v>
+        <v>22.54623932332024</v>
       </c>
       <c r="D20">
-        <v>6.399144836769604</v>
+        <v>8.920709418952457</v>
       </c>
       <c r="E20">
-        <v>12.35640279165037</v>
+        <v>37.39332932621559</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>27.97847144440949</v>
+        <v>2.010578204958402</v>
       </c>
       <c r="H20">
-        <v>13.79723871339116</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>21.19825235044139</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.989554424380973</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>14.47281835414375</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>17.50277485360188</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>20.95414205539116</v>
+        <v>18.9869300479257</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.88653055408107</v>
+        <v>32.70673046658087</v>
       </c>
       <c r="C21">
-        <v>11.58080235032315</v>
+        <v>23.91572007990514</v>
       </c>
       <c r="D21">
-        <v>6.566515680525859</v>
+        <v>9.521481125382952</v>
       </c>
       <c r="E21">
-        <v>12.31184234025558</v>
+        <v>40.13928464914818</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>28.14330622019209</v>
+        <v>1.998612488506381</v>
       </c>
       <c r="H21">
-        <v>13.76644533863373</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>21.1079435989052</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.990895049639159</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>14.61765028118721</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>17.45048783026104</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>20.94347405950227</v>
+        <v>20.32331025600222</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.25988095788628</v>
+        <v>33.94301771731505</v>
       </c>
       <c r="C22">
-        <v>11.74129669991432</v>
+        <v>24.78129247521845</v>
       </c>
       <c r="D22">
-        <v>6.67495137678344</v>
+        <v>9.902530520490611</v>
       </c>
       <c r="E22">
-        <v>12.2838767682091</v>
+        <v>41.90688215583507</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>28.25922934235178</v>
+        <v>1.990773237664623</v>
       </c>
       <c r="H22">
-        <v>13.74856823858499</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>21.05290016705071</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.992978094671161</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>14.71308762242976</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>17.41780555334756</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>20.94113012874129</v>
+        <v>21.25869827452235</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.06163324469687</v>
+        <v>33.28706633652786</v>
       </c>
       <c r="C23">
-        <v>11.65600077327597</v>
+        <v>24.32195042112881</v>
       </c>
       <c r="D23">
-        <v>6.61717711704584</v>
+        <v>9.70018015679214</v>
       </c>
       <c r="E23">
-        <v>12.29869686434377</v>
+        <v>40.96557403127423</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>28.19661849220446</v>
+        <v>1.994960653370661</v>
       </c>
       <c r="H23">
-        <v>13.75790371786843</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>21.0819131683224</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.991756253504057</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>14.66208686638851</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>17.43511255495363</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>20.9419575834522</v>
+        <v>20.75922662664146</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.28902845727254</v>
+        <v>30.71578760437634</v>
       </c>
       <c r="C24">
-        <v>11.32516195199918</v>
+        <v>22.52334484356522</v>
       </c>
       <c r="D24">
-        <v>6.396396149270762</v>
+        <v>8.910686479237619</v>
       </c>
       <c r="E24">
-        <v>12.35715069844929</v>
+        <v>37.34791191512877</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>27.97591761883275</v>
+        <v>2.010773819962644</v>
       </c>
       <c r="H24">
-        <v>13.7977799308576</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>21.19979541574752</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.989552962002056</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>14.47046599922705</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>17.50365466709275</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>20.95439452222737</v>
+        <v>18.97050452757383</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.41305828772298</v>
+        <v>27.74627163044037</v>
       </c>
       <c r="C25">
-        <v>10.95285076899542</v>
+        <v>20.45106401469267</v>
       </c>
       <c r="D25">
-        <v>6.155537603762181</v>
+        <v>8.005903404606126</v>
       </c>
       <c r="E25">
-        <v>12.42519512820423</v>
+        <v>33.29604581122021</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>27.77388237179303</v>
+        <v>2.027902727237034</v>
       </c>
       <c r="H25">
-        <v>13.85042685484618</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>21.34396398243099</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.992390302774156</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>14.26787263355308</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>17.58400979669399</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>20.98765820176654</v>
+        <v>17.59713640791889</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_1/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_1/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,34 +415,40 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.38208947890488</v>
+        <v>24.46292630714852</v>
       </c>
       <c r="C2">
-        <v>18.80632325271145</v>
+        <v>18.89699789604578</v>
       </c>
       <c r="D2">
-        <v>7.290548318488434</v>
+        <v>7.171401745091684</v>
       </c>
       <c r="E2">
-        <v>30.15287844083839</v>
+        <v>29.14883178299275</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.040721210584803</v>
+        <v>2.07333962946678</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>3.117916045888993</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.078024169146623</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -460,36 +466,42 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>16.6720953282736</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>18.24709438119277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.66502702777684</v>
+        <v>22.83994395951069</v>
       </c>
       <c r="C3">
-        <v>17.61559310514028</v>
+        <v>17.74351541351962</v>
       </c>
       <c r="D3">
-        <v>6.773575465857634</v>
+        <v>6.67375983682823</v>
       </c>
       <c r="E3">
-        <v>27.91029567760997</v>
+        <v>27.21992337864157</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.049597483861757</v>
+        <v>2.079191564016929</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.836422433677704</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.849172163516276</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -507,36 +519,42 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>16.09743737345097</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>17.74519587534337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.55294626339593</v>
+        <v>21.78386351698823</v>
       </c>
       <c r="C4">
-        <v>16.84655279793227</v>
+        <v>17.00306022775515</v>
       </c>
       <c r="D4">
-        <v>6.4398356125467</v>
+        <v>6.351269465980063</v>
       </c>
       <c r="E4">
-        <v>26.47426341036575</v>
+        <v>25.97006093646953</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.055158036731342</v>
+        <v>2.082885124810285</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.658068073862267</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.705437727640331</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -554,36 +572,42 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15.76992106887339</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>17.43881980757267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.08507636027243</v>
+        <v>21.33823227521352</v>
       </c>
       <c r="C5">
-        <v>16.52359334563287</v>
+        <v>16.70920078914408</v>
       </c>
       <c r="D5">
-        <v>6.299669234467088</v>
+        <v>6.219406939647969</v>
       </c>
       <c r="E5">
-        <v>25.87372838726099</v>
+        <v>25.44386509554195</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.057454095865623</v>
+        <v>2.084424831484577</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.583766853623442</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.646543087774031</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -601,36 +625,42 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>15.6427486195952</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>17.29927869223101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.00649554700276</v>
+        <v>21.26306108347954</v>
       </c>
       <c r="C6">
-        <v>16.46938777389121</v>
+        <v>16.67941894030965</v>
       </c>
       <c r="D6">
-        <v>6.276141435347377</v>
+        <v>6.200016273343929</v>
       </c>
       <c r="E6">
-        <v>25.77307009307031</v>
+        <v>25.35510664747364</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.057837235789201</v>
+        <v>2.084692456847843</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.571100075244397</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.637546862487593</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -648,36 +678,42 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>15.62200918668207</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>17.25752537730386</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.54669607204914</v>
+        <v>21.77720934598569</v>
       </c>
       <c r="C7">
-        <v>16.84223602360598</v>
+        <v>17.0512390098225</v>
       </c>
       <c r="D7">
-        <v>6.437962221738813</v>
+        <v>6.349368694163031</v>
       </c>
       <c r="E7">
-        <v>26.4662271085332</v>
+        <v>25.96200724157499</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.055188877450422</v>
+        <v>2.082933600040907</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.65642074116166</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.706495202457873</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -695,36 +731,42 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>15.76818061126876</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>17.38654323465399</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.80194498168478</v>
+        <v>23.91475794785805</v>
       </c>
       <c r="C8">
-        <v>18.40360400615336</v>
+        <v>18.57013631689834</v>
       </c>
       <c r="D8">
-        <v>7.115644224982733</v>
+        <v>7.003185836426347</v>
       </c>
       <c r="E8">
-        <v>29.39159199413567</v>
+        <v>28.49601075291111</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.043760270950995</v>
+        <v>2.075371690766244</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>3.02116568231494</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.001456095152273</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -742,36 +784,42 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>16.46865685271722</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>18.00926780137992</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.77359875650265</v>
+        <v>27.63872934554203</v>
       </c>
       <c r="C9">
-        <v>21.16728653397068</v>
+        <v>21.20823741394084</v>
       </c>
       <c r="D9">
-        <v>8.318105247906441</v>
+        <v>8.152847446917766</v>
       </c>
       <c r="E9">
-        <v>34.68387114183169</v>
+        <v>32.95147110948562</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.022109545391571</v>
+        <v>2.06125623692083</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>3.695385720470106</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.554045888935708</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -789,36 +837,42 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>18.04613355904361</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>19.32751093831113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.42864080315425</v>
+        <v>30.08872485141643</v>
       </c>
       <c r="C10">
-        <v>23.02164211896523</v>
+        <v>23.00010264714325</v>
       </c>
       <c r="D10">
-        <v>9.128983367323849</v>
+        <v>8.917750377196473</v>
       </c>
       <c r="E10">
-        <v>38.33993885867379</v>
+        <v>35.03646330801931</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.006483769098262</v>
+        <v>2.051598387207084</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>4.128242123332592</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.93790457072418</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -836,36 +890,42 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>19.38313180681194</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>20.06580119473863</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.58241064523567</v>
+        <v>31.10048171091787</v>
       </c>
       <c r="C11">
-        <v>23.82871763284324</v>
+        <v>23.75703352180395</v>
       </c>
       <c r="D11">
-        <v>9.483239432255642</v>
+        <v>9.237876338088819</v>
       </c>
       <c r="E11">
-        <v>39.96304800479616</v>
+        <v>28.4486128954523</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.999388407690177</v>
+        <v>2.049659633807174</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>4.496135585019219</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>4.032049582675228</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -883,36 +943,42 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>20.23065877693886</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>18.5199530720283</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.0118289138299</v>
+        <v>31.46113236288211</v>
       </c>
       <c r="C12">
-        <v>24.12926718002285</v>
+        <v>23.97530180258628</v>
       </c>
       <c r="D12">
-        <v>9.615390303184492</v>
+        <v>9.352745217663353</v>
       </c>
       <c r="E12">
-        <v>40.57294121621193</v>
+        <v>22.49800092346557</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.996698756219669</v>
+        <v>2.049724220782633</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>5.302163226731279</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>4.038467677042033</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -930,36 +996,42 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>20.5517832966495</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>17.11277427944507</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.91967427716638</v>
+        <v>31.35466063464835</v>
       </c>
       <c r="C13">
-        <v>24.06476096117791</v>
+        <v>23.86149282393163</v>
       </c>
       <c r="D13">
-        <v>9.587016336489338</v>
+        <v>9.320188813591983</v>
       </c>
       <c r="E13">
-        <v>40.44178271345157</v>
+        <v>16.56310161362051</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.997278226483743</v>
+        <v>2.051365769174462</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>6.317728984374356</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.979873568238724</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -977,36 +1049,42 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>20.48260960545554</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>15.63412677740119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.61788751935165</v>
+        <v>31.06815437475379</v>
       </c>
       <c r="C14">
-        <v>23.85354458046966</v>
+        <v>23.64372433656073</v>
       </c>
       <c r="D14">
-        <v>9.494150973522638</v>
+        <v>9.230612048821721</v>
       </c>
       <c r="E14">
-        <v>40.01331291032536</v>
+        <v>12.47452485418829</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.999167213506328</v>
+        <v>2.053198419658707</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>7.113124819939758</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.911245168130808</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1024,36 +1102,42 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>20.25707221227363</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>14.54976317536127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.43206795689416</v>
+        <v>30.89671262648975</v>
       </c>
       <c r="C15">
-        <v>23.72351354047711</v>
+        <v>23.53432490604464</v>
       </c>
       <c r="D15">
-        <v>9.437011315723501</v>
+        <v>9.176874170981923</v>
       </c>
       <c r="E15">
-        <v>39.75027817223788</v>
+        <v>11.48676480888394</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.000323759262423</v>
+        <v>2.054025382061608</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>7.295430768928355</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.880343363681348</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1071,36 +1155,42 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>20.11895815313152</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>14.25574320816903</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.35217524552264</v>
+        <v>29.91491546860326</v>
       </c>
       <c r="C16">
-        <v>22.96817789128265</v>
+        <v>22.8455622040809</v>
       </c>
       <c r="D16">
-        <v>9.105546365183656</v>
+        <v>8.868949322270886</v>
       </c>
       <c r="E16">
-        <v>38.2331420427024</v>
+        <v>11.3119336879149</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.006947345261661</v>
+        <v>2.057784129828858</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>7.007537467995535</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.731126056603214</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1118,36 +1208,42 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>19.32775215058057</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>14.15859373800325</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.67604773568779</v>
+        <v>29.30381131141779</v>
       </c>
       <c r="C17">
-        <v>22.49557440759523</v>
+        <v>22.42833852179358</v>
       </c>
       <c r="D17">
-        <v>8.898529764598281</v>
+        <v>8.677498781340381</v>
       </c>
       <c r="E17">
-        <v>37.29284224954137</v>
+        <v>13.39918030100123</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.011010904352554</v>
+        <v>2.059726120998349</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>6.310778786467217</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.652297513878179</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1165,36 +1261,42 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>18.95061688189403</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>14.67091514957058</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.28205370344389</v>
+        <v>28.95853618611775</v>
       </c>
       <c r="C18">
-        <v>22.22029957978342</v>
+        <v>22.17307409356726</v>
       </c>
       <c r="D18">
-        <v>8.778076667268367</v>
+        <v>8.568780160373137</v>
       </c>
       <c r="E18">
-        <v>36.7481669173745</v>
+        <v>17.96953379334497</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.013349683453546</v>
+        <v>2.06016019333027</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>5.269627560738255</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.627323536352864</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1212,36 +1314,42 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>18.75562669073268</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>15.80152295421314</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.14776962798898</v>
+        <v>28.8600044156729</v>
       </c>
       <c r="C19">
-        <v>22.12649963971948</v>
+        <v>22.15708161533562</v>
       </c>
       <c r="D19">
-        <v>8.737052885875904</v>
+        <v>8.536600123578127</v>
       </c>
       <c r="E19">
-        <v>36.5630613721426</v>
+        <v>24.26567657739218</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.014141946863782</v>
+        <v>2.059173954332831</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>4.287378393464564</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.659909816288889</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1259,36 +1367,42 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>18.69007744949545</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>17.26722148500747</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.7485489296835</v>
+        <v>29.46202403993336</v>
       </c>
       <c r="C20">
-        <v>22.54623932332024</v>
+        <v>22.66792729158188</v>
       </c>
       <c r="D20">
-        <v>8.920709418952457</v>
+        <v>8.721716349729293</v>
       </c>
       <c r="E20">
-        <v>37.39332932621559</v>
+        <v>34.45837945924719</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.010578204958402</v>
+        <v>2.054192750152489</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>4.011724603069078</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.842600891627849</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1306,36 +1420,42 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>18.9869300479257</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>19.72416384284029</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.70673046658087</v>
+        <v>31.26348911638442</v>
       </c>
       <c r="C21">
-        <v>23.91572007990514</v>
+        <v>23.97662116561174</v>
       </c>
       <c r="D21">
-        <v>9.521481125382952</v>
+        <v>9.286735070701999</v>
       </c>
       <c r="E21">
-        <v>40.13928464914818</v>
+        <v>37.33747205733759</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.998612488506381</v>
+        <v>2.046419411602481</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>4.398960959570072</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>4.147939749903516</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1353,36 +1473,42 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>20.32331025600222</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>20.65298020938932</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.94301771731505</v>
+        <v>32.38962206351611</v>
       </c>
       <c r="C22">
-        <v>24.78129247521845</v>
+        <v>24.75008064270681</v>
       </c>
       <c r="D22">
-        <v>9.902530520490611</v>
+        <v>9.642012757600568</v>
       </c>
       <c r="E22">
-        <v>41.90688215583507</v>
+        <v>38.71064921162453</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.990773237664623</v>
+        <v>2.041516065056668</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>4.628798883839401</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>4.338982782126293</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1400,36 +1526,42 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>21.25869827452235</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>21.20491002555745</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.28706633652786</v>
+        <v>31.79373697220383</v>
       </c>
       <c r="C23">
-        <v>24.32195042112881</v>
+        <v>24.29410116769279</v>
       </c>
       <c r="D23">
-        <v>9.70018015679214</v>
+        <v>9.4537349107962</v>
       </c>
       <c r="E23">
-        <v>40.96557403127423</v>
+        <v>37.98358874188595</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.994960653370661</v>
+        <v>2.044102609774224</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>4.507043362959229</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>4.235298827237734</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1447,36 +1579,42 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>20.75922662664146</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>20.9601831962141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.71578760437634</v>
+        <v>29.43693827678609</v>
       </c>
       <c r="C24">
-        <v>22.52334484356522</v>
+        <v>22.5803199228251</v>
       </c>
       <c r="D24">
-        <v>8.910686479237619</v>
+        <v>8.713472002555948</v>
       </c>
       <c r="E24">
-        <v>37.34791191512877</v>
+        <v>35.12110194058251</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.010773819962644</v>
+        <v>2.054046750002974</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>4.038179154857045</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.841934490348142</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1494,36 +1632,42 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>18.97050452757383</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>19.95734931592853</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.74627163044037</v>
+        <v>26.67983385702391</v>
       </c>
       <c r="C25">
-        <v>20.45106401469267</v>
+        <v>20.60188520522305</v>
       </c>
       <c r="D25">
-        <v>8.005903404606126</v>
+        <v>7.855605411779876</v>
       </c>
       <c r="E25">
-        <v>33.29604581122021</v>
+        <v>31.79903333449962</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.027902727237034</v>
+        <v>2.065042956790101</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>3.51622204783677</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.409616052882697</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1541,7 +1685,13 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>17.59713640791889</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>18.88658508673164</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_1/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_1/res_line/loading_percent.xlsx
@@ -427,52 +427,52 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.46292630714852</v>
+        <v>12.6418872382502</v>
       </c>
       <c r="C2">
-        <v>18.89699789604578</v>
+        <v>7.550515247090581</v>
       </c>
       <c r="D2">
-        <v>7.171401745091684</v>
+        <v>9.196651262074539</v>
       </c>
       <c r="E2">
-        <v>29.14883178299275</v>
+        <v>8.529920378726141</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.07333962946678</v>
+        <v>28.53231848818765</v>
       </c>
       <c r="H2">
-        <v>3.117916045888993</v>
+        <v>3.815025087467563</v>
       </c>
       <c r="I2">
-        <v>3.078024169146623</v>
+        <v>4.174613640249334</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>10.85660010855635</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>18.03732410215194</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>5.178581259816352</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>10.78943904081905</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.980175742559138</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>9.942147643568457</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>18.24709438119277</v>
+        <v>18.23418749415439</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -480,52 +480,52 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.83994395951069</v>
+        <v>11.81908665622977</v>
       </c>
       <c r="C3">
-        <v>17.74351541351962</v>
+        <v>7.375013551771086</v>
       </c>
       <c r="D3">
-        <v>6.67375983682823</v>
+        <v>8.972593014629837</v>
       </c>
       <c r="E3">
-        <v>27.21992337864157</v>
+        <v>8.426141710796639</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.079191564016929</v>
+        <v>28.38478177013533</v>
       </c>
       <c r="H3">
-        <v>2.836422433677704</v>
+        <v>4.004989170040477</v>
       </c>
       <c r="I3">
-        <v>2.849172163516276</v>
+        <v>4.319562323080228</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>10.89634360340176</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>18.11119608732634</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>5.128766920057509</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.21746972702489</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.839524377271168</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>9.573821913362107</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>17.74519587534337</v>
+        <v>18.25072778369163</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -533,52 +533,52 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.78386351698823</v>
+        <v>11.28221299200566</v>
       </c>
       <c r="C4">
-        <v>17.00306022775515</v>
+        <v>7.265394929923607</v>
       </c>
       <c r="D4">
-        <v>6.351269465980063</v>
+        <v>8.834117203378895</v>
       </c>
       <c r="E4">
-        <v>25.97006093646953</v>
+        <v>8.361185501824071</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.082885124810285</v>
+        <v>28.30327505961845</v>
       </c>
       <c r="H4">
-        <v>2.658068073862267</v>
+        <v>4.126014747257729</v>
       </c>
       <c r="I4">
-        <v>2.705437727640331</v>
+        <v>4.41253811853605</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>10.92318979709612</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>18.15987599382233</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>5.097012207229019</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.849121198212211</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.752584327310363</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>9.341162813290261</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>17.43881980757267</v>
+        <v>18.2659004636978</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -586,52 +586,52 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.33823227521352</v>
+        <v>11.05323265618961</v>
       </c>
       <c r="C5">
-        <v>16.70920078914408</v>
+        <v>7.223888512388131</v>
       </c>
       <c r="D5">
-        <v>6.219406939647969</v>
+        <v>8.776546992799107</v>
       </c>
       <c r="E5">
-        <v>25.44386509554195</v>
+        <v>8.333137248759536</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.084424831484577</v>
+        <v>28.26031660785643</v>
       </c>
       <c r="H5">
-        <v>2.583766853623442</v>
+        <v>4.17675498880293</v>
       </c>
       <c r="I5">
-        <v>2.646543087774031</v>
+        <v>4.453759697188538</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>10.93266955237949</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>18.17534916118487</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>5.083612772269774</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.696300349836742</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.718044163694242</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>9.245030863368898</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>17.29927869223101</v>
+        <v>18.26827001095587</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -639,52 +639,52 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.26306108347954</v>
+        <v>11.01201833924873</v>
       </c>
       <c r="C6">
-        <v>16.67941894030965</v>
+        <v>7.221429507856349</v>
       </c>
       <c r="D6">
-        <v>6.200016273343929</v>
+        <v>8.765775812134624</v>
       </c>
       <c r="E6">
-        <v>25.35510664747364</v>
+        <v>8.326897912050804</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.084692456847843</v>
+        <v>28.23865937275691</v>
       </c>
       <c r="H6">
-        <v>2.571100075244397</v>
+        <v>4.185620174601489</v>
       </c>
       <c r="I6">
-        <v>2.637546862487593</v>
+        <v>4.463631218833973</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>10.93175595180688</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>18.1716324732997</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>5.081173687754142</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.672529403801629</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.713532491046627</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>9.22922064324184</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>17.25752537730386</v>
+        <v>18.26256725805512</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -692,52 +692,52 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.77720934598569</v>
+        <v>11.27193410345201</v>
       </c>
       <c r="C7">
-        <v>17.0512390098225</v>
+        <v>7.276974020029567</v>
       </c>
       <c r="D7">
-        <v>6.349368694163031</v>
+        <v>8.830085087272071</v>
       </c>
       <c r="E7">
-        <v>25.96200724157499</v>
+        <v>8.356570767675365</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.082933600040907</v>
+        <v>28.26278682390634</v>
       </c>
       <c r="H7">
-        <v>2.65642074116166</v>
+        <v>4.127691047437017</v>
       </c>
       <c r="I7">
-        <v>2.706495202457873</v>
+        <v>4.420927871392064</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>10.91644219663631</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>18.14281451834621</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>5.096312574252471</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.852072193068892</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.755456879895921</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>9.340512863990094</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17.38654323465399</v>
+        <v>18.24912087618343</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -745,52 +745,52 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.91475794785805</v>
+        <v>12.35592509503916</v>
       </c>
       <c r="C8">
-        <v>18.57013631689834</v>
+        <v>7.506305815825054</v>
       </c>
       <c r="D8">
-        <v>7.003185836426347</v>
+        <v>9.115469161468091</v>
       </c>
       <c r="E8">
-        <v>28.49601075291111</v>
+        <v>8.488948992704772</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.075371690766244</v>
+        <v>28.42744326575433</v>
       </c>
       <c r="H8">
-        <v>3.02116568231494</v>
+        <v>3.88085683949874</v>
       </c>
       <c r="I8">
-        <v>3.001456095152273</v>
+        <v>4.233656161259419</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>10.8607860435437</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>18.03943045281904</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>5.161021318787557</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>10.60208819564147</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.936140630354013</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>9.817343712660863</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>18.00926780137992</v>
+        <v>18.2168086309125</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -798,52 +798,52 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.63872934554203</v>
+        <v>14.24288854712524</v>
       </c>
       <c r="C9">
-        <v>21.20823741394084</v>
+        <v>7.919585756963221</v>
       </c>
       <c r="D9">
-        <v>8.152847446917766</v>
+        <v>9.670510079411274</v>
       </c>
       <c r="E9">
-        <v>32.95147110948562</v>
+        <v>8.745529405594363</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.06125623692083</v>
+        <v>28.89419583438776</v>
       </c>
       <c r="H9">
-        <v>3.695385720470106</v>
+        <v>3.429382183765027</v>
       </c>
       <c r="I9">
-        <v>3.554045888935708</v>
+        <v>3.884789214595489</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>10.7836504742156</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>17.89431521970273</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>5.279657830759379</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>11.92575878924143</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.278777321252317</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>10.69525557476056</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>19.32751093831113</v>
+        <v>18.22424299675823</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -851,52 +851,52 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.08872485141643</v>
+        <v>15.47117543229558</v>
       </c>
       <c r="C10">
-        <v>23.00010264714325</v>
+        <v>8.24234394314489</v>
       </c>
       <c r="D10">
-        <v>8.917750377196473</v>
+        <v>10.00780728940762</v>
       </c>
       <c r="E10">
-        <v>35.03646330801931</v>
+        <v>8.852283908987278</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.051598387207084</v>
+        <v>29.08205039399327</v>
       </c>
       <c r="H10">
-        <v>4.128242123332592</v>
+        <v>3.142015248544386</v>
       </c>
       <c r="I10">
-        <v>3.93790457072418</v>
+        <v>3.656167596861485</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>10.70464926823242</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>17.726954034248</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>5.361592919293728</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>12.8253325000489</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>7.462035506499398</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>11.25301579246708</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>20.06580119473863</v>
+        <v>18.17034293357931</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -904,52 +904,52 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.10048171091787</v>
+        <v>15.95317490017683</v>
       </c>
       <c r="C11">
-        <v>23.75703352180395</v>
+        <v>8.621516710322583</v>
       </c>
       <c r="D11">
-        <v>9.237876338088819</v>
+        <v>9.644003357842919</v>
       </c>
       <c r="E11">
-        <v>28.4486128954523</v>
+        <v>8.316764458530132</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.049659633807174</v>
+        <v>27.543023824935</v>
       </c>
       <c r="H11">
-        <v>4.496135585019219</v>
+        <v>3.79088934009719</v>
       </c>
       <c r="I11">
-        <v>4.032049582675228</v>
+        <v>3.60839852740546</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>10.38817074226917</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>17.03812427305824</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>5.438841881824506</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>13.32892122760648</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>7.002858851329234</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>11.08244102754166</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>18.5199530720283</v>
+        <v>17.45539881363751</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -957,52 +957,52 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.46113236288211</v>
+        <v>16.11998776710729</v>
       </c>
       <c r="C12">
-        <v>23.97530180258628</v>
+        <v>8.877617227423212</v>
       </c>
       <c r="D12">
-        <v>9.352745217663353</v>
+        <v>9.265973718248663</v>
       </c>
       <c r="E12">
-        <v>22.49800092346557</v>
+        <v>7.926481420988704</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.049724220782633</v>
+        <v>26.26170214195264</v>
       </c>
       <c r="H12">
-        <v>5.302163226731279</v>
+        <v>4.89896689189094</v>
       </c>
       <c r="I12">
-        <v>4.038467677042033</v>
+        <v>3.598237719573639</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>10.14993785938795</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>16.53524767417979</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>5.538316324653111</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>13.5672769359442</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.589826774648065</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>10.81528848251601</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>17.11277427944507</v>
+        <v>16.89162947527619</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1010,52 +1010,52 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.35466063464835</v>
+        <v>16.05182330694584</v>
       </c>
       <c r="C13">
-        <v>23.86149282393163</v>
+        <v>9.072235442227736</v>
       </c>
       <c r="D13">
-        <v>9.320188813591983</v>
+        <v>8.844534265045215</v>
       </c>
       <c r="E13">
-        <v>16.56310161362051</v>
+        <v>7.628412951513666</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.051365769174462</v>
+        <v>25.0407227900863</v>
       </c>
       <c r="H13">
-        <v>6.317728984374356</v>
+        <v>6.165404191879145</v>
       </c>
       <c r="I13">
-        <v>3.979873568238724</v>
+        <v>3.629164555559874</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>9.947853395570956</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>16.12242827795726</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>5.655683988206116</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>13.62860148215197</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.193610556582488</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>10.45298041744163</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>15.63412677740119</v>
+        <v>16.38627654584717</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1063,52 +1063,52 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.06815437475379</v>
+        <v>15.89531009036115</v>
       </c>
       <c r="C14">
-        <v>23.64372433656073</v>
+        <v>9.187539436014935</v>
       </c>
       <c r="D14">
-        <v>9.230612048821721</v>
+        <v>8.527875438892027</v>
       </c>
       <c r="E14">
-        <v>12.47452485418829</v>
+        <v>7.479596692572493</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.053198419658707</v>
+        <v>24.21323977733566</v>
       </c>
       <c r="H14">
-        <v>7.113124819939758</v>
+        <v>7.101646004157623</v>
       </c>
       <c r="I14">
-        <v>3.911245168130808</v>
+        <v>3.671813046743467</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>9.823124685349651</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>15.87733997892114</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>5.750096695181779</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>13.59358205727285</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.931516496881978</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>10.15305821592558</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>14.54976317536127</v>
+        <v>16.05999497893884</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1116,52 +1116,52 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.89671262648975</v>
+        <v>15.8039643500543</v>
       </c>
       <c r="C15">
-        <v>23.53432490604464</v>
+        <v>9.206213560764787</v>
       </c>
       <c r="D15">
-        <v>9.176874170981923</v>
+        <v>8.440933786454138</v>
       </c>
       <c r="E15">
-        <v>11.48676480888394</v>
+        <v>7.451841946839913</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.054025382061608</v>
+        <v>24.01414427677424</v>
       </c>
       <c r="H15">
-        <v>7.295430768928355</v>
+        <v>7.324743595811589</v>
       </c>
       <c r="I15">
-        <v>3.880343363681348</v>
+        <v>3.695123371984341</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>9.798429288194633</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>15.83067903025473</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>5.770402365331964</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>13.54835196186945</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.870112740145961</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>10.06010887104656</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>14.25574320816903</v>
+        <v>15.98825868753551</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1169,52 +1169,52 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.91491546860326</v>
+        <v>15.30951693586409</v>
       </c>
       <c r="C16">
-        <v>22.8455622040809</v>
+        <v>9.041845176177947</v>
       </c>
       <c r="D16">
-        <v>8.868949322270886</v>
+        <v>8.368930889935044</v>
       </c>
       <c r="E16">
-        <v>11.3119336879149</v>
+        <v>7.46184420794656</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.057784129828858</v>
+        <v>24.15314643248191</v>
       </c>
       <c r="H16">
-        <v>7.007537467995535</v>
+        <v>7.164034026787661</v>
       </c>
       <c r="I16">
-        <v>3.731126056603214</v>
+        <v>3.791609891250178</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>9.870286571650976</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>15.9810598274827</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>5.707885302244458</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>13.17409078016288</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.868713196944253</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>9.884265448717251</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>14.15859373800325</v>
+        <v>16.10616558554913</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1222,52 +1222,52 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.30381131141779</v>
+        <v>15.00852604520793</v>
       </c>
       <c r="C17">
-        <v>22.42833852179358</v>
+        <v>8.850757610456014</v>
       </c>
       <c r="D17">
-        <v>8.677498781340381</v>
+        <v>8.484891385098253</v>
       </c>
       <c r="E17">
-        <v>13.39918030100123</v>
+        <v>7.538439162794439</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.059726120998349</v>
+        <v>24.69486525480411</v>
       </c>
       <c r="H17">
-        <v>6.310778786467217</v>
+        <v>6.51957625353909</v>
       </c>
       <c r="I17">
-        <v>3.652297513878179</v>
+        <v>3.843639125249409</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>9.990624610809375</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>16.22204333786444</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>5.605710244144022</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>12.90056422871974</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.004129132127988</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>9.912798490932195</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>14.67091514957058</v>
+        <v>16.36715136028209</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1275,52 +1275,52 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.95853618611775</v>
+        <v>14.85269787959007</v>
       </c>
       <c r="C18">
-        <v>22.17307409356726</v>
+        <v>8.611211674272678</v>
       </c>
       <c r="D18">
-        <v>8.568780160373137</v>
+        <v>8.778673978542063</v>
       </c>
       <c r="E18">
-        <v>17.96953379334497</v>
+        <v>7.736297612100365</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.06016019333027</v>
+        <v>25.68418663811594</v>
       </c>
       <c r="H18">
-        <v>5.269627560738255</v>
+        <v>5.443929839060529</v>
       </c>
       <c r="I18">
-        <v>3.627323536352864</v>
+        <v>3.852832090421556</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>10.17370870593994</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>16.59303569792719</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>5.478960770806123</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>12.68473976521076</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.288783928931204</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>10.11969404929715</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>15.80152295421314</v>
+        <v>16.79888042346203</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1328,52 +1328,52 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.8600044156729</v>
+        <v>14.81756859654815</v>
       </c>
       <c r="C19">
-        <v>22.15708161533562</v>
+        <v>8.393789945322487</v>
       </c>
       <c r="D19">
-        <v>8.536600123578127</v>
+        <v>9.188758171547308</v>
       </c>
       <c r="E19">
-        <v>24.26567657739218</v>
+        <v>8.085736741552282</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.059173954332831</v>
+        <v>26.92089136701432</v>
       </c>
       <c r="H19">
-        <v>4.287378393464564</v>
+        <v>4.266779357495293</v>
       </c>
       <c r="I19">
-        <v>3.659909816288889</v>
+        <v>3.840628829963012</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>10.38844110892379</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>17.03847552746922</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>5.376468897707862</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>12.5439508907991</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.700168259020653</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>10.45148839782237</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>17.26722148500747</v>
+        <v>17.32252079977411</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1381,52 +1381,52 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.46202403993336</v>
+        <v>15.14113413012401</v>
       </c>
       <c r="C20">
-        <v>22.66792729158188</v>
+        <v>8.196186486573605</v>
       </c>
       <c r="D20">
-        <v>8.721716349729293</v>
+        <v>9.908316834813819</v>
       </c>
       <c r="E20">
-        <v>34.45837945924719</v>
+        <v>8.809502560102334</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.054192750152489</v>
+        <v>28.90370730391555</v>
       </c>
       <c r="H20">
-        <v>4.011724603069078</v>
+        <v>3.218697629088018</v>
       </c>
       <c r="I20">
-        <v>3.842600891627849</v>
+        <v>3.740737752486712</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>10.7024546752963</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>17.71457347167492</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>5.339229720586737</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>12.60867254890896</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>7.420813233004122</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>11.10850228120562</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>19.72416384284029</v>
+        <v>18.12880456401934</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1434,52 +1434,52 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.26348911638442</v>
+        <v>16.04785716072568</v>
       </c>
       <c r="C21">
-        <v>23.97662116561174</v>
+        <v>8.396989197197341</v>
       </c>
       <c r="D21">
-        <v>9.286735070701999</v>
+        <v>10.25706370150915</v>
       </c>
       <c r="E21">
-        <v>37.33747205733759</v>
+        <v>9.004870837841283</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.046419411602481</v>
+        <v>29.37412563349432</v>
       </c>
       <c r="H21">
-        <v>4.398960959570072</v>
+        <v>2.96749096568827</v>
       </c>
       <c r="I21">
-        <v>4.147939749903516</v>
+        <v>3.558704298840427</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>10.69994292685102</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>17.71155111207094</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>5.400601977479985</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>13.24837332519837</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>7.657694781556596</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>11.59708270066738</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>20.65298020938932</v>
+        <v>18.22875165662098</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1487,52 +1487,52 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.38962206351611</v>
+        <v>16.61782094088663</v>
       </c>
       <c r="C22">
-        <v>24.75008064270681</v>
+        <v>8.523584430271805</v>
       </c>
       <c r="D22">
-        <v>9.642012757600568</v>
+        <v>10.45537560856346</v>
       </c>
       <c r="E22">
-        <v>38.71064921162453</v>
+        <v>9.098638385566197</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.041516065056668</v>
+        <v>29.64458378047593</v>
       </c>
       <c r="H22">
-        <v>4.628798883839401</v>
+        <v>2.817277717462247</v>
       </c>
       <c r="I22">
-        <v>4.338982782126293</v>
+        <v>3.434806317685923</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>10.69318745882296</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>17.6991775338638</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>5.440358457913073</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>13.6515889884827</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>7.77404285526447</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>11.88283164563567</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>21.20491002555745</v>
+        <v>18.28036042311708</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1540,52 +1540,52 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.79373697220383</v>
+        <v>16.32224587447339</v>
       </c>
       <c r="C23">
-        <v>24.29410116769279</v>
+        <v>8.44258811750804</v>
       </c>
       <c r="D23">
-        <v>9.4537349107962</v>
+        <v>10.35304129760559</v>
       </c>
       <c r="E23">
-        <v>37.98358874188595</v>
+        <v>9.053145161857911</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.044102609774224</v>
+        <v>29.54312662508687</v>
       </c>
       <c r="H23">
-        <v>4.507043362959229</v>
+        <v>2.8962477541482</v>
       </c>
       <c r="I23">
-        <v>4.235298827237734</v>
+        <v>3.490620115472165</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>10.7043444501535</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>17.72514416900504</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>5.419623048913099</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>13.43323838941962</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>7.708540225834742</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>11.73057735585646</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>20.9601831962141</v>
+        <v>18.27122847959758</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1593,52 +1593,52 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.43693827678609</v>
+        <v>15.13941849052117</v>
       </c>
       <c r="C24">
-        <v>22.5803199228251</v>
+        <v>8.153188741594358</v>
       </c>
       <c r="D24">
-        <v>8.713472002555948</v>
+        <v>9.954996021310448</v>
       </c>
       <c r="E24">
-        <v>35.12110194058251</v>
+        <v>8.871209417521328</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.054046750002974</v>
+        <v>29.11003234994006</v>
       </c>
       <c r="H24">
-        <v>4.038179154857045</v>
+        <v>3.203414771931511</v>
       </c>
       <c r="I24">
-        <v>3.841934490348142</v>
+        <v>3.724347326627675</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>10.73977054334362</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>17.80025704802268</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>5.338764049654528</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>12.58059672646191</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>7.463102886451107</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>11.13801534282557</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>19.95734931592853</v>
+        <v>18.2185214253329</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1646,52 +1646,52 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.67983385702391</v>
+        <v>13.74816642034222</v>
       </c>
       <c r="C25">
-        <v>20.60188520522305</v>
+        <v>7.830917756798848</v>
       </c>
       <c r="D25">
-        <v>7.855605411779876</v>
+        <v>9.516447541363226</v>
       </c>
       <c r="E25">
-        <v>31.79903333449962</v>
+        <v>8.670118484782671</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.065042956790101</v>
+        <v>28.69013670038694</v>
       </c>
       <c r="H25">
-        <v>3.51622204783677</v>
+        <v>3.549495350129561</v>
       </c>
       <c r="I25">
-        <v>3.409616052882697</v>
+        <v>3.989866426288105</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>10.79017284697303</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>17.89995194445623</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>5.247756864321639</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>11.59079396229939</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.192613835104568</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>10.46529338773472</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>18.88658508673164</v>
+        <v>18.18797385954256</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_1/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_1/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.6418872382502</v>
+        <v>12.62516018668955</v>
       </c>
       <c r="C2">
-        <v>7.550515247090581</v>
+        <v>7.24536738984556</v>
       </c>
       <c r="D2">
-        <v>9.196651262074539</v>
+        <v>9.127607299099026</v>
       </c>
       <c r="E2">
-        <v>8.529920378726141</v>
+        <v>8.426050985394337</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>28.53231848818765</v>
+        <v>27.01127700325074</v>
       </c>
       <c r="H2">
-        <v>3.815025087467563</v>
+        <v>3.637303459652731</v>
       </c>
       <c r="I2">
-        <v>4.174613640249334</v>
+        <v>3.948204118511096</v>
       </c>
       <c r="J2">
-        <v>10.85660010855635</v>
+        <v>10.63953931598388</v>
       </c>
       <c r="K2">
-        <v>18.03732410215194</v>
+        <v>17.19265212060851</v>
       </c>
       <c r="L2">
-        <v>5.178581259816352</v>
+        <v>13.35163670170162</v>
       </c>
       <c r="M2">
-        <v>10.78943904081905</v>
+        <v>12.04249165849667</v>
       </c>
       <c r="N2">
-        <v>6.980175742559138</v>
+        <v>5.15276212677875</v>
       </c>
       <c r="O2">
-        <v>9.942147643568457</v>
+        <v>10.917090260566</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>7.203354046083161</v>
       </c>
       <c r="Q2">
-        <v>18.23418749415439</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>9.927878450100614</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>17.56787301723159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.81908665622977</v>
+        <v>11.82873363246245</v>
       </c>
       <c r="C3">
-        <v>7.375013551771086</v>
+        <v>6.992024201113411</v>
       </c>
       <c r="D3">
-        <v>8.972593014629837</v>
+        <v>8.913069606652433</v>
       </c>
       <c r="E3">
-        <v>8.426141710796639</v>
+        <v>8.336761277372515</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>28.38478177013533</v>
+        <v>27.00561024006415</v>
       </c>
       <c r="H3">
-        <v>4.004989170040477</v>
+        <v>3.814799225363363</v>
       </c>
       <c r="I3">
-        <v>4.319562323080228</v>
+        <v>4.077633886341777</v>
       </c>
       <c r="J3">
-        <v>10.89634360340176</v>
+        <v>10.65590018922542</v>
       </c>
       <c r="K3">
-        <v>18.11119608732634</v>
+        <v>17.29694651007674</v>
       </c>
       <c r="L3">
-        <v>5.128766920057509</v>
+        <v>13.49047709198885</v>
       </c>
       <c r="M3">
-        <v>10.21746972702489</v>
+        <v>12.10049582967163</v>
       </c>
       <c r="N3">
-        <v>6.839524377271168</v>
+        <v>5.104494187620165</v>
       </c>
       <c r="O3">
-        <v>9.573821913362107</v>
+        <v>10.33338864377857</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>7.06174773397666</v>
       </c>
       <c r="Q3">
-        <v>18.25072778369163</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>9.553648132458017</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>17.61761960105187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.28221299200566</v>
+        <v>11.30940331479225</v>
       </c>
       <c r="C4">
-        <v>7.265394929923607</v>
+        <v>6.833781246403674</v>
       </c>
       <c r="D4">
-        <v>8.834117203378895</v>
+        <v>8.780543629029793</v>
       </c>
       <c r="E4">
-        <v>8.361185501824071</v>
+        <v>8.280820510277129</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>28.30327505961845</v>
+        <v>27.01259741387346</v>
       </c>
       <c r="H4">
-        <v>4.126014747257729</v>
+        <v>3.927914313686757</v>
       </c>
       <c r="I4">
-        <v>4.41253811853605</v>
+        <v>4.160915629327584</v>
       </c>
       <c r="J4">
-        <v>10.92318979709612</v>
+        <v>10.66682030126647</v>
       </c>
       <c r="K4">
-        <v>18.15987599382233</v>
+        <v>17.36334714296673</v>
       </c>
       <c r="L4">
-        <v>5.097012207229019</v>
+        <v>13.57701239320094</v>
       </c>
       <c r="M4">
-        <v>9.849121198212211</v>
+        <v>12.15063756664774</v>
       </c>
       <c r="N4">
-        <v>6.752584327310363</v>
+        <v>5.073770279915346</v>
       </c>
       <c r="O4">
-        <v>9.341162813290261</v>
+        <v>9.957623853537321</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.974560167086791</v>
       </c>
       <c r="Q4">
-        <v>18.2659004636978</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>9.316958746254388</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>17.65225966940826</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.05323265618961</v>
+        <v>11.08798921398682</v>
       </c>
       <c r="C5">
-        <v>7.223888512388131</v>
+        <v>6.773237902074694</v>
       </c>
       <c r="D5">
-        <v>8.776546992799107</v>
+        <v>8.72544714348226</v>
       </c>
       <c r="E5">
-        <v>8.333137248759536</v>
+        <v>8.256527116896724</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>28.26031660785643</v>
+        <v>27.00649358580808</v>
       </c>
       <c r="H5">
-        <v>4.17675498880293</v>
+        <v>3.975354711838266</v>
       </c>
       <c r="I5">
-        <v>4.453759697188538</v>
+        <v>4.19853376607064</v>
       </c>
       <c r="J5">
-        <v>10.93266955237949</v>
+        <v>10.66941848781373</v>
       </c>
       <c r="K5">
-        <v>18.17534916118487</v>
+        <v>17.38607895661046</v>
       </c>
       <c r="L5">
-        <v>5.083612772269774</v>
+        <v>13.60772033203859</v>
       </c>
       <c r="M5">
-        <v>9.696300349836742</v>
+        <v>12.17212070232783</v>
       </c>
       <c r="N5">
-        <v>6.718044163694242</v>
+        <v>5.060832950875256</v>
       </c>
       <c r="O5">
-        <v>9.245030863368898</v>
+        <v>9.801712179431894</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.939968622794229</v>
       </c>
       <c r="Q5">
-        <v>18.26827001095587</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>9.219078972628605</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>17.66251459532117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.01201833924873</v>
+        <v>11.0481275974109</v>
       </c>
       <c r="C6">
-        <v>7.221429507856349</v>
+        <v>6.768767190289833</v>
       </c>
       <c r="D6">
-        <v>8.765775812134624</v>
+        <v>8.715121510736161</v>
       </c>
       <c r="E6">
-        <v>8.326897912050804</v>
+        <v>8.250979399205537</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>28.23865937275691</v>
+        <v>26.99158867502631</v>
       </c>
       <c r="H6">
-        <v>4.185620174601489</v>
+        <v>3.983654790446857</v>
       </c>
       <c r="I6">
-        <v>4.463631218833973</v>
+        <v>4.208317104577047</v>
       </c>
       <c r="J6">
-        <v>10.93175595180688</v>
+        <v>10.66733349491699</v>
       </c>
       <c r="K6">
-        <v>18.1716324732997</v>
+        <v>17.38389020920962</v>
       </c>
       <c r="L6">
-        <v>5.081173687754142</v>
+        <v>13.6068838219974</v>
       </c>
       <c r="M6">
-        <v>9.672529403801629</v>
+        <v>12.17276177246145</v>
       </c>
       <c r="N6">
-        <v>6.713532491046627</v>
+        <v>5.058497890619502</v>
       </c>
       <c r="O6">
-        <v>9.22922064324184</v>
+        <v>9.777393387161309</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.935406660497757</v>
       </c>
       <c r="Q6">
-        <v>18.26256725805512</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>9.202965947474123</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>17.65833293829686</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.27193410345201</v>
+        <v>11.3002216426259</v>
       </c>
       <c r="C7">
-        <v>7.276974020029567</v>
+        <v>6.845171690085214</v>
       </c>
       <c r="D7">
-        <v>8.830085087272071</v>
+        <v>8.776866763970853</v>
       </c>
       <c r="E7">
-        <v>8.356570767675365</v>
+        <v>8.276475800822512</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>28.26278682390634</v>
+        <v>27.03089736333055</v>
       </c>
       <c r="H7">
-        <v>4.127691047437017</v>
+        <v>3.930046046356118</v>
       </c>
       <c r="I7">
-        <v>4.420927871392064</v>
+        <v>4.171086593469735</v>
       </c>
       <c r="J7">
-        <v>10.91644219663631</v>
+        <v>10.62928244241588</v>
       </c>
       <c r="K7">
-        <v>18.14281451834621</v>
+        <v>17.34071056549349</v>
       </c>
       <c r="L7">
-        <v>5.096312574252471</v>
+        <v>13.55514764139565</v>
       </c>
       <c r="M7">
-        <v>9.852072193068892</v>
+        <v>12.13834614185051</v>
       </c>
       <c r="N7">
-        <v>6.755456879895921</v>
+        <v>5.072899332500165</v>
       </c>
       <c r="O7">
-        <v>9.340512863990094</v>
+        <v>9.959263792246626</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.976699689604358</v>
       </c>
       <c r="Q7">
-        <v>18.24912087618343</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>9.3163026945131</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>17.62689304617503</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.35592509503916</v>
+        <v>12.35072577531987</v>
       </c>
       <c r="C8">
-        <v>7.506305815825054</v>
+        <v>7.168727885007304</v>
       </c>
       <c r="D8">
-        <v>9.115469161468091</v>
+        <v>9.050600208362248</v>
       </c>
       <c r="E8">
-        <v>8.488948992704772</v>
+        <v>8.390529292340171</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>28.42744326575433</v>
+        <v>27.14615466877549</v>
       </c>
       <c r="H8">
-        <v>3.88085683949874</v>
+        <v>3.700482982636835</v>
       </c>
       <c r="I8">
-        <v>4.233656161259419</v>
+        <v>4.005127124249621</v>
       </c>
       <c r="J8">
-        <v>10.8607860435437</v>
+        <v>10.53622454812707</v>
       </c>
       <c r="K8">
-        <v>18.03943045281904</v>
+        <v>17.18526756820429</v>
       </c>
       <c r="L8">
-        <v>5.161021318787557</v>
+        <v>13.36066660637938</v>
       </c>
       <c r="M8">
-        <v>10.60208819564147</v>
+        <v>12.03270904395615</v>
       </c>
       <c r="N8">
-        <v>6.936140630354013</v>
+        <v>5.135047848244034</v>
       </c>
       <c r="O8">
-        <v>9.817343712660863</v>
+        <v>10.72201183449936</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>7.156817242043162</v>
       </c>
       <c r="Q8">
-        <v>18.2168086309125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>9.801166395071839</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>17.53243043329618</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.24288854712524</v>
+        <v>14.17885765835453</v>
       </c>
       <c r="C9">
-        <v>7.919585756963221</v>
+        <v>7.764425743201057</v>
       </c>
       <c r="D9">
-        <v>9.670510079411274</v>
+        <v>9.582772191276064</v>
       </c>
       <c r="E9">
-        <v>8.745529405594363</v>
+        <v>8.611770160020658</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>28.89419583438776</v>
+        <v>27.31804414817897</v>
       </c>
       <c r="H9">
-        <v>3.429382183765027</v>
+        <v>3.279049681861499</v>
       </c>
       <c r="I9">
-        <v>3.884789214595489</v>
+        <v>3.69288915498046</v>
       </c>
       <c r="J9">
-        <v>10.7836504742156</v>
+        <v>10.48163906012034</v>
       </c>
       <c r="K9">
-        <v>17.89431521970273</v>
+        <v>16.95220692577426</v>
       </c>
       <c r="L9">
-        <v>5.279657830759379</v>
+        <v>13.0378191615151</v>
       </c>
       <c r="M9">
-        <v>11.92575878924143</v>
+        <v>11.97374150431621</v>
       </c>
       <c r="N9">
-        <v>7.278777321252317</v>
+        <v>5.250053652034914</v>
       </c>
       <c r="O9">
-        <v>10.69525557476056</v>
+        <v>12.07301055191065</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>7.503320165783246</v>
       </c>
       <c r="Q9">
-        <v>18.22424299675823</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>10.69147455023062</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>17.4432781662701</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.47117543229558</v>
+        <v>15.37564657089979</v>
       </c>
       <c r="C10">
-        <v>8.24234394314489</v>
+        <v>8.200213872018141</v>
       </c>
       <c r="D10">
-        <v>10.00780728940762</v>
+        <v>9.907021597318453</v>
       </c>
       <c r="E10">
-        <v>8.852283908987278</v>
+        <v>8.697856169634498</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>29.08205039399327</v>
+        <v>27.65369142767029</v>
       </c>
       <c r="H10">
-        <v>3.142015248544386</v>
+        <v>3.014817029787485</v>
       </c>
       <c r="I10">
-        <v>3.656167596861485</v>
+        <v>3.492972645671034</v>
       </c>
       <c r="J10">
-        <v>10.70464926823242</v>
+        <v>10.25097823761502</v>
       </c>
       <c r="K10">
-        <v>17.726954034248</v>
+        <v>16.69160179447925</v>
       </c>
       <c r="L10">
-        <v>5.361592919293728</v>
+        <v>12.73123492548617</v>
       </c>
       <c r="M10">
-        <v>12.8253325000489</v>
+        <v>11.92258925230439</v>
       </c>
       <c r="N10">
-        <v>7.462035506499398</v>
+        <v>5.330202420292548</v>
       </c>
       <c r="O10">
-        <v>11.25301579246708</v>
+        <v>12.98388501544869</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>7.686064124690148</v>
       </c>
       <c r="Q10">
-        <v>18.17034293357931</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>11.25581869000804</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>17.2723219098528</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.95317490017683</v>
+        <v>15.87300386736563</v>
       </c>
       <c r="C11">
-        <v>8.621516710322583</v>
+        <v>8.597016125657529</v>
       </c>
       <c r="D11">
-        <v>9.644003357842919</v>
+        <v>9.552466525547116</v>
       </c>
       <c r="E11">
-        <v>8.316764458530132</v>
+        <v>8.184872709684022</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>27.543023824935</v>
+        <v>26.90985104149048</v>
       </c>
       <c r="H11">
-        <v>3.79088934009719</v>
+        <v>3.69439243023107</v>
       </c>
       <c r="I11">
-        <v>3.60839852740546</v>
+        <v>3.459333095282889</v>
       </c>
       <c r="J11">
-        <v>10.38817074226917</v>
+        <v>9.69338236533401</v>
       </c>
       <c r="K11">
-        <v>17.03812427305824</v>
+        <v>16.0148093698491</v>
       </c>
       <c r="L11">
-        <v>5.438841881824506</v>
+        <v>12.19824162788632</v>
       </c>
       <c r="M11">
-        <v>13.32892122760648</v>
+        <v>11.45545534776149</v>
       </c>
       <c r="N11">
-        <v>7.002858851329234</v>
+        <v>5.417304677889437</v>
       </c>
       <c r="O11">
-        <v>11.08244102754166</v>
+        <v>13.46774432438509</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>7.208320463824138</v>
       </c>
       <c r="Q11">
-        <v>17.45539881363751</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>11.08416928909853</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>16.51148175257735</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.11998776710729</v>
+        <v>16.05698822947664</v>
       </c>
       <c r="C12">
-        <v>8.877617227423212</v>
+        <v>8.840125468108878</v>
       </c>
       <c r="D12">
-        <v>9.265973718248663</v>
+        <v>9.183812144469533</v>
       </c>
       <c r="E12">
-        <v>7.926481420988704</v>
+        <v>7.816125751457879</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>26.26170214195264</v>
+        <v>26.03708864055248</v>
       </c>
       <c r="H12">
-        <v>4.89896689189094</v>
+        <v>4.825670355297339</v>
       </c>
       <c r="I12">
-        <v>3.598237719573639</v>
+        <v>3.451635538020708</v>
       </c>
       <c r="J12">
-        <v>10.14993785938795</v>
+        <v>9.41678796478018</v>
       </c>
       <c r="K12">
-        <v>16.53524767417979</v>
+        <v>15.56740725460245</v>
       </c>
       <c r="L12">
-        <v>5.538316324653111</v>
+        <v>11.87659491664714</v>
       </c>
       <c r="M12">
-        <v>13.5672769359442</v>
+        <v>11.11057645315877</v>
       </c>
       <c r="N12">
-        <v>6.589826774648065</v>
+        <v>5.523739062129378</v>
       </c>
       <c r="O12">
-        <v>10.81528848251601</v>
+        <v>13.68981538099064</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>6.78195347039896</v>
       </c>
       <c r="Q12">
-        <v>16.89162947527619</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>10.81499370357384</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>15.970264064596</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.05182330694584</v>
+        <v>16.0073663679246</v>
       </c>
       <c r="C13">
-        <v>9.072235442227736</v>
+        <v>9.011909586020717</v>
       </c>
       <c r="D13">
-        <v>8.844534265045215</v>
+        <v>8.771959528535103</v>
       </c>
       <c r="E13">
-        <v>7.628412951513666</v>
+        <v>7.540357554734996</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>25.0407227900863</v>
+        <v>24.81334337805882</v>
       </c>
       <c r="H13">
-        <v>6.165404191879145</v>
+        <v>6.10442119338822</v>
       </c>
       <c r="I13">
-        <v>3.629164555559874</v>
+        <v>3.477891352088845</v>
       </c>
       <c r="J13">
-        <v>9.947853395570956</v>
+        <v>9.324093262251884</v>
       </c>
       <c r="K13">
-        <v>16.12242827795726</v>
+        <v>15.25361933880751</v>
       </c>
       <c r="L13">
-        <v>5.655683988206116</v>
+        <v>11.66809910674724</v>
       </c>
       <c r="M13">
-        <v>13.62860148215197</v>
+        <v>10.83847736008015</v>
       </c>
       <c r="N13">
-        <v>6.193610556582488</v>
+        <v>5.647194570236345</v>
       </c>
       <c r="O13">
-        <v>10.45298041744163</v>
+        <v>13.73814234238014</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>6.376688380923996</v>
       </c>
       <c r="Q13">
-        <v>16.38627654584717</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>10.44965733370783</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>15.55750037632921</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.89531009036115</v>
+        <v>15.86479192442639</v>
       </c>
       <c r="C14">
-        <v>9.187539436014935</v>
+        <v>9.107095445359255</v>
       </c>
       <c r="D14">
-        <v>8.527875438892027</v>
+        <v>8.462222812440467</v>
       </c>
       <c r="E14">
-        <v>7.479596692572493</v>
+        <v>7.407395386629815</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>24.21323977733566</v>
+        <v>23.81958237063789</v>
       </c>
       <c r="H14">
-        <v>7.101646004157623</v>
+        <v>7.045547680413177</v>
       </c>
       <c r="I14">
-        <v>3.671813046743467</v>
+        <v>3.514598068509552</v>
       </c>
       <c r="J14">
-        <v>9.823124685349651</v>
+        <v>9.322341396366248</v>
       </c>
       <c r="K14">
-        <v>15.87733997892114</v>
+        <v>15.09098704160312</v>
       </c>
       <c r="L14">
-        <v>5.750096695181779</v>
+        <v>11.56487672577916</v>
       </c>
       <c r="M14">
-        <v>13.59358205727285</v>
+        <v>10.68372999711162</v>
       </c>
       <c r="N14">
-        <v>5.931516496881978</v>
+        <v>5.745375456636658</v>
       </c>
       <c r="O14">
-        <v>10.15305821592558</v>
+        <v>13.69519294111987</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>6.110148794559792</v>
       </c>
       <c r="Q14">
-        <v>16.05999497893884</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>10.14700109583688</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>15.32192257773603</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.8039643500543</v>
+        <v>15.77734936521027</v>
       </c>
       <c r="C15">
-        <v>9.206213560764787</v>
+        <v>9.120266398104212</v>
       </c>
       <c r="D15">
-        <v>8.440933786454138</v>
+        <v>8.3771457898167</v>
       </c>
       <c r="E15">
-        <v>7.451841946839913</v>
+        <v>7.383997876804798</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>24.01414427677424</v>
+        <v>23.5157760017685</v>
       </c>
       <c r="H15">
-        <v>7.324743595811589</v>
+        <v>7.268821471933308</v>
       </c>
       <c r="I15">
-        <v>3.695123371984341</v>
+        <v>3.535618799979754</v>
       </c>
       <c r="J15">
-        <v>9.798429288194633</v>
+        <v>9.34780428493448</v>
       </c>
       <c r="K15">
-        <v>15.83067903025473</v>
+        <v>15.07048549587972</v>
       </c>
       <c r="L15">
-        <v>5.770402365331964</v>
+        <v>11.55323494415641</v>
       </c>
       <c r="M15">
-        <v>13.54835196186945</v>
+        <v>10.65788424086249</v>
       </c>
       <c r="N15">
-        <v>5.870112740145961</v>
+        <v>5.766741551145017</v>
       </c>
       <c r="O15">
-        <v>10.06010887104656</v>
+        <v>13.64858266511814</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>6.048407741791722</v>
       </c>
       <c r="Q15">
-        <v>15.98825868753551</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>10.05309276861693</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>15.28334063479872</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.30951693586409</v>
+        <v>15.287657241562</v>
       </c>
       <c r="C16">
-        <v>9.041845176177947</v>
+        <v>8.944758483311862</v>
       </c>
       <c r="D16">
-        <v>8.368930889935044</v>
+        <v>8.306905815419885</v>
       </c>
       <c r="E16">
-        <v>7.46184420794656</v>
+        <v>7.399066363006004</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>24.15314643248191</v>
+        <v>23.14472175477885</v>
       </c>
       <c r="H16">
-        <v>7.164034026787661</v>
+        <v>7.09894489043472</v>
       </c>
       <c r="I16">
-        <v>3.791609891250178</v>
+        <v>3.618632691443782</v>
       </c>
       <c r="J16">
-        <v>9.870286571650976</v>
+        <v>9.607366805959698</v>
       </c>
       <c r="K16">
-        <v>15.9810598274827</v>
+        <v>15.2720037305482</v>
       </c>
       <c r="L16">
-        <v>5.707885302244458</v>
+        <v>11.70000325250175</v>
       </c>
       <c r="M16">
-        <v>13.17409078016288</v>
+        <v>10.78609649049419</v>
       </c>
       <c r="N16">
-        <v>5.868713196944253</v>
+        <v>5.706168593201387</v>
       </c>
       <c r="O16">
-        <v>9.884265448717251</v>
+        <v>13.27930128613559</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>6.053618971687225</v>
       </c>
       <c r="Q16">
-        <v>16.10616558554913</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>9.874638014914431</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>15.49342277151828</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.00852604520793</v>
+        <v>14.98367902677609</v>
       </c>
       <c r="C17">
-        <v>8.850757610456014</v>
+        <v>8.750656620030288</v>
       </c>
       <c r="D17">
-        <v>8.484891385098253</v>
+        <v>8.42083510364235</v>
       </c>
       <c r="E17">
-        <v>7.538439162794439</v>
+        <v>7.470702751170401</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>24.69486525480411</v>
+        <v>23.44795397718775</v>
       </c>
       <c r="H17">
-        <v>6.51957625353909</v>
+        <v>6.443321600316072</v>
       </c>
       <c r="I17">
-        <v>3.843639125249409</v>
+        <v>3.664033304232755</v>
       </c>
       <c r="J17">
-        <v>9.990624610809375</v>
+        <v>9.803423466421691</v>
       </c>
       <c r="K17">
-        <v>16.22204333786444</v>
+        <v>15.50867120829864</v>
       </c>
       <c r="L17">
-        <v>5.605710244144022</v>
+        <v>11.87574484747179</v>
       </c>
       <c r="M17">
-        <v>12.90056422871974</v>
+        <v>10.95553497962144</v>
       </c>
       <c r="N17">
-        <v>6.004129132127988</v>
+        <v>5.603013052973345</v>
       </c>
       <c r="O17">
-        <v>9.912798490932195</v>
+        <v>13.01272715822879</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>6.195892127172671</v>
       </c>
       <c r="Q17">
-        <v>16.36715136028209</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>9.902742450137076</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>15.7710420441484</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.85269787959007</v>
+        <v>14.81617233015613</v>
       </c>
       <c r="C18">
-        <v>8.611211674272678</v>
+        <v>8.516366090518186</v>
       </c>
       <c r="D18">
-        <v>8.778673978542063</v>
+        <v>8.708287334220346</v>
       </c>
       <c r="E18">
-        <v>7.736297612100365</v>
+        <v>7.65336686548774</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>25.68418663811594</v>
+        <v>24.26344024661884</v>
       </c>
       <c r="H18">
-        <v>5.443929839060529</v>
+        <v>5.350799872311327</v>
       </c>
       <c r="I18">
-        <v>3.852832090421556</v>
+        <v>3.669766481163835</v>
       </c>
       <c r="J18">
-        <v>10.17370870593994</v>
+        <v>10.00457166705223</v>
       </c>
       <c r="K18">
-        <v>16.59303569792719</v>
+        <v>15.83543354055957</v>
       </c>
       <c r="L18">
-        <v>5.478960770806123</v>
+        <v>12.12424669111506</v>
       </c>
       <c r="M18">
-        <v>12.68473976521076</v>
+        <v>11.19825091482941</v>
       </c>
       <c r="N18">
-        <v>6.288783928931204</v>
+        <v>5.472264888936563</v>
       </c>
       <c r="O18">
-        <v>10.11969404929715</v>
+        <v>12.80808807767101</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>6.489373967379702</v>
       </c>
       <c r="Q18">
-        <v>16.79888042346203</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>10.11125075011225</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>16.17293548201988</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.81756859654815</v>
+        <v>14.76309793201462</v>
       </c>
       <c r="C19">
-        <v>8.393789945322487</v>
+        <v>8.311427021491447</v>
       </c>
       <c r="D19">
-        <v>9.188758171547308</v>
+        <v>9.108849819594429</v>
       </c>
       <c r="E19">
-        <v>8.085736741552282</v>
+        <v>7.979676371254805</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>26.92089136701432</v>
+        <v>25.34324741937202</v>
       </c>
       <c r="H19">
-        <v>4.266779357495293</v>
+        <v>4.150276390369579</v>
       </c>
       <c r="I19">
-        <v>3.840628829963012</v>
+        <v>3.660165370377037</v>
       </c>
       <c r="J19">
-        <v>10.38844110892379</v>
+        <v>10.20463777124116</v>
       </c>
       <c r="K19">
-        <v>17.03847552746922</v>
+        <v>16.20992373034616</v>
       </c>
       <c r="L19">
-        <v>5.376468897707862</v>
+        <v>12.41181902206258</v>
       </c>
       <c r="M19">
-        <v>12.5439508907991</v>
+        <v>11.48049850119882</v>
       </c>
       <c r="N19">
-        <v>6.700168259020653</v>
+        <v>5.362462361836005</v>
       </c>
       <c r="O19">
-        <v>10.45148839782237</v>
+        <v>12.68127490883212</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>6.911064554431652</v>
       </c>
       <c r="Q19">
-        <v>17.32252079977411</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>10.44612257972304</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>16.63735501131531</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.14113413012401</v>
+        <v>15.05190930308767</v>
       </c>
       <c r="C20">
-        <v>8.196186486573605</v>
+        <v>8.143507580412438</v>
       </c>
       <c r="D20">
-        <v>9.908316834813819</v>
+        <v>9.810323416940486</v>
       </c>
       <c r="E20">
-        <v>8.809502560102334</v>
+        <v>8.660713658230254</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>28.90370730391555</v>
+        <v>27.2353189696886</v>
       </c>
       <c r="H20">
-        <v>3.218697629088018</v>
+        <v>3.083854942195361</v>
       </c>
       <c r="I20">
-        <v>3.740737752486712</v>
+        <v>3.573516866145372</v>
       </c>
       <c r="J20">
-        <v>10.7024546752963</v>
+        <v>10.39213280110019</v>
       </c>
       <c r="K20">
-        <v>17.71457347167492</v>
+        <v>16.73158490546224</v>
       </c>
       <c r="L20">
-        <v>5.339229720586737</v>
+        <v>12.78946684166094</v>
       </c>
       <c r="M20">
-        <v>12.60867254890896</v>
+        <v>11.91086333666685</v>
       </c>
       <c r="N20">
-        <v>7.420813233004122</v>
+        <v>5.309330791463482</v>
       </c>
       <c r="O20">
-        <v>11.10850228120562</v>
+        <v>12.76733681495578</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>7.646517889878979</v>
       </c>
       <c r="Q20">
-        <v>18.12880456401934</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>11.10967214662198</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>17.29736219390117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.04785716072568</v>
+        <v>15.94331021343999</v>
       </c>
       <c r="C21">
-        <v>8.396989197197341</v>
+        <v>8.376229927105292</v>
       </c>
       <c r="D21">
-        <v>10.25706370150915</v>
+        <v>10.15202378350657</v>
       </c>
       <c r="E21">
-        <v>9.004870837841283</v>
+        <v>8.83818016951407</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>29.37412563349432</v>
+        <v>28.90453638600525</v>
       </c>
       <c r="H21">
-        <v>2.96749096568827</v>
+        <v>2.857539888026183</v>
       </c>
       <c r="I21">
-        <v>3.558704298840427</v>
+        <v>3.419822086446317</v>
       </c>
       <c r="J21">
-        <v>10.69994292685102</v>
+        <v>9.778633264232344</v>
       </c>
       <c r="K21">
-        <v>17.71155111207094</v>
+        <v>16.51699940632804</v>
       </c>
       <c r="L21">
-        <v>5.400601977479985</v>
+        <v>12.55040388380162</v>
       </c>
       <c r="M21">
-        <v>13.24837332519837</v>
+        <v>11.87255018975505</v>
       </c>
       <c r="N21">
-        <v>7.657694781556596</v>
+        <v>5.363502988920382</v>
       </c>
       <c r="O21">
-        <v>11.59708270066738</v>
+        <v>13.40169364719666</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>7.875679438864662</v>
       </c>
       <c r="Q21">
-        <v>18.22875165662098</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>11.60300601250797</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>17.11910689811925</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.61782094088663</v>
+        <v>16.50582878130241</v>
       </c>
       <c r="C22">
-        <v>8.523584430271805</v>
+        <v>8.517330132379627</v>
       </c>
       <c r="D22">
-        <v>10.45537560856346</v>
+        <v>10.34720618713333</v>
       </c>
       <c r="E22">
-        <v>9.098638385566197</v>
+        <v>8.923212290428992</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>29.64458378047593</v>
+        <v>30.10004888411527</v>
       </c>
       <c r="H22">
-        <v>2.817277717462247</v>
+        <v>2.723085396423041</v>
       </c>
       <c r="I22">
-        <v>3.434806317685923</v>
+        <v>3.311824263197244</v>
       </c>
       <c r="J22">
-        <v>10.69318745882296</v>
+        <v>9.404486022437117</v>
       </c>
       <c r="K22">
-        <v>17.6991775338638</v>
+        <v>16.3587899625565</v>
       </c>
       <c r="L22">
-        <v>5.440358457913073</v>
+        <v>12.38514780657447</v>
       </c>
       <c r="M22">
-        <v>13.6515889884827</v>
+        <v>11.84049283626443</v>
       </c>
       <c r="N22">
-        <v>7.77404285526447</v>
+        <v>5.39951115711291</v>
       </c>
       <c r="O22">
-        <v>11.88283164563567</v>
+        <v>13.79993617728228</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>7.985866869881043</v>
       </c>
       <c r="Q22">
-        <v>18.28036042311708</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>11.89106350143781</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>16.97668459987861</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.32224587447339</v>
+        <v>16.21239620577109</v>
       </c>
       <c r="C23">
-        <v>8.44258811750804</v>
+        <v>8.432299696251325</v>
       </c>
       <c r="D23">
-        <v>10.35304129760559</v>
+        <v>10.24567786069992</v>
       </c>
       <c r="E23">
-        <v>9.053145161857911</v>
+        <v>8.88151446593173</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>29.54312662508687</v>
+        <v>29.3404851389944</v>
       </c>
       <c r="H23">
-        <v>2.8962477541482</v>
+        <v>2.792877084993191</v>
       </c>
       <c r="I23">
-        <v>3.490620115472165</v>
+        <v>3.356503502059834</v>
       </c>
       <c r="J23">
-        <v>10.7043444501535</v>
+        <v>9.658694808616417</v>
       </c>
       <c r="K23">
-        <v>17.72514416900504</v>
+        <v>16.47711468867719</v>
       </c>
       <c r="L23">
-        <v>5.419623048913099</v>
+        <v>12.49639454476518</v>
       </c>
       <c r="M23">
-        <v>13.43323838941962</v>
+        <v>11.8849452655175</v>
       </c>
       <c r="N23">
-        <v>7.708540225834742</v>
+        <v>5.38105352534128</v>
       </c>
       <c r="O23">
-        <v>11.73057735585646</v>
+        <v>13.58645954614058</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>7.925131194047248</v>
       </c>
       <c r="Q23">
-        <v>18.27122847959758</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>11.73770154379817</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>17.09381448888402</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.13941849052117</v>
+        <v>15.04821863043785</v>
       </c>
       <c r="C24">
-        <v>8.153188741594358</v>
+        <v>8.094325878551437</v>
       </c>
       <c r="D24">
-        <v>9.954996021310448</v>
+        <v>9.855866041103543</v>
       </c>
       <c r="E24">
-        <v>8.871209417521328</v>
+        <v>8.719561637259593</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>29.11003234994006</v>
+        <v>27.4151244942934</v>
       </c>
       <c r="H24">
-        <v>3.203414771931511</v>
+        <v>3.068501482541897</v>
       </c>
       <c r="I24">
-        <v>3.724347326627675</v>
+        <v>3.554201152677402</v>
       </c>
       <c r="J24">
-        <v>10.73977054334362</v>
+        <v>10.4304034823806</v>
       </c>
       <c r="K24">
-        <v>17.80025704802268</v>
+        <v>16.80725725809538</v>
       </c>
       <c r="L24">
-        <v>5.338764049654528</v>
+        <v>12.84799198992103</v>
       </c>
       <c r="M24">
-        <v>12.58059672646191</v>
+        <v>11.9672780406576</v>
       </c>
       <c r="N24">
-        <v>7.463102886451107</v>
+        <v>5.307509162906813</v>
       </c>
       <c r="O24">
-        <v>11.13801534282557</v>
+        <v>12.74073760580662</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>7.690200415397136</v>
       </c>
       <c r="Q24">
-        <v>18.2185214253329</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>11.13947723153699</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>17.38021008515097</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.74816642034222</v>
+        <v>13.6983663425316</v>
       </c>
       <c r="C25">
-        <v>7.830917756798848</v>
+        <v>7.637010600693675</v>
       </c>
       <c r="D25">
-        <v>9.516447541363226</v>
+        <v>9.43457419520576</v>
       </c>
       <c r="E25">
-        <v>8.670118484782671</v>
+        <v>8.545986098252062</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>28.69013670038694</v>
+        <v>27.11344679668893</v>
       </c>
       <c r="H25">
-        <v>3.549495350129561</v>
+        <v>3.390518834036688</v>
       </c>
       <c r="I25">
-        <v>3.989866426288105</v>
+        <v>3.790134513014877</v>
       </c>
       <c r="J25">
-        <v>10.79017284697303</v>
+        <v>10.52621396109103</v>
       </c>
       <c r="K25">
-        <v>17.89995194445623</v>
+        <v>16.99405869474243</v>
       </c>
       <c r="L25">
-        <v>5.247756864321639</v>
+        <v>13.10855602429741</v>
       </c>
       <c r="M25">
-        <v>11.59079396229939</v>
+        <v>11.9634634410243</v>
       </c>
       <c r="N25">
-        <v>7.192613835104568</v>
+        <v>5.219528392817599</v>
       </c>
       <c r="O25">
-        <v>10.46529338773472</v>
+        <v>11.73222983287834</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>7.416491211358342</v>
       </c>
       <c r="Q25">
-        <v>18.18797385954256</v>
+        <v>10.45847837880255</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>17.44846307203401</v>
       </c>
     </row>
   </sheetData>
